--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A303B8-C73F-4EF4-BA2C-1CFF7461F6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8EBE3F-C9D5-47EF-81C8-13F596ADA402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1005" windowWidth="24690" windowHeight="7080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="1470" windowWidth="13095" windowHeight="9495" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -677,10 +677,38 @@
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     <numFmt numFmtId="166" formatCode="\+&quot;$&quot;0.00;\-&quot;$&quot;0.00;&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -790,8 +818,120 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,8 +950,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1127,12 +1440,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1144,16 +1666,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1176,10 +1698,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1188,7 +1710,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1203,14 +1725,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1228,7 +1750,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1237,19 +1759,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1268,7 +1790,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1278,10 +1800,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1302,15 +1824,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1331,7 +1853,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1346,11 +1868,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1380,7 +1902,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1389,19 +1911,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1941,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1428,61 +1953,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="104">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="46" xr:uid="{02BAB7D6-C846-4D2A-912F-3C07D1DD4FF0}"/>
+    <cellStyle name="20% - Accent1 3" xfId="66" xr:uid="{89DAF94E-6BDD-4FDC-8302-85528D01EDDA}"/>
+    <cellStyle name="20% - Accent1 4" xfId="86" xr:uid="{7B1B9CF1-2737-409F-9F4B-CF269FE4FDDC}"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="49" xr:uid="{9B8B4624-16AD-4AEE-A198-A8FDF7C8BD81}"/>
+    <cellStyle name="20% - Accent2 3" xfId="69" xr:uid="{7FC42DE8-97E3-483D-86E4-1C43881206A5}"/>
+    <cellStyle name="20% - Accent2 4" xfId="89" xr:uid="{6C52E251-C353-4B7E-A4FD-FEA2151429DF}"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="52" xr:uid="{7A856016-D5DC-4F33-97B8-3BDEC6B41FAE}"/>
+    <cellStyle name="20% - Accent3 3" xfId="72" xr:uid="{21E79185-8EAF-4DAB-8BA0-96D4426D8503}"/>
+    <cellStyle name="20% - Accent3 4" xfId="92" xr:uid="{8ACA4BD6-058B-4C3C-9972-E65B16B05DA4}"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{27A713D1-8C98-4F40-882E-CF4BF70BE480}"/>
+    <cellStyle name="20% - Accent4 3" xfId="75" xr:uid="{D490D1A2-E23D-45F5-AA9B-7EE9492D3575}"/>
+    <cellStyle name="20% - Accent4 4" xfId="95" xr:uid="{56AD7626-24AD-4771-AE7E-62818455D23E}"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{4BB5E5F9-EFD1-45B0-90A8-FC64B00DECB1}"/>
+    <cellStyle name="20% - Accent5 3" xfId="78" xr:uid="{158DEDEE-C036-4C8F-9D72-41698EA01F81}"/>
+    <cellStyle name="20% - Accent5 4" xfId="98" xr:uid="{580E0739-8EA2-43A8-ABB0-A020446047A4}"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="61" xr:uid="{A94BA87B-C4B9-42A4-B829-EEFD2D2AAEC1}"/>
+    <cellStyle name="20% - Accent6 3" xfId="81" xr:uid="{3B760485-7E3C-405D-89E6-68C13D8201F6}"/>
+    <cellStyle name="20% - Accent6 4" xfId="101" xr:uid="{316B90B7-455D-4097-9B9B-049F4374B448}"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="47" xr:uid="{E14EBB5E-0A47-4C48-9D86-AE1553F6599D}"/>
+    <cellStyle name="40% - Accent1 3" xfId="67" xr:uid="{D7187D2C-FB59-4217-802E-DD82BD8595F1}"/>
+    <cellStyle name="40% - Accent1 4" xfId="87" xr:uid="{8AE36346-8535-4E4C-8A14-2C72AFF7B9C2}"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="50" xr:uid="{C74089CC-0A20-4656-AFB8-03E8B3304615}"/>
+    <cellStyle name="40% - Accent2 3" xfId="70" xr:uid="{87D44D69-642F-4737-BACC-5522955842A3}"/>
+    <cellStyle name="40% - Accent2 4" xfId="90" xr:uid="{21A1429C-BC89-4879-B848-F1E258E5D6C1}"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="53" xr:uid="{0272B091-B91F-4E63-9FBB-F7B4A6264D3F}"/>
+    <cellStyle name="40% - Accent3 3" xfId="73" xr:uid="{E25EE0E1-7451-4B98-9CDD-3B48DE59DE07}"/>
+    <cellStyle name="40% - Accent3 4" xfId="93" xr:uid="{95BB05CB-DA98-4F9B-A1F5-68569D0F3572}"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="56" xr:uid="{83EC9D9B-BEE5-470A-B080-CE16FD9AB9FA}"/>
+    <cellStyle name="40% - Accent4 3" xfId="76" xr:uid="{2082F1A2-5A95-474E-B12F-9025B5FB9F11}"/>
+    <cellStyle name="40% - Accent4 4" xfId="96" xr:uid="{FC4333FE-9EA6-4B82-B402-5480DF857851}"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{15AD98EA-98F1-460C-85F3-BB4A4E38A363}"/>
+    <cellStyle name="40% - Accent5 3" xfId="79" xr:uid="{C5480D71-5F19-44B6-B080-84766C674A1D}"/>
+    <cellStyle name="40% - Accent5 4" xfId="99" xr:uid="{69745F4D-E36C-40AC-8CD0-6930986125DE}"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="62" xr:uid="{45B59C48-4470-44FD-BB9F-F30A336F2151}"/>
+    <cellStyle name="40% - Accent6 3" xfId="82" xr:uid="{7912BF9F-9C83-4653-9D16-651610831981}"/>
+    <cellStyle name="40% - Accent6 4" xfId="102" xr:uid="{5515B6D7-6A40-47AC-8588-587E81DD1B3B}"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="48" xr:uid="{E1A03B6B-FA78-45D5-939C-628EDA4E602C}"/>
+    <cellStyle name="60% - Accent1 3" xfId="68" xr:uid="{5D16E2E7-DD78-4135-8AD0-5BDC88DC49AD}"/>
+    <cellStyle name="60% - Accent1 4" xfId="88" xr:uid="{B1857BB0-4942-426A-9FE1-27E2795209DA}"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{D0FA212D-F77B-4084-805A-1C705D6AF2DA}"/>
+    <cellStyle name="60% - Accent2 3" xfId="71" xr:uid="{B873FD5E-9C9F-4E6A-813B-AD4AECD97E71}"/>
+    <cellStyle name="60% - Accent2 4" xfId="91" xr:uid="{F3C6E93D-49C0-42CD-8DBE-516F8EF9C594}"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="54" xr:uid="{2DB920AF-9A1B-4809-8D7E-7E7D27029255}"/>
+    <cellStyle name="60% - Accent3 3" xfId="74" xr:uid="{A793605B-7722-4F77-9376-057AEC03667C}"/>
+    <cellStyle name="60% - Accent3 4" xfId="94" xr:uid="{3D5D6532-2B17-404C-BA8F-B5B4195D405A}"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="57" xr:uid="{8195BE35-9B86-415F-9A4D-34B6410EDF5E}"/>
+    <cellStyle name="60% - Accent4 3" xfId="77" xr:uid="{4CB98DF4-7B73-43E1-81E0-21FDB4DF4681}"/>
+    <cellStyle name="60% - Accent4 4" xfId="97" xr:uid="{047B4172-9762-4193-8BB2-DEA383D577A2}"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{2B087051-0B1A-48CB-8C88-FB5419174C45}"/>
+    <cellStyle name="60% - Accent5 3" xfId="80" xr:uid="{7CA52249-2793-4CBE-9320-B2E51B7C7208}"/>
+    <cellStyle name="60% - Accent5 4" xfId="100" xr:uid="{E73925E2-2A98-4246-A82E-2EB950F86CC1}"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="63" xr:uid="{58557526-09F0-45A4-98F9-0C716C5F523E}"/>
+    <cellStyle name="60% - Accent6 3" xfId="83" xr:uid="{E8E730DA-91DC-40A1-8E24-A1F3DDEF146E}"/>
+    <cellStyle name="60% - Accent6 4" xfId="103" xr:uid="{30FF29FE-4E67-44A8-B821-3B0604D9778B}"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{F50F2267-46E4-4CC2-A189-BCAD2533BD90}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{D61C6192-B0B8-490B-8EAA-C3CB05EBEB04}"/>
+    <cellStyle name="Normal 4" xfId="64" xr:uid="{6E293B67-1F89-4B61-BE65-B4BC73B1F281}"/>
+    <cellStyle name="Normal 5" xfId="84" xr:uid="{0A6E07F5-9728-4781-BA44-CA21B1425629}"/>
+    <cellStyle name="Note 2" xfId="43" xr:uid="{1EF10F79-33D5-4582-804E-9EE3D514D4EE}"/>
+    <cellStyle name="Note 3" xfId="45" xr:uid="{C97AE358-3909-487F-A4AA-9350252C81B6}"/>
+    <cellStyle name="Note 4" xfId="65" xr:uid="{B117F347-10A2-45EC-8BDC-7C266E1D0FF8}"/>
+    <cellStyle name="Note 5" xfId="85" xr:uid="{24E2590E-6DE9-4026-9856-7D9B27ADFBA1}"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2596,8 +3225,8 @@
                 <c:pt idx="8">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2606,7 +3235,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2176</c:v>
+                  <c:v>2398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,8 +3606,8 @@
                 <c:pt idx="8">
                   <c:v>5195.9160000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>5857.1299999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2987,7 +3616,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64856.616000000009</c:v>
+                  <c:v>70713.746000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,7 +4195,7 @@
                   <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3575,7 +4204,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5490</c:v>
+                  <c:v>5777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3937,8 +4566,8 @@
                 <c:pt idx="8">
                   <c:v>4639.8900000000003</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3965.0395999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3947,7 +4576,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73817.195700000026</c:v>
+                  <c:v>77782.235300000029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6915,28 +7544,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="4"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -9389,7 +10018,7 @@
   <dimension ref="A1:AX102"/>
   <sheetViews>
     <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9451,97 +10080,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="109"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="112"/>
       <c r="AB1" s="62"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110" t="s">
+      <c r="E2" s="113"/>
+      <c r="F2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110" t="s">
+      <c r="G2" s="113"/>
+      <c r="H2" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110" t="s">
+      <c r="I2" s="113"/>
+      <c r="J2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110" t="s">
+      <c r="K2" s="113"/>
+      <c r="L2" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110" t="s">
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110" t="s">
+      <c r="S2" s="113"/>
+      <c r="T2" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110" t="s">
+      <c r="U2" s="113"/>
+      <c r="V2" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110" t="s">
+      <c r="W2" s="113"/>
+      <c r="X2" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110" t="s">
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="110"/>
+      <c r="AA2" s="113"/>
       <c r="AB2" s="63"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="38" t="s">
         <v>166</v>
       </c>
@@ -14888,11 +15517,12 @@
       <c r="C94" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="78">
-        <v>0</v>
-      </c>
-      <c r="G94" s="28">
-        <v>0</v>
+      <c r="D94" s="103">
+        <v>222</v>
+      </c>
+      <c r="E94" s="104"/>
+      <c r="G94" s="104">
+        <v>5857.1299999999992</v>
       </c>
       <c r="Z94" s="79"/>
     </row>
@@ -14926,11 +15556,11 @@
       </c>
       <c r="D97" s="78">
         <f>SUM(D85:D96)</f>
-        <v>2176</v>
+        <v>2398</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>64856.616000000009</v>
+        <v>70713.746000000014</v>
       </c>
       <c r="Z97" s="79"/>
     </row>
@@ -14971,7 +15601,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14982,7 +15612,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15017,95 +15647,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="116" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116" t="s">
+      <c r="G2" s="119"/>
+      <c r="H2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116" t="s">
+      <c r="I2" s="119"/>
+      <c r="J2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116" t="s">
+      <c r="K2" s="119"/>
+      <c r="L2" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116" t="s">
+      <c r="M2" s="119"/>
+      <c r="N2" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116" t="s">
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116" t="s">
+      <c r="S2" s="119"/>
+      <c r="T2" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116" t="s">
+      <c r="U2" s="119"/>
+      <c r="V2" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116" t="s">
+      <c r="W2" s="119"/>
+      <c r="X2" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116" t="s">
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="116"/>
+      <c r="AA2" s="119"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
@@ -19836,11 +20466,13 @@
       <c r="C95" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="G95" s="28">
-        <v>0</v>
+      <c r="D95" s="127">
+        <v>287</v>
+      </c>
+      <c r="E95" s="102"/>
+      <c r="F95" s="102"/>
+      <c r="G95" s="128">
+        <v>3965.0395999999996</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
@@ -19871,11 +20503,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>5490</v>
+        <v>5777</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>73817.195700000026</v>
+        <v>77782.235300000029</v>
       </c>
     </row>
   </sheetData>
@@ -19896,7 +20528,7 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19923,63 +20555,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="I1" s="121" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="I1" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="120">
+      <c r="B2" s="123">
         <v>2020</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123">
         <v>2021</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="120">
+      <c r="J2" s="123">
         <v>2020</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123">
         <v>2021</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="M2" s="123"/>
+      <c r="N2" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="123" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
@@ -19992,9 +20624,9 @@
       <c r="E3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="I3" s="123"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20007,8 +20639,8 @@
       <c r="M3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">

--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8EBE3F-C9D5-47EF-81C8-13F596ADA402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD755FEE-AE4C-4720-AD28-E67D4D1358A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1470" windowWidth="13095" windowHeight="9495" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="975" windowWidth="13455" windowHeight="10200" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -1944,6 +1944,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="64"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2004,8 +2006,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
   </cellXfs>
   <cellStyles count="104">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3229,13 +3229,13 @@
                   <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2398</c:v>
+                  <c:v>2685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,13 +3610,13 @@
                   <c:v>5857.1299999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8897.5830000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70713.746000000014</c:v>
+                  <c:v>79611.329000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,13 +4198,13 @@
                   <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5777</c:v>
+                  <c:v>5952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4570,13 +4570,13 @@
                   <c:v>3965.0395999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2355.7629999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77782.235300000029</c:v>
+                  <c:v>80137.998300000036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7544,28 +7544,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="107"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
       <c r="S1" s="4"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -10018,7 +10018,7 @@
   <dimension ref="A1:AX102"/>
   <sheetViews>
     <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10080,97 +10080,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="114"/>
       <c r="AB1" s="62"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113" t="s">
+      <c r="I2" s="115"/>
+      <c r="J2" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113" t="s">
+      <c r="K2" s="115"/>
+      <c r="L2" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113" t="s">
+      <c r="M2" s="115"/>
+      <c r="N2" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113" t="s">
+      <c r="O2" s="115"/>
+      <c r="P2" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113" t="s">
+      <c r="S2" s="115"/>
+      <c r="T2" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113" t="s">
+      <c r="U2" s="115"/>
+      <c r="V2" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113" t="s">
+      <c r="W2" s="115"/>
+      <c r="X2" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113" t="s">
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="113"/>
+      <c r="AA2" s="115"/>
       <c r="AB2" s="63"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="38" t="s">
         <v>166</v>
       </c>
@@ -15531,10 +15531,10 @@
         <v>52</v>
       </c>
       <c r="D95" s="78">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="G95" s="28">
-        <v>0</v>
+        <v>8897.5830000000005</v>
       </c>
       <c r="Z95" s="79"/>
     </row>
@@ -15556,11 +15556,11 @@
       </c>
       <c r="D97" s="78">
         <f>SUM(D85:D96)</f>
-        <v>2398</v>
+        <v>2685</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>70713.746000000014</v>
+        <v>79611.329000000012</v>
       </c>
       <c r="Z97" s="79"/>
     </row>
@@ -15612,7 +15612,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15647,95 +15647,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119" t="s">
+      <c r="O2" s="121"/>
+      <c r="P2" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119" t="s">
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119" t="s">
+      <c r="S2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119" t="s">
+      <c r="U2" s="121"/>
+      <c r="V2" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119" t="s">
+      <c r="W2" s="121"/>
+      <c r="X2" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119" t="s">
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="119"/>
+      <c r="AA2" s="121"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
@@ -20466,12 +20466,12 @@
       <c r="C95" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="127">
+      <c r="D95" s="105">
         <v>287</v>
       </c>
       <c r="E95" s="102"/>
       <c r="F95" s="102"/>
-      <c r="G95" s="128">
+      <c r="G95" s="106">
         <v>3965.0395999999996</v>
       </c>
     </row>
@@ -20480,10 +20480,10 @@
         <v>52</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G96" s="28">
-        <v>0</v>
+        <v>2355.7629999999999</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>5777</v>
+        <v>5952</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>77782.235300000029</v>
+        <v>80137.998300000036</v>
       </c>
     </row>
   </sheetData>
@@ -20555,63 +20555,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="I1" s="124" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="I1" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="123">
+      <c r="B2" s="125">
         <v>2020</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125">
         <v>2021</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="123">
+      <c r="J2" s="125">
         <v>2020</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123">
+      <c r="K2" s="125"/>
+      <c r="L2" s="125">
         <v>2021</v>
       </c>
-      <c r="M2" s="123"/>
-      <c r="N2" s="121" t="s">
+      <c r="M2" s="125"/>
+      <c r="N2" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="O2" s="125" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20624,9 +20624,9 @@
       <c r="E3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="I3" s="126"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="I3" s="128"/>
       <c r="J3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20639,8 +20639,8 @@
       <c r="M3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">

--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD755FEE-AE4C-4720-AD28-E67D4D1358A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F69209-4046-41CF-ADB9-FDF76BA9F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="975" windowWidth="13455" windowHeight="10200" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="1470" windowWidth="15765" windowHeight="9450" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -3232,10 +3232,10 @@
                   <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2685</c:v>
+                  <c:v>3417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,10 +3613,10 @@
                   <c:v>8897.5830000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>19391.53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79611.329000000012</c:v>
+                  <c:v>99002.859000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4201,10 +4201,10 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5952</c:v>
+                  <c:v>6337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,10 +4573,10 @@
                   <c:v>2355.7629999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5321.7939999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80137.998300000036</c:v>
+                  <c:v>85459.79230000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15543,10 +15543,10 @@
         <v>62</v>
       </c>
       <c r="D96" s="78">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="G96" s="28">
-        <v>0</v>
+        <v>19391.53</v>
       </c>
       <c r="Z96" s="79"/>
     </row>
@@ -15556,11 +15556,11 @@
       </c>
       <c r="D97" s="78">
         <f>SUM(D85:D96)</f>
-        <v>2685</v>
+        <v>3417</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>79611.329000000012</v>
+        <v>99002.859000000011</v>
       </c>
       <c r="Z97" s="79"/>
     </row>
@@ -15612,7 +15612,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20491,10 +20491,10 @@
         <v>62</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="G97" s="28">
-        <v>0</v>
+        <v>5321.7939999999999</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>5952</v>
+        <v>6337</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>80137.998300000036</v>
+        <v>85459.79230000003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F69209-4046-41CF-ADB9-FDF76BA9F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EFA8BF-13A4-4853-A4DD-012D6E0B9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1470" windowWidth="15765" windowHeight="9450" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11295" yWindow="2400" windowWidth="13515" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -677,10 +677,31 @@
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     <numFmt numFmtId="166" formatCode="\+&quot;$&quot;0.00;\-&quot;$&quot;0.00;&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1548,51 +1569,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="104">
+  <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1654,7 +1735,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1666,16 +1747,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1698,10 +1779,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1710,7 +1791,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1725,14 +1806,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1750,7 +1831,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1759,19 +1840,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1790,7 +1871,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1800,10 +1881,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1824,15 +1905,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1853,7 +1934,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1868,11 +1949,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1983,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1911,19 +1992,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,12 +2022,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="64"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="124"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1955,131 +2038,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="144"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="104">
+  <cellStyles count="164">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="46" xr:uid="{02BAB7D6-C846-4D2A-912F-3C07D1DD4FF0}"/>
     <cellStyle name="20% - Accent1 3" xfId="66" xr:uid="{89DAF94E-6BDD-4FDC-8302-85528D01EDDA}"/>
     <cellStyle name="20% - Accent1 4" xfId="86" xr:uid="{7B1B9CF1-2737-409F-9F4B-CF269FE4FDDC}"/>
+    <cellStyle name="20% - Accent1 5" xfId="106" xr:uid="{D383746A-2627-40CF-97D3-5DCD766843EB}"/>
+    <cellStyle name="20% - Accent1 6" xfId="126" xr:uid="{B9AA82B2-161B-49C0-A326-202F08A5DFBA}"/>
+    <cellStyle name="20% - Accent1 7" xfId="146" xr:uid="{49C936C6-9356-47D9-98D3-88AA5D55184F}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="49" xr:uid="{9B8B4624-16AD-4AEE-A198-A8FDF7C8BD81}"/>
     <cellStyle name="20% - Accent2 3" xfId="69" xr:uid="{7FC42DE8-97E3-483D-86E4-1C43881206A5}"/>
     <cellStyle name="20% - Accent2 4" xfId="89" xr:uid="{6C52E251-C353-4B7E-A4FD-FEA2151429DF}"/>
+    <cellStyle name="20% - Accent2 5" xfId="109" xr:uid="{92EB08E7-89C8-4BB5-B15F-98FC790C0D4D}"/>
+    <cellStyle name="20% - Accent2 6" xfId="129" xr:uid="{71241A39-D173-4A8A-A652-0EFAE10EE26A}"/>
+    <cellStyle name="20% - Accent2 7" xfId="149" xr:uid="{FBFFBFE1-EEBE-4858-B5A3-1B43AABF891E}"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="52" xr:uid="{7A856016-D5DC-4F33-97B8-3BDEC6B41FAE}"/>
     <cellStyle name="20% - Accent3 3" xfId="72" xr:uid="{21E79185-8EAF-4DAB-8BA0-96D4426D8503}"/>
     <cellStyle name="20% - Accent3 4" xfId="92" xr:uid="{8ACA4BD6-058B-4C3C-9972-E65B16B05DA4}"/>
+    <cellStyle name="20% - Accent3 5" xfId="112" xr:uid="{39CB54AD-B1F7-4A88-AD5B-8643D11AFAE2}"/>
+    <cellStyle name="20% - Accent3 6" xfId="132" xr:uid="{5749F878-D763-4038-B2A5-2F956162E572}"/>
+    <cellStyle name="20% - Accent3 7" xfId="152" xr:uid="{A9D32BF4-30AB-475E-AE9E-003F97B454BA}"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{27A713D1-8C98-4F40-882E-CF4BF70BE480}"/>
     <cellStyle name="20% - Accent4 3" xfId="75" xr:uid="{D490D1A2-E23D-45F5-AA9B-7EE9492D3575}"/>
     <cellStyle name="20% - Accent4 4" xfId="95" xr:uid="{56AD7626-24AD-4771-AE7E-62818455D23E}"/>
+    <cellStyle name="20% - Accent4 5" xfId="115" xr:uid="{791806D0-07AB-479A-ACAB-ED64722479C2}"/>
+    <cellStyle name="20% - Accent4 6" xfId="135" xr:uid="{1878D8B9-4DD7-4321-98E6-54BF9A277026}"/>
+    <cellStyle name="20% - Accent4 7" xfId="155" xr:uid="{2460F179-8B2B-42C7-80F7-A4DC7F653209}"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{4BB5E5F9-EFD1-45B0-90A8-FC64B00DECB1}"/>
     <cellStyle name="20% - Accent5 3" xfId="78" xr:uid="{158DEDEE-C036-4C8F-9D72-41698EA01F81}"/>
     <cellStyle name="20% - Accent5 4" xfId="98" xr:uid="{580E0739-8EA2-43A8-ABB0-A020446047A4}"/>
+    <cellStyle name="20% - Accent5 5" xfId="118" xr:uid="{A0690F1E-2BA2-469B-BBF8-2CD88DC1D5B6}"/>
+    <cellStyle name="20% - Accent5 6" xfId="138" xr:uid="{22CDA2E2-BB0C-415B-94E1-A625B41CBFED}"/>
+    <cellStyle name="20% - Accent5 7" xfId="158" xr:uid="{469CB3C5-BFC9-4495-83E5-37AB18617440}"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="61" xr:uid="{A94BA87B-C4B9-42A4-B829-EEFD2D2AAEC1}"/>
     <cellStyle name="20% - Accent6 3" xfId="81" xr:uid="{3B760485-7E3C-405D-89E6-68C13D8201F6}"/>
     <cellStyle name="20% - Accent6 4" xfId="101" xr:uid="{316B90B7-455D-4097-9B9B-049F4374B448}"/>
+    <cellStyle name="20% - Accent6 5" xfId="121" xr:uid="{0F5BDDE0-51CA-4409-803C-1C13A55F5C7C}"/>
+    <cellStyle name="20% - Accent6 6" xfId="141" xr:uid="{59E1B5D1-2698-4589-9F02-28FE6F8ADA2F}"/>
+    <cellStyle name="20% - Accent6 7" xfId="161" xr:uid="{ECC87109-A2C6-4C4A-B754-40FF7A1ED658}"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="47" xr:uid="{E14EBB5E-0A47-4C48-9D86-AE1553F6599D}"/>
     <cellStyle name="40% - Accent1 3" xfId="67" xr:uid="{D7187D2C-FB59-4217-802E-DD82BD8595F1}"/>
     <cellStyle name="40% - Accent1 4" xfId="87" xr:uid="{8AE36346-8535-4E4C-8A14-2C72AFF7B9C2}"/>
+    <cellStyle name="40% - Accent1 5" xfId="107" xr:uid="{3FFEBB2F-5020-4F8B-AE9A-28ED3CE43453}"/>
+    <cellStyle name="40% - Accent1 6" xfId="127" xr:uid="{62E20F0B-9D7B-45AD-9870-27FF32884632}"/>
+    <cellStyle name="40% - Accent1 7" xfId="147" xr:uid="{71298719-69B4-4EA3-A722-C3F5C5F98DB5}"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="50" xr:uid="{C74089CC-0A20-4656-AFB8-03E8B3304615}"/>
     <cellStyle name="40% - Accent2 3" xfId="70" xr:uid="{87D44D69-642F-4737-BACC-5522955842A3}"/>
     <cellStyle name="40% - Accent2 4" xfId="90" xr:uid="{21A1429C-BC89-4879-B848-F1E258E5D6C1}"/>
+    <cellStyle name="40% - Accent2 5" xfId="110" xr:uid="{1AED2942-269D-4338-BE62-188982C8919C}"/>
+    <cellStyle name="40% - Accent2 6" xfId="130" xr:uid="{CEDC178B-C707-42F8-9E91-32472E88814C}"/>
+    <cellStyle name="40% - Accent2 7" xfId="150" xr:uid="{3AFC37D2-3F72-4921-9002-D8056C87BC0F}"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="53" xr:uid="{0272B091-B91F-4E63-9FBB-F7B4A6264D3F}"/>
     <cellStyle name="40% - Accent3 3" xfId="73" xr:uid="{E25EE0E1-7451-4B98-9CDD-3B48DE59DE07}"/>
     <cellStyle name="40% - Accent3 4" xfId="93" xr:uid="{95BB05CB-DA98-4F9B-A1F5-68569D0F3572}"/>
+    <cellStyle name="40% - Accent3 5" xfId="113" xr:uid="{966AAB58-0070-4758-A3BD-FBE38448FC05}"/>
+    <cellStyle name="40% - Accent3 6" xfId="133" xr:uid="{8B9696DA-A0B1-43F4-8748-EC191E5CD823}"/>
+    <cellStyle name="40% - Accent3 7" xfId="153" xr:uid="{AEC7E618-F0DC-49A4-A941-E591E2C2754F}"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="56" xr:uid="{83EC9D9B-BEE5-470A-B080-CE16FD9AB9FA}"/>
     <cellStyle name="40% - Accent4 3" xfId="76" xr:uid="{2082F1A2-5A95-474E-B12F-9025B5FB9F11}"/>
     <cellStyle name="40% - Accent4 4" xfId="96" xr:uid="{FC4333FE-9EA6-4B82-B402-5480DF857851}"/>
+    <cellStyle name="40% - Accent4 5" xfId="116" xr:uid="{FA6DFB6A-3044-436B-BD5F-85ADB642D326}"/>
+    <cellStyle name="40% - Accent4 6" xfId="136" xr:uid="{419E56E7-6DDF-4D93-8840-A318CFA9CA81}"/>
+    <cellStyle name="40% - Accent4 7" xfId="156" xr:uid="{E1A0704E-F894-4321-8B0F-CED2E654F9ED}"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{15AD98EA-98F1-460C-85F3-BB4A4E38A363}"/>
     <cellStyle name="40% - Accent5 3" xfId="79" xr:uid="{C5480D71-5F19-44B6-B080-84766C674A1D}"/>
     <cellStyle name="40% - Accent5 4" xfId="99" xr:uid="{69745F4D-E36C-40AC-8CD0-6930986125DE}"/>
+    <cellStyle name="40% - Accent5 5" xfId="119" xr:uid="{515693F2-6971-4EA6-B5D5-E989DFDB233E}"/>
+    <cellStyle name="40% - Accent5 6" xfId="139" xr:uid="{47CC50E4-0CD0-4B9A-A11E-FD1501A40126}"/>
+    <cellStyle name="40% - Accent5 7" xfId="159" xr:uid="{BD6A5D62-E364-48FF-BECC-87F92A5C472A}"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="62" xr:uid="{45B59C48-4470-44FD-BB9F-F30A336F2151}"/>
     <cellStyle name="40% - Accent6 3" xfId="82" xr:uid="{7912BF9F-9C83-4653-9D16-651610831981}"/>
     <cellStyle name="40% - Accent6 4" xfId="102" xr:uid="{5515B6D7-6A40-47AC-8588-587E81DD1B3B}"/>
+    <cellStyle name="40% - Accent6 5" xfId="122" xr:uid="{5AC9CC7B-EE12-4054-911D-07259C3AE937}"/>
+    <cellStyle name="40% - Accent6 6" xfId="142" xr:uid="{F167FDAC-F0E4-4141-B2E0-8DFAB8921725}"/>
+    <cellStyle name="40% - Accent6 7" xfId="162" xr:uid="{6FCA6D3A-662E-4469-8F62-C9320896923D}"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent1 2" xfId="48" xr:uid="{E1A03B6B-FA78-45D5-939C-628EDA4E602C}"/>
     <cellStyle name="60% - Accent1 3" xfId="68" xr:uid="{5D16E2E7-DD78-4135-8AD0-5BDC88DC49AD}"/>
     <cellStyle name="60% - Accent1 4" xfId="88" xr:uid="{B1857BB0-4942-426A-9FE1-27E2795209DA}"/>
+    <cellStyle name="60% - Accent1 5" xfId="108" xr:uid="{186F3E21-4265-4E50-997D-4DE1518693DB}"/>
+    <cellStyle name="60% - Accent1 6" xfId="128" xr:uid="{F7071A72-0859-42A8-9A81-346C9E4C26B2}"/>
+    <cellStyle name="60% - Accent1 7" xfId="148" xr:uid="{4A2E20FB-C155-4148-96DE-282CF7F995FD}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{D0FA212D-F77B-4084-805A-1C705D6AF2DA}"/>
     <cellStyle name="60% - Accent2 3" xfId="71" xr:uid="{B873FD5E-9C9F-4E6A-813B-AD4AECD97E71}"/>
     <cellStyle name="60% - Accent2 4" xfId="91" xr:uid="{F3C6E93D-49C0-42CD-8DBE-516F8EF9C594}"/>
+    <cellStyle name="60% - Accent2 5" xfId="111" xr:uid="{3CBFB7EF-7B03-44E8-A3EC-BF3C35AE7ABE}"/>
+    <cellStyle name="60% - Accent2 6" xfId="131" xr:uid="{434AB9F5-8DA9-4C0F-8B19-5ED2A3813416}"/>
+    <cellStyle name="60% - Accent2 7" xfId="151" xr:uid="{D9D44644-DA90-42C1-BCA1-AFFA2F362B5A}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Accent3 2" xfId="54" xr:uid="{2DB920AF-9A1B-4809-8D7E-7E7D27029255}"/>
     <cellStyle name="60% - Accent3 3" xfId="74" xr:uid="{A793605B-7722-4F77-9376-057AEC03667C}"/>
     <cellStyle name="60% - Accent3 4" xfId="94" xr:uid="{3D5D6532-2B17-404C-BA8F-B5B4195D405A}"/>
+    <cellStyle name="60% - Accent3 5" xfId="114" xr:uid="{93C42E4B-7F9E-4795-93D0-66002A0ABCAC}"/>
+    <cellStyle name="60% - Accent3 6" xfId="134" xr:uid="{FDC98D8F-8FC7-41A6-96AD-E57CF63E6651}"/>
+    <cellStyle name="60% - Accent3 7" xfId="154" xr:uid="{2211E40A-778C-45C7-806F-ACD77391A60B}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Accent4 2" xfId="57" xr:uid="{8195BE35-9B86-415F-9A4D-34B6410EDF5E}"/>
     <cellStyle name="60% - Accent4 3" xfId="77" xr:uid="{4CB98DF4-7B73-43E1-81E0-21FDB4DF4681}"/>
     <cellStyle name="60% - Accent4 4" xfId="97" xr:uid="{047B4172-9762-4193-8BB2-DEA383D577A2}"/>
+    <cellStyle name="60% - Accent4 5" xfId="117" xr:uid="{A0CCAA26-8A16-4F5C-8643-91404041459B}"/>
+    <cellStyle name="60% - Accent4 6" xfId="137" xr:uid="{5D45C577-E13B-473B-94E6-2B2DF5E03EAD}"/>
+    <cellStyle name="60% - Accent4 7" xfId="157" xr:uid="{9841A7C2-752F-438C-9DFF-76E5A0DDBB81}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{2B087051-0B1A-48CB-8C88-FB5419174C45}"/>
     <cellStyle name="60% - Accent5 3" xfId="80" xr:uid="{7CA52249-2793-4CBE-9320-B2E51B7C7208}"/>
     <cellStyle name="60% - Accent5 4" xfId="100" xr:uid="{E73925E2-2A98-4246-A82E-2EB950F86CC1}"/>
+    <cellStyle name="60% - Accent5 5" xfId="120" xr:uid="{5857A888-4419-4A29-BDF1-FC41D1D52AB0}"/>
+    <cellStyle name="60% - Accent5 6" xfId="140" xr:uid="{CC1C09A0-3C3B-4F30-9B74-62F744EE18EF}"/>
+    <cellStyle name="60% - Accent5 7" xfId="160" xr:uid="{E0C09DFE-FFC9-425D-9A04-D78059912D7A}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Accent6 2" xfId="63" xr:uid="{58557526-09F0-45A4-98F9-0C716C5F523E}"/>
     <cellStyle name="60% - Accent6 3" xfId="83" xr:uid="{E8E730DA-91DC-40A1-8E24-A1F3DDEF146E}"/>
     <cellStyle name="60% - Accent6 4" xfId="103" xr:uid="{30FF29FE-4E67-44A8-B821-3B0604D9778B}"/>
+    <cellStyle name="60% - Accent6 5" xfId="123" xr:uid="{9C5609A8-B318-44B2-B52D-D6B992F316A6}"/>
+    <cellStyle name="60% - Accent6 6" xfId="143" xr:uid="{CE5B77A8-D8FA-481B-8102-02F45DB1950E}"/>
+    <cellStyle name="60% - Accent6 7" xfId="163" xr:uid="{1BF01C1E-7CFC-4D8A-82AF-23AE1DD8D11B}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2103,10 +2242,16 @@
     <cellStyle name="Normal 3" xfId="44" xr:uid="{D61C6192-B0B8-490B-8EAA-C3CB05EBEB04}"/>
     <cellStyle name="Normal 4" xfId="64" xr:uid="{6E293B67-1F89-4B61-BE65-B4BC73B1F281}"/>
     <cellStyle name="Normal 5" xfId="84" xr:uid="{0A6E07F5-9728-4781-BA44-CA21B1425629}"/>
+    <cellStyle name="Normal 6" xfId="104" xr:uid="{45DDF471-A5FE-4F08-AFA8-A1ABEACB6360}"/>
+    <cellStyle name="Normal 7" xfId="124" xr:uid="{F6A48B77-5567-4054-914F-A75BC3F2B731}"/>
+    <cellStyle name="Normal 8" xfId="144" xr:uid="{8AC7A32B-0DFC-49D9-89D1-D63994DEA6A2}"/>
     <cellStyle name="Note 2" xfId="43" xr:uid="{1EF10F79-33D5-4582-804E-9EE3D514D4EE}"/>
     <cellStyle name="Note 3" xfId="45" xr:uid="{C97AE358-3909-487F-A4AA-9350252C81B6}"/>
     <cellStyle name="Note 4" xfId="65" xr:uid="{B117F347-10A2-45EC-8BDC-7C266E1D0FF8}"/>
     <cellStyle name="Note 5" xfId="85" xr:uid="{24E2590E-6DE9-4026-9856-7D9B27ADFBA1}"/>
+    <cellStyle name="Note 6" xfId="105" xr:uid="{2B6C9D3B-D92B-4D19-9E71-F3A9F3DBAAB1}"/>
+    <cellStyle name="Note 7" xfId="125" xr:uid="{05F74624-F17F-4C5A-8A39-E94256E41F09}"/>
+    <cellStyle name="Note 8" xfId="145" xr:uid="{FED488AE-8813-4987-802B-21C9880E702F}"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
@@ -3196,46 +3341,16 @@
             <c:numRef>
               <c:f>'Drivers YTD'!$D$85:$D$97</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>245</c:v>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3417</c:v>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3580,43 +3695,13 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6859.55</c:v>
+                  <c:v>5566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5198.93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10940.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6161.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5771.8099999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11139.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7540.2599999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6048.51</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5195.9160000000002</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
-                  <c:v>5857.1299999999992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8897.5830000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19391.53</c:v>
+                  <c:v>4824.1032999999979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99002.859000000011</c:v>
+                  <c:v>10390.103299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,43 +4253,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>280</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3229</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>385</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6337</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,43 +4595,13 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3988.7689</c:v>
+                  <c:v>3004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3160.0743000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6076.733900000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3788.9332999999983</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2395.8562000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42216.630000000019</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4489.0599999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3061.2491000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4639.8900000000003</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3965.0395999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2355.7629999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5321.7939999999999</c:v>
+                  <c:v>6429.4114000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85459.79230000003</c:v>
+                  <c:v>9433.4114000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7544,28 +7569,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111"/>
       <c r="S1" s="4"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -10017,8 +10042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2908758-2B63-4D19-8CDF-3000E5F1BE9C}">
   <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10080,97 +10105,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="116"/>
       <c r="AB1" s="62"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115" t="s">
+      <c r="I2" s="117"/>
+      <c r="J2" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115" t="s">
+      <c r="K2" s="117"/>
+      <c r="L2" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115" t="s">
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115" t="s">
+      <c r="S2" s="117"/>
+      <c r="T2" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115" t="s">
+      <c r="W2" s="117"/>
+      <c r="X2" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115" t="s">
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="115"/>
+      <c r="AA2" s="117"/>
       <c r="AB2" s="63"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="38" t="s">
         <v>166</v>
       </c>
@@ -15409,10 +15434,10 @@
         <v>28</v>
       </c>
       <c r="D85" s="78">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="G85" s="28">
-        <v>6859.55</v>
+        <v>5566</v>
       </c>
       <c r="Z85" s="79"/>
     </row>
@@ -15420,11 +15445,11 @@
       <c r="C86" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="78">
-        <v>208</v>
-      </c>
-      <c r="G86" s="28">
-        <v>5198.93</v>
+      <c r="D86" s="131">
+        <v>160</v>
+      </c>
+      <c r="G86" s="132">
+        <v>4824.1032999999979</v>
       </c>
       <c r="Z86" s="79"/>
     </row>
@@ -15432,36 +15457,19 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="78">
-        <v>401</v>
-      </c>
-      <c r="G87" s="28">
-        <v>10940.78</v>
-      </c>
       <c r="Z87" s="79"/>
     </row>
     <row r="88" spans="3:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="78">
-        <v>222</v>
-      </c>
-      <c r="G88" s="28">
-        <v>6161.63</v>
-      </c>
       <c r="Z88" s="79"/>
     </row>
     <row r="89" spans="3:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="78">
-        <v>176</v>
-      </c>
-      <c r="G89" s="55">
-        <v>5771.8099999999995</v>
-      </c>
+      <c r="G89" s="55"/>
       <c r="I89" s="40"/>
       <c r="Z89" s="79"/>
     </row>
@@ -15469,85 +15477,47 @@
       <c r="C90" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="78">
-        <v>277</v>
-      </c>
-      <c r="G90" s="28">
-        <v>11139.23</v>
-      </c>
       <c r="Z90" s="79"/>
     </row>
     <row r="91" spans="3:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="78">
-        <v>290</v>
-      </c>
-      <c r="G91" s="28">
-        <v>7540.2599999999993</v>
-      </c>
       <c r="Z91" s="79"/>
     </row>
     <row r="92" spans="3:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D92" s="77">
-        <v>215</v>
-      </c>
-      <c r="G92" s="29">
-        <v>6048.51</v>
-      </c>
+      <c r="D92" s="77"/>
+      <c r="G92" s="29"/>
       <c r="Z92" s="79"/>
     </row>
     <row r="93" spans="3:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C93" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D93" s="78">
-        <v>142</v>
-      </c>
-      <c r="G93" s="28">
-        <v>5195.9160000000002</v>
-      </c>
       <c r="Z93" s="79"/>
     </row>
     <row r="94" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="103">
-        <v>222</v>
-      </c>
+      <c r="D94" s="103"/>
       <c r="E94" s="104"/>
-      <c r="G94" s="104">
-        <v>5857.1299999999992</v>
-      </c>
+      <c r="G94" s="104"/>
       <c r="Z94" s="79"/>
     </row>
     <row r="95" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C95" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D95" s="78">
-        <v>287</v>
-      </c>
-      <c r="G95" s="28">
-        <v>8897.5830000000005</v>
-      </c>
       <c r="Z95" s="79"/>
     </row>
     <row r="96" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C96" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="78">
-        <v>732</v>
-      </c>
-      <c r="G96" s="28">
-        <v>19391.53</v>
-      </c>
       <c r="Z96" s="79"/>
     </row>
     <row r="97" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -15556,11 +15526,11 @@
       </c>
       <c r="D97" s="78">
         <f>SUM(D85:D96)</f>
-        <v>3417</v>
+        <v>330</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>99002.859000000011</v>
+        <v>10390.103299999999</v>
       </c>
       <c r="Z97" s="79"/>
     </row>
@@ -15601,7 +15571,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15611,8 +15581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05395F9A-1504-413B-B37C-6F2917ED4558}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15647,95 +15617,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121" t="s">
+      <c r="G2" s="123"/>
+      <c r="H2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121" t="s">
+      <c r="I2" s="123"/>
+      <c r="J2" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121" t="s">
+      <c r="M2" s="123"/>
+      <c r="N2" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121" t="s">
+      <c r="O2" s="123"/>
+      <c r="P2" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121" t="s">
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="S2" s="123"/>
+      <c r="T2" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121" t="s">
+      <c r="U2" s="123"/>
+      <c r="V2" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121" t="s">
+      <c r="W2" s="123"/>
+      <c r="X2" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121" t="s">
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="121"/>
+      <c r="AA2" s="123"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="120"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
@@ -20368,134 +20338,80 @@
         <v>28</v>
       </c>
       <c r="D86">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="G86" s="28">
-        <v>3988.7689</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D87">
-        <v>198</v>
-      </c>
-      <c r="G87" s="28">
-        <v>3160.0743000000002</v>
+      <c r="D87" s="107">
+        <v>425</v>
+      </c>
+      <c r="G87" s="108">
+        <v>6429.4114000000009</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C88" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D88">
-        <v>437</v>
-      </c>
-      <c r="G88" s="28">
-        <v>6076.733900000002</v>
-      </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D89">
-        <v>302</v>
-      </c>
-      <c r="G89" s="28">
-        <v>3788.9332999999983</v>
-      </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D90">
-        <v>183</v>
-      </c>
-      <c r="G90" s="28">
-        <v>2395.8562000000002</v>
-      </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="98">
-        <v>3229</v>
-      </c>
-      <c r="G91" s="99">
-        <v>42216.630000000019</v>
-      </c>
+      <c r="D91" s="98"/>
+      <c r="G91" s="99"/>
     </row>
     <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D92">
-        <v>334</v>
-      </c>
-      <c r="G92" s="28">
-        <v>4489.0599999999995</v>
-      </c>
     </row>
     <row r="93" spans="3:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D93" s="54">
-        <v>217</v>
-      </c>
-      <c r="G93" s="22">
-        <v>3061.2491000000009</v>
-      </c>
+      <c r="D93" s="54"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C94" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D94">
-        <v>310</v>
-      </c>
-      <c r="G94" s="28">
-        <v>4639.8900000000003</v>
-      </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="105">
-        <v>287</v>
-      </c>
+      <c r="D95" s="105"/>
       <c r="E95" s="102"/>
       <c r="F95" s="102"/>
-      <c r="G95" s="106">
-        <v>3965.0395999999996</v>
-      </c>
+      <c r="G95" s="106"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D96">
-        <v>175</v>
-      </c>
-      <c r="G96" s="28">
-        <v>2355.7629999999999</v>
-      </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D97">
-        <v>385</v>
-      </c>
-      <c r="G97" s="28">
-        <v>5321.7939999999999</v>
-      </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98" s="28" t="s">
@@ -20503,11 +20419,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>6337</v>
+        <v>608</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>85459.79230000003</v>
+        <v>9433.4114000000009</v>
       </c>
     </row>
   </sheetData>
@@ -20528,7 +20444,7 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20555,63 +20471,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="I1" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="125">
+      <c r="B2" s="127">
         <v>2020</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127">
         <v>2021</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="123" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="125">
+      <c r="J2" s="127">
         <v>2020</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125">
+      <c r="K2" s="127"/>
+      <c r="L2" s="127">
         <v>2021</v>
       </c>
-      <c r="M2" s="125"/>
-      <c r="N2" s="123" t="s">
+      <c r="M2" s="127"/>
+      <c r="N2" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="127" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
+      <c r="A3" s="130"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20624,9 +20540,9 @@
       <c r="E3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="I3" s="128"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="I3" s="130"/>
       <c r="J3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20639,8 +20555,8 @@
       <c r="M3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">

--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EFA8BF-13A4-4853-A4DD-012D6E0B9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C05F13-AC6D-4AD6-ACCE-172C4D5F2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="2400" windowWidth="13515" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7155" yWindow="2970" windowWidth="12945" windowHeight="11505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -672,15 +672,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     <numFmt numFmtId="166" formatCode="\+&quot;$&quot;0.00;\-&quot;$&quot;0.00;&quot;$&quot;0.00"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1569,51 +1592,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="164">
+  <cellStyleXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1735,7 +1818,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1747,16 +1830,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1779,10 +1862,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1791,7 +1874,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1806,14 +1889,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1831,7 +1914,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1840,19 +1923,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1871,7 +1954,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1881,10 +1964,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1905,15 +1988,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1934,7 +2017,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1949,11 +2032,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1983,7 +2066,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1992,19 +2075,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2022,14 +2105,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="64"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="124"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="124"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="144"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="164" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="184"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="184"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2038,187 +2130,242 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="144"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="204" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="164">
+  <cellStyles count="224">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 10" xfId="206" xr:uid="{DF50A6DA-51F4-4649-A970-1DA017078481}"/>
     <cellStyle name="20% - Accent1 2" xfId="46" xr:uid="{02BAB7D6-C846-4D2A-912F-3C07D1DD4FF0}"/>
     <cellStyle name="20% - Accent1 3" xfId="66" xr:uid="{89DAF94E-6BDD-4FDC-8302-85528D01EDDA}"/>
     <cellStyle name="20% - Accent1 4" xfId="86" xr:uid="{7B1B9CF1-2737-409F-9F4B-CF269FE4FDDC}"/>
     <cellStyle name="20% - Accent1 5" xfId="106" xr:uid="{D383746A-2627-40CF-97D3-5DCD766843EB}"/>
     <cellStyle name="20% - Accent1 6" xfId="126" xr:uid="{B9AA82B2-161B-49C0-A326-202F08A5DFBA}"/>
     <cellStyle name="20% - Accent1 7" xfId="146" xr:uid="{49C936C6-9356-47D9-98D3-88AA5D55184F}"/>
+    <cellStyle name="20% - Accent1 8" xfId="166" xr:uid="{C1A94D54-1B88-4E95-9B93-F7F16659E368}"/>
+    <cellStyle name="20% - Accent1 9" xfId="186" xr:uid="{828F0CCF-A5FB-41F5-A50C-15B3F2AD3681}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 10" xfId="209" xr:uid="{353E4B0F-184A-4559-AD5C-E36749E4BA01}"/>
     <cellStyle name="20% - Accent2 2" xfId="49" xr:uid="{9B8B4624-16AD-4AEE-A198-A8FDF7C8BD81}"/>
     <cellStyle name="20% - Accent2 3" xfId="69" xr:uid="{7FC42DE8-97E3-483D-86E4-1C43881206A5}"/>
     <cellStyle name="20% - Accent2 4" xfId="89" xr:uid="{6C52E251-C353-4B7E-A4FD-FEA2151429DF}"/>
     <cellStyle name="20% - Accent2 5" xfId="109" xr:uid="{92EB08E7-89C8-4BB5-B15F-98FC790C0D4D}"/>
     <cellStyle name="20% - Accent2 6" xfId="129" xr:uid="{71241A39-D173-4A8A-A652-0EFAE10EE26A}"/>
     <cellStyle name="20% - Accent2 7" xfId="149" xr:uid="{FBFFBFE1-EEBE-4858-B5A3-1B43AABF891E}"/>
+    <cellStyle name="20% - Accent2 8" xfId="169" xr:uid="{217D5503-B776-42D0-AC7D-298115F8A650}"/>
+    <cellStyle name="20% - Accent2 9" xfId="189" xr:uid="{25DA9A39-C24C-4FCE-B979-9672B8D52ADC}"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 10" xfId="212" xr:uid="{43782D75-7626-4192-A3D3-600A95743F12}"/>
     <cellStyle name="20% - Accent3 2" xfId="52" xr:uid="{7A856016-D5DC-4F33-97B8-3BDEC6B41FAE}"/>
     <cellStyle name="20% - Accent3 3" xfId="72" xr:uid="{21E79185-8EAF-4DAB-8BA0-96D4426D8503}"/>
     <cellStyle name="20% - Accent3 4" xfId="92" xr:uid="{8ACA4BD6-058B-4C3C-9972-E65B16B05DA4}"/>
     <cellStyle name="20% - Accent3 5" xfId="112" xr:uid="{39CB54AD-B1F7-4A88-AD5B-8643D11AFAE2}"/>
     <cellStyle name="20% - Accent3 6" xfId="132" xr:uid="{5749F878-D763-4038-B2A5-2F956162E572}"/>
     <cellStyle name="20% - Accent3 7" xfId="152" xr:uid="{A9D32BF4-30AB-475E-AE9E-003F97B454BA}"/>
+    <cellStyle name="20% - Accent3 8" xfId="172" xr:uid="{E881B821-D535-44CD-B98F-0538641C94ED}"/>
+    <cellStyle name="20% - Accent3 9" xfId="192" xr:uid="{CA66F180-AC36-4C6F-B239-7C7A0741F272}"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 10" xfId="215" xr:uid="{490FD692-A5BE-4B6C-8F99-87E51B4A63D9}"/>
     <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{27A713D1-8C98-4F40-882E-CF4BF70BE480}"/>
     <cellStyle name="20% - Accent4 3" xfId="75" xr:uid="{D490D1A2-E23D-45F5-AA9B-7EE9492D3575}"/>
     <cellStyle name="20% - Accent4 4" xfId="95" xr:uid="{56AD7626-24AD-4771-AE7E-62818455D23E}"/>
     <cellStyle name="20% - Accent4 5" xfId="115" xr:uid="{791806D0-07AB-479A-ACAB-ED64722479C2}"/>
     <cellStyle name="20% - Accent4 6" xfId="135" xr:uid="{1878D8B9-4DD7-4321-98E6-54BF9A277026}"/>
     <cellStyle name="20% - Accent4 7" xfId="155" xr:uid="{2460F179-8B2B-42C7-80F7-A4DC7F653209}"/>
+    <cellStyle name="20% - Accent4 8" xfId="175" xr:uid="{594DAF39-9829-459F-93B4-D56D7DF47161}"/>
+    <cellStyle name="20% - Accent4 9" xfId="195" xr:uid="{7B0BBE92-C334-46BA-ADD3-B2AC27239F58}"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 10" xfId="218" xr:uid="{59A2D6E1-E8F3-4191-89EF-C336FB7D5F26}"/>
     <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{4BB5E5F9-EFD1-45B0-90A8-FC64B00DECB1}"/>
     <cellStyle name="20% - Accent5 3" xfId="78" xr:uid="{158DEDEE-C036-4C8F-9D72-41698EA01F81}"/>
     <cellStyle name="20% - Accent5 4" xfId="98" xr:uid="{580E0739-8EA2-43A8-ABB0-A020446047A4}"/>
     <cellStyle name="20% - Accent5 5" xfId="118" xr:uid="{A0690F1E-2BA2-469B-BBF8-2CD88DC1D5B6}"/>
     <cellStyle name="20% - Accent5 6" xfId="138" xr:uid="{22CDA2E2-BB0C-415B-94E1-A625B41CBFED}"/>
     <cellStyle name="20% - Accent5 7" xfId="158" xr:uid="{469CB3C5-BFC9-4495-83E5-37AB18617440}"/>
+    <cellStyle name="20% - Accent5 8" xfId="178" xr:uid="{B51FC249-C84B-4A0F-85E6-50F31985170C}"/>
+    <cellStyle name="20% - Accent5 9" xfId="198" xr:uid="{8DFAC370-21B2-4995-90F7-7C978A7DE3CB}"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 10" xfId="221" xr:uid="{7512C20D-CCC3-4A72-8B33-58C3F7FB569B}"/>
     <cellStyle name="20% - Accent6 2" xfId="61" xr:uid="{A94BA87B-C4B9-42A4-B829-EEFD2D2AAEC1}"/>
     <cellStyle name="20% - Accent6 3" xfId="81" xr:uid="{3B760485-7E3C-405D-89E6-68C13D8201F6}"/>
     <cellStyle name="20% - Accent6 4" xfId="101" xr:uid="{316B90B7-455D-4097-9B9B-049F4374B448}"/>
     <cellStyle name="20% - Accent6 5" xfId="121" xr:uid="{0F5BDDE0-51CA-4409-803C-1C13A55F5C7C}"/>
     <cellStyle name="20% - Accent6 6" xfId="141" xr:uid="{59E1B5D1-2698-4589-9F02-28FE6F8ADA2F}"/>
     <cellStyle name="20% - Accent6 7" xfId="161" xr:uid="{ECC87109-A2C6-4C4A-B754-40FF7A1ED658}"/>
+    <cellStyle name="20% - Accent6 8" xfId="181" xr:uid="{32583F6C-BE5C-437D-891E-F1658A318911}"/>
+    <cellStyle name="20% - Accent6 9" xfId="201" xr:uid="{4334798D-3A15-45DC-B772-462F0BE9C951}"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 10" xfId="207" xr:uid="{C2EB4C88-56D8-4C51-828B-C88E7179ED44}"/>
     <cellStyle name="40% - Accent1 2" xfId="47" xr:uid="{E14EBB5E-0A47-4C48-9D86-AE1553F6599D}"/>
     <cellStyle name="40% - Accent1 3" xfId="67" xr:uid="{D7187D2C-FB59-4217-802E-DD82BD8595F1}"/>
     <cellStyle name="40% - Accent1 4" xfId="87" xr:uid="{8AE36346-8535-4E4C-8A14-2C72AFF7B9C2}"/>
     <cellStyle name="40% - Accent1 5" xfId="107" xr:uid="{3FFEBB2F-5020-4F8B-AE9A-28ED3CE43453}"/>
     <cellStyle name="40% - Accent1 6" xfId="127" xr:uid="{62E20F0B-9D7B-45AD-9870-27FF32884632}"/>
     <cellStyle name="40% - Accent1 7" xfId="147" xr:uid="{71298719-69B4-4EA3-A722-C3F5C5F98DB5}"/>
+    <cellStyle name="40% - Accent1 8" xfId="167" xr:uid="{963A2F0C-F0EC-4094-BD36-460F38108B37}"/>
+    <cellStyle name="40% - Accent1 9" xfId="187" xr:uid="{6E487329-5CE1-43B9-878A-501347BE2794}"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 10" xfId="210" xr:uid="{CB800431-25A8-485E-B095-5CC68BA83409}"/>
     <cellStyle name="40% - Accent2 2" xfId="50" xr:uid="{C74089CC-0A20-4656-AFB8-03E8B3304615}"/>
     <cellStyle name="40% - Accent2 3" xfId="70" xr:uid="{87D44D69-642F-4737-BACC-5522955842A3}"/>
     <cellStyle name="40% - Accent2 4" xfId="90" xr:uid="{21A1429C-BC89-4879-B848-F1E258E5D6C1}"/>
     <cellStyle name="40% - Accent2 5" xfId="110" xr:uid="{1AED2942-269D-4338-BE62-188982C8919C}"/>
     <cellStyle name="40% - Accent2 6" xfId="130" xr:uid="{CEDC178B-C707-42F8-9E91-32472E88814C}"/>
     <cellStyle name="40% - Accent2 7" xfId="150" xr:uid="{3AFC37D2-3F72-4921-9002-D8056C87BC0F}"/>
+    <cellStyle name="40% - Accent2 8" xfId="170" xr:uid="{72C411FA-EF5B-406B-AF1F-0274934F4BED}"/>
+    <cellStyle name="40% - Accent2 9" xfId="190" xr:uid="{F69EF9BD-7B90-49AB-B32B-1E88A8559205}"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 10" xfId="213" xr:uid="{FB289985-3714-4135-A241-8296DAF413EB}"/>
     <cellStyle name="40% - Accent3 2" xfId="53" xr:uid="{0272B091-B91F-4E63-9FBB-F7B4A6264D3F}"/>
     <cellStyle name="40% - Accent3 3" xfId="73" xr:uid="{E25EE0E1-7451-4B98-9CDD-3B48DE59DE07}"/>
     <cellStyle name="40% - Accent3 4" xfId="93" xr:uid="{95BB05CB-DA98-4F9B-A1F5-68569D0F3572}"/>
     <cellStyle name="40% - Accent3 5" xfId="113" xr:uid="{966AAB58-0070-4758-A3BD-FBE38448FC05}"/>
     <cellStyle name="40% - Accent3 6" xfId="133" xr:uid="{8B9696DA-A0B1-43F4-8748-EC191E5CD823}"/>
     <cellStyle name="40% - Accent3 7" xfId="153" xr:uid="{AEC7E618-F0DC-49A4-A941-E591E2C2754F}"/>
+    <cellStyle name="40% - Accent3 8" xfId="173" xr:uid="{A20D5DEF-756B-407E-BEA6-EF54F3C3AF48}"/>
+    <cellStyle name="40% - Accent3 9" xfId="193" xr:uid="{1445744E-90B6-488D-803E-5140EAA59A6F}"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 10" xfId="216" xr:uid="{E4A39A42-22FF-4E29-A91E-857C82512AF1}"/>
     <cellStyle name="40% - Accent4 2" xfId="56" xr:uid="{83EC9D9B-BEE5-470A-B080-CE16FD9AB9FA}"/>
     <cellStyle name="40% - Accent4 3" xfId="76" xr:uid="{2082F1A2-5A95-474E-B12F-9025B5FB9F11}"/>
     <cellStyle name="40% - Accent4 4" xfId="96" xr:uid="{FC4333FE-9EA6-4B82-B402-5480DF857851}"/>
     <cellStyle name="40% - Accent4 5" xfId="116" xr:uid="{FA6DFB6A-3044-436B-BD5F-85ADB642D326}"/>
     <cellStyle name="40% - Accent4 6" xfId="136" xr:uid="{419E56E7-6DDF-4D93-8840-A318CFA9CA81}"/>
     <cellStyle name="40% - Accent4 7" xfId="156" xr:uid="{E1A0704E-F894-4321-8B0F-CED2E654F9ED}"/>
+    <cellStyle name="40% - Accent4 8" xfId="176" xr:uid="{752C70F0-F54F-4127-9E1D-3F06BD2CE65A}"/>
+    <cellStyle name="40% - Accent4 9" xfId="196" xr:uid="{D7C405D6-2468-4B26-A05A-B8EDEA00CE96}"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 10" xfId="219" xr:uid="{95F4F69C-7793-4B51-A067-DE7E22A44152}"/>
     <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{15AD98EA-98F1-460C-85F3-BB4A4E38A363}"/>
     <cellStyle name="40% - Accent5 3" xfId="79" xr:uid="{C5480D71-5F19-44B6-B080-84766C674A1D}"/>
     <cellStyle name="40% - Accent5 4" xfId="99" xr:uid="{69745F4D-E36C-40AC-8CD0-6930986125DE}"/>
     <cellStyle name="40% - Accent5 5" xfId="119" xr:uid="{515693F2-6971-4EA6-B5D5-E989DFDB233E}"/>
     <cellStyle name="40% - Accent5 6" xfId="139" xr:uid="{47CC50E4-0CD0-4B9A-A11E-FD1501A40126}"/>
     <cellStyle name="40% - Accent5 7" xfId="159" xr:uid="{BD6A5D62-E364-48FF-BECC-87F92A5C472A}"/>
+    <cellStyle name="40% - Accent5 8" xfId="179" xr:uid="{2DEEF4E3-6F13-4C07-8F6B-7200303CEC1F}"/>
+    <cellStyle name="40% - Accent5 9" xfId="199" xr:uid="{0C8A2010-51FD-441B-AB4A-C42C30722C02}"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 10" xfId="222" xr:uid="{7461D848-AB54-4C39-811F-7B795B94C51F}"/>
     <cellStyle name="40% - Accent6 2" xfId="62" xr:uid="{45B59C48-4470-44FD-BB9F-F30A336F2151}"/>
     <cellStyle name="40% - Accent6 3" xfId="82" xr:uid="{7912BF9F-9C83-4653-9D16-651610831981}"/>
     <cellStyle name="40% - Accent6 4" xfId="102" xr:uid="{5515B6D7-6A40-47AC-8588-587E81DD1B3B}"/>
     <cellStyle name="40% - Accent6 5" xfId="122" xr:uid="{5AC9CC7B-EE12-4054-911D-07259C3AE937}"/>
     <cellStyle name="40% - Accent6 6" xfId="142" xr:uid="{F167FDAC-F0E4-4141-B2E0-8DFAB8921725}"/>
     <cellStyle name="40% - Accent6 7" xfId="162" xr:uid="{6FCA6D3A-662E-4469-8F62-C9320896923D}"/>
+    <cellStyle name="40% - Accent6 8" xfId="182" xr:uid="{C6EFA40F-7A28-4AA9-8221-C4887F007DC3}"/>
+    <cellStyle name="40% - Accent6 9" xfId="202" xr:uid="{F7993087-342D-4E5A-8EEE-F87C07D35C3F}"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 10" xfId="208" xr:uid="{2D40DE72-1A7C-4914-A3E7-013AB12191DA}"/>
     <cellStyle name="60% - Accent1 2" xfId="48" xr:uid="{E1A03B6B-FA78-45D5-939C-628EDA4E602C}"/>
     <cellStyle name="60% - Accent1 3" xfId="68" xr:uid="{5D16E2E7-DD78-4135-8AD0-5BDC88DC49AD}"/>
     <cellStyle name="60% - Accent1 4" xfId="88" xr:uid="{B1857BB0-4942-426A-9FE1-27E2795209DA}"/>
     <cellStyle name="60% - Accent1 5" xfId="108" xr:uid="{186F3E21-4265-4E50-997D-4DE1518693DB}"/>
     <cellStyle name="60% - Accent1 6" xfId="128" xr:uid="{F7071A72-0859-42A8-9A81-346C9E4C26B2}"/>
     <cellStyle name="60% - Accent1 7" xfId="148" xr:uid="{4A2E20FB-C155-4148-96DE-282CF7F995FD}"/>
+    <cellStyle name="60% - Accent1 8" xfId="168" xr:uid="{14AB3E33-AEC2-4DBA-B2E7-C8B01E4D4907}"/>
+    <cellStyle name="60% - Accent1 9" xfId="188" xr:uid="{B604F6D9-E0B7-4D09-AC4B-DB54E9F336FA}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 10" xfId="211" xr:uid="{11DDA217-CFDA-41B1-A291-D1143B2236E5}"/>
     <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{D0FA212D-F77B-4084-805A-1C705D6AF2DA}"/>
     <cellStyle name="60% - Accent2 3" xfId="71" xr:uid="{B873FD5E-9C9F-4E6A-813B-AD4AECD97E71}"/>
     <cellStyle name="60% - Accent2 4" xfId="91" xr:uid="{F3C6E93D-49C0-42CD-8DBE-516F8EF9C594}"/>
     <cellStyle name="60% - Accent2 5" xfId="111" xr:uid="{3CBFB7EF-7B03-44E8-A3EC-BF3C35AE7ABE}"/>
     <cellStyle name="60% - Accent2 6" xfId="131" xr:uid="{434AB9F5-8DA9-4C0F-8B19-5ED2A3813416}"/>
     <cellStyle name="60% - Accent2 7" xfId="151" xr:uid="{D9D44644-DA90-42C1-BCA1-AFFA2F362B5A}"/>
+    <cellStyle name="60% - Accent2 8" xfId="171" xr:uid="{10A26A67-4073-4448-BEA0-F42EB1000EBB}"/>
+    <cellStyle name="60% - Accent2 9" xfId="191" xr:uid="{C8A811A0-45C3-40DD-8521-689D30F9FC9E}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 10" xfId="214" xr:uid="{2CD2CD45-D144-4C3C-A9D5-61AE7DDA40F0}"/>
     <cellStyle name="60% - Accent3 2" xfId="54" xr:uid="{2DB920AF-9A1B-4809-8D7E-7E7D27029255}"/>
     <cellStyle name="60% - Accent3 3" xfId="74" xr:uid="{A793605B-7722-4F77-9376-057AEC03667C}"/>
     <cellStyle name="60% - Accent3 4" xfId="94" xr:uid="{3D5D6532-2B17-404C-BA8F-B5B4195D405A}"/>
     <cellStyle name="60% - Accent3 5" xfId="114" xr:uid="{93C42E4B-7F9E-4795-93D0-66002A0ABCAC}"/>
     <cellStyle name="60% - Accent3 6" xfId="134" xr:uid="{FDC98D8F-8FC7-41A6-96AD-E57CF63E6651}"/>
     <cellStyle name="60% - Accent3 7" xfId="154" xr:uid="{2211E40A-778C-45C7-806F-ACD77391A60B}"/>
+    <cellStyle name="60% - Accent3 8" xfId="174" xr:uid="{37B64629-2BAA-4850-AFA7-ABF0EB9780B0}"/>
+    <cellStyle name="60% - Accent3 9" xfId="194" xr:uid="{DE42D8D4-93A4-4629-8A32-E56A89008F4A}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 10" xfId="217" xr:uid="{1DB35B76-39EC-4E0D-AEF6-3A94A13AE516}"/>
     <cellStyle name="60% - Accent4 2" xfId="57" xr:uid="{8195BE35-9B86-415F-9A4D-34B6410EDF5E}"/>
     <cellStyle name="60% - Accent4 3" xfId="77" xr:uid="{4CB98DF4-7B73-43E1-81E0-21FDB4DF4681}"/>
     <cellStyle name="60% - Accent4 4" xfId="97" xr:uid="{047B4172-9762-4193-8BB2-DEA383D577A2}"/>
     <cellStyle name="60% - Accent4 5" xfId="117" xr:uid="{A0CCAA26-8A16-4F5C-8643-91404041459B}"/>
     <cellStyle name="60% - Accent4 6" xfId="137" xr:uid="{5D45C577-E13B-473B-94E6-2B2DF5E03EAD}"/>
     <cellStyle name="60% - Accent4 7" xfId="157" xr:uid="{9841A7C2-752F-438C-9DFF-76E5A0DDBB81}"/>
+    <cellStyle name="60% - Accent4 8" xfId="177" xr:uid="{D704ECA8-3EF0-4F70-A21D-0393204ECA9D}"/>
+    <cellStyle name="60% - Accent4 9" xfId="197" xr:uid="{EAD3D1DC-9A29-4913-8759-C878A26794A7}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 10" xfId="220" xr:uid="{70CE8811-CB9C-4B6E-95A9-FF46C0092824}"/>
     <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{2B087051-0B1A-48CB-8C88-FB5419174C45}"/>
     <cellStyle name="60% - Accent5 3" xfId="80" xr:uid="{7CA52249-2793-4CBE-9320-B2E51B7C7208}"/>
     <cellStyle name="60% - Accent5 4" xfId="100" xr:uid="{E73925E2-2A98-4246-A82E-2EB950F86CC1}"/>
     <cellStyle name="60% - Accent5 5" xfId="120" xr:uid="{5857A888-4419-4A29-BDF1-FC41D1D52AB0}"/>
     <cellStyle name="60% - Accent5 6" xfId="140" xr:uid="{CC1C09A0-3C3B-4F30-9B74-62F744EE18EF}"/>
     <cellStyle name="60% - Accent5 7" xfId="160" xr:uid="{E0C09DFE-FFC9-425D-9A04-D78059912D7A}"/>
+    <cellStyle name="60% - Accent5 8" xfId="180" xr:uid="{90AB14B9-3774-4886-B8C8-D66159501358}"/>
+    <cellStyle name="60% - Accent5 9" xfId="200" xr:uid="{18C903EB-9722-419A-92FF-E89DCA128818}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 10" xfId="223" xr:uid="{99C8BEBB-7EC8-438F-97C4-BD916580407A}"/>
     <cellStyle name="60% - Accent6 2" xfId="63" xr:uid="{58557526-09F0-45A4-98F9-0C716C5F523E}"/>
     <cellStyle name="60% - Accent6 3" xfId="83" xr:uid="{E8E730DA-91DC-40A1-8E24-A1F3DDEF146E}"/>
     <cellStyle name="60% - Accent6 4" xfId="103" xr:uid="{30FF29FE-4E67-44A8-B821-3B0604D9778B}"/>
     <cellStyle name="60% - Accent6 5" xfId="123" xr:uid="{9C5609A8-B318-44B2-B52D-D6B992F316A6}"/>
     <cellStyle name="60% - Accent6 6" xfId="143" xr:uid="{CE5B77A8-D8FA-481B-8102-02F45DB1950E}"/>
     <cellStyle name="60% - Accent6 7" xfId="163" xr:uid="{1BF01C1E-7CFC-4D8A-82AF-23AE1DD8D11B}"/>
+    <cellStyle name="60% - Accent6 8" xfId="183" xr:uid="{D2EEC825-7B92-4B92-936A-947763369992}"/>
+    <cellStyle name="60% - Accent6 9" xfId="203" xr:uid="{6AE849FD-8C66-4E59-80AF-5580E35A39AD}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -2238,6 +2385,8 @@
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="184" xr:uid="{8E6231AE-DA40-4C9E-9736-1B82EE5E5E6F}"/>
+    <cellStyle name="Normal 11" xfId="204" xr:uid="{5FC8D269-42B1-464C-968F-D78D98DD3FF3}"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{F50F2267-46E4-4CC2-A189-BCAD2533BD90}"/>
     <cellStyle name="Normal 3" xfId="44" xr:uid="{D61C6192-B0B8-490B-8EAA-C3CB05EBEB04}"/>
     <cellStyle name="Normal 4" xfId="64" xr:uid="{6E293B67-1F89-4B61-BE65-B4BC73B1F281}"/>
@@ -2245,6 +2394,9 @@
     <cellStyle name="Normal 6" xfId="104" xr:uid="{45DDF471-A5FE-4F08-AFA8-A1ABEACB6360}"/>
     <cellStyle name="Normal 7" xfId="124" xr:uid="{F6A48B77-5567-4054-914F-A75BC3F2B731}"/>
     <cellStyle name="Normal 8" xfId="144" xr:uid="{8AC7A32B-0DFC-49D9-89D1-D63994DEA6A2}"/>
+    <cellStyle name="Normal 9" xfId="164" xr:uid="{60AB3928-159E-4B63-B2EE-B9ED7592E562}"/>
+    <cellStyle name="Note 10" xfId="185" xr:uid="{00BF838E-8AEA-43DE-A47A-A73365DF3C51}"/>
+    <cellStyle name="Note 11" xfId="205" xr:uid="{D9822493-3789-448B-ADE3-0E6288BD800D}"/>
     <cellStyle name="Note 2" xfId="43" xr:uid="{1EF10F79-33D5-4582-804E-9EE3D514D4EE}"/>
     <cellStyle name="Note 3" xfId="45" xr:uid="{C97AE358-3909-487F-A4AA-9350252C81B6}"/>
     <cellStyle name="Note 4" xfId="65" xr:uid="{B117F347-10A2-45EC-8BDC-7C266E1D0FF8}"/>
@@ -2252,6 +2404,7 @@
     <cellStyle name="Note 6" xfId="105" xr:uid="{2B6C9D3B-D92B-4D19-9E71-F3A9F3DBAAB1}"/>
     <cellStyle name="Note 7" xfId="125" xr:uid="{05F74624-F17F-4C5A-8A39-E94256E41F09}"/>
     <cellStyle name="Note 8" xfId="145" xr:uid="{FED488AE-8813-4987-802B-21C9880E702F}"/>
+    <cellStyle name="Note 9" xfId="165" xr:uid="{58A36B17-87B0-42E1-B15A-475C4C53EA42}"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
@@ -3349,8 +3502,14 @@
                 <c:pt idx="1">
                   <c:v>160</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>330</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,8 +3859,14 @@
                 <c:pt idx="1">
                   <c:v>4824.1032999999979</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>5551.21</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2546.2986000000001</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>10390.103299999999</c:v>
+                  <c:v>18487.611899999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4258,8 +4423,14 @@
                 <c:pt idx="1">
                   <c:v>425</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>608</c:v>
+                  <c:v>1129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,8 +4771,14 @@
                 <c:pt idx="1">
                   <c:v>6429.4114000000009</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
+                  <c:v>7412.37</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
+                  <c:v>1909.9570999999999</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>9433.4114000000009</c:v>
+                  <c:v>18755.738499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,28 +7746,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="120"/>
       <c r="S1" s="4"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -10042,8 +10219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2908758-2B63-4D19-8CDF-3000E5F1BE9C}">
   <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView topLeftCell="G83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10105,97 +10282,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="116"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="125"/>
       <c r="AB1" s="62"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117" t="s">
+      <c r="E2" s="126"/>
+      <c r="F2" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117" t="s">
+      <c r="G2" s="126"/>
+      <c r="H2" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117" t="s">
+      <c r="I2" s="126"/>
+      <c r="J2" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117" t="s">
+      <c r="M2" s="126"/>
+      <c r="N2" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117" t="s">
+      <c r="O2" s="126"/>
+      <c r="P2" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117" t="s">
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117" t="s">
+      <c r="S2" s="126"/>
+      <c r="T2" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117" t="s">
+      <c r="U2" s="126"/>
+      <c r="V2" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117" t="s">
+      <c r="W2" s="126"/>
+      <c r="X2" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117" t="s">
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="117"/>
+      <c r="AA2" s="126"/>
       <c r="AB2" s="63"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="38" t="s">
         <v>166</v>
       </c>
@@ -15445,10 +15622,10 @@
       <c r="C86" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="131">
+      <c r="D86" s="109">
         <v>160</v>
       </c>
-      <c r="G86" s="132">
+      <c r="G86" s="110">
         <v>4824.1032999999979</v>
       </c>
       <c r="Z86" s="79"/>
@@ -15457,11 +15634,23 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="D87" s="113">
+        <v>177</v>
+      </c>
+      <c r="G87" s="114">
+        <v>5551.21</v>
+      </c>
       <c r="Z87" s="79"/>
     </row>
     <row r="88" spans="3:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="28" t="s">
         <v>31</v>
+      </c>
+      <c r="D88" s="112">
+        <v>89</v>
+      </c>
+      <c r="G88" s="111">
+        <v>2546.2986000000001</v>
       </c>
       <c r="Z88" s="79"/>
     </row>
@@ -15526,11 +15715,11 @@
       </c>
       <c r="D97" s="78">
         <f>SUM(D85:D96)</f>
-        <v>330</v>
+        <v>596</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>10390.103299999999</v>
+        <v>18487.611899999996</v>
       </c>
       <c r="Z97" s="79"/>
     </row>
@@ -15571,7 +15760,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15581,8 +15770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05395F9A-1504-413B-B37C-6F2917ED4558}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15617,95 +15806,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123" t="s">
+      <c r="E2" s="132"/>
+      <c r="F2" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123" t="s">
+      <c r="I2" s="132"/>
+      <c r="J2" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123" t="s">
+      <c r="K2" s="132"/>
+      <c r="L2" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123" t="s">
+      <c r="M2" s="132"/>
+      <c r="N2" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123" t="s">
+      <c r="O2" s="132"/>
+      <c r="P2" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123" t="s">
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123" t="s">
+      <c r="S2" s="132"/>
+      <c r="T2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123" t="s">
+      <c r="W2" s="132"/>
+      <c r="X2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123" t="s">
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="123"/>
+      <c r="AA2" s="132"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
@@ -20359,10 +20548,22 @@
       <c r="C88" s="28" t="s">
         <v>30</v>
       </c>
+      <c r="D88" s="116">
+        <v>382</v>
+      </c>
+      <c r="G88" s="117">
+        <v>7412.37</v>
+      </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" s="28" t="s">
         <v>31</v>
+      </c>
+      <c r="D89" s="115">
+        <v>139</v>
+      </c>
+      <c r="G89" s="140">
+        <v>1909.9570999999999</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
@@ -20419,11 +20620,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>608</v>
+        <v>1129</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>9433.4114000000009</v>
+        <v>18755.738499999999</v>
       </c>
     </row>
   </sheetData>
@@ -20444,9 +20645,10 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20471,63 +20673,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="I1" s="128" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="I1" s="137" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="127">
+      <c r="B2" s="136">
         <v>2020</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136">
         <v>2021</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="127">
+      <c r="J2" s="136">
         <v>2020</v>
       </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127">
+      <c r="K2" s="136"/>
+      <c r="L2" s="136">
         <v>2021</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="125" t="s">
+      <c r="M2" s="136"/>
+      <c r="N2" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="127" t="s">
+      <c r="O2" s="136" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20540,9 +20742,9 @@
       <c r="E3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="I3" s="130"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="65" t="s">
         <v>1</v>
       </c>
@@ -20555,8 +20757,8 @@
       <c r="M3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">

--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C05F13-AC6D-4AD6-ACCE-172C4D5F2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F171927-E87E-41CD-B4D3-3871E0106FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="2970" windowWidth="12945" windowHeight="11505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="3075" windowWidth="16455" windowHeight="9990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -672,17 +672,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     <numFmt numFmtId="166" formatCode="\+&quot;$&quot;0.00;\-&quot;$&quot;0.00;&quot;$&quot;0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1592,51 +1614,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="224">
+  <cellStyleXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1818,7 +1900,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1830,16 +1912,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1862,10 +1944,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1874,7 +1956,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1889,14 +1971,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1914,7 +1996,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1923,19 +2005,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1954,7 +2036,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1964,13 +2046,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1988,15 +2067,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2017,7 +2096,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2032,11 +2111,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2066,7 +2145,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2075,19 +2154,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,23 +2184,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="64"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="124"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="144"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="164"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="164"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="164"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="164" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="184"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="184"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="184" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="124"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="144"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="164" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="184"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="184"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="204" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="224"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="224" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2130,64 +2214,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="204" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="264"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="264" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="224">
+  <cellStyles count="284">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="206" xr:uid="{DF50A6DA-51F4-4649-A970-1DA017078481}"/>
+    <cellStyle name="20% - Accent1 11" xfId="226" xr:uid="{DA7A451B-845F-45B7-9A05-D7C5C2F9A59A}"/>
+    <cellStyle name="20% - Accent1 12" xfId="246" xr:uid="{753F7579-5475-47B8-8E8F-11C14D9699E6}"/>
+    <cellStyle name="20% - Accent1 13" xfId="266" xr:uid="{6AF21919-076F-44D8-8ED0-E43259700611}"/>
     <cellStyle name="20% - Accent1 2" xfId="46" xr:uid="{02BAB7D6-C846-4D2A-912F-3C07D1DD4FF0}"/>
     <cellStyle name="20% - Accent1 3" xfId="66" xr:uid="{89DAF94E-6BDD-4FDC-8302-85528D01EDDA}"/>
     <cellStyle name="20% - Accent1 4" xfId="86" xr:uid="{7B1B9CF1-2737-409F-9F4B-CF269FE4FDDC}"/>
@@ -2198,6 +2284,9 @@
     <cellStyle name="20% - Accent1 9" xfId="186" xr:uid="{828F0CCF-A5FB-41F5-A50C-15B3F2AD3681}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 10" xfId="209" xr:uid="{353E4B0F-184A-4559-AD5C-E36749E4BA01}"/>
+    <cellStyle name="20% - Accent2 11" xfId="229" xr:uid="{E0AEAD27-1B90-42DE-B9C3-983888CCCF54}"/>
+    <cellStyle name="20% - Accent2 12" xfId="249" xr:uid="{3815400F-5720-4AF2-853A-CCEA8AC23822}"/>
+    <cellStyle name="20% - Accent2 13" xfId="269" xr:uid="{D7DB7E40-B3B6-4897-B269-489D46B59BD7}"/>
     <cellStyle name="20% - Accent2 2" xfId="49" xr:uid="{9B8B4624-16AD-4AEE-A198-A8FDF7C8BD81}"/>
     <cellStyle name="20% - Accent2 3" xfId="69" xr:uid="{7FC42DE8-97E3-483D-86E4-1C43881206A5}"/>
     <cellStyle name="20% - Accent2 4" xfId="89" xr:uid="{6C52E251-C353-4B7E-A4FD-FEA2151429DF}"/>
@@ -2208,6 +2297,9 @@
     <cellStyle name="20% - Accent2 9" xfId="189" xr:uid="{25DA9A39-C24C-4FCE-B979-9672B8D52ADC}"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 10" xfId="212" xr:uid="{43782D75-7626-4192-A3D3-600A95743F12}"/>
+    <cellStyle name="20% - Accent3 11" xfId="232" xr:uid="{C91DA1B2-F026-4513-A5AE-E77ABCAEB7AD}"/>
+    <cellStyle name="20% - Accent3 12" xfId="252" xr:uid="{3A62E0F5-7D77-47E4-8C51-C090F83FC185}"/>
+    <cellStyle name="20% - Accent3 13" xfId="272" xr:uid="{463692D0-B004-4200-9F60-26CC04F986E9}"/>
     <cellStyle name="20% - Accent3 2" xfId="52" xr:uid="{7A856016-D5DC-4F33-97B8-3BDEC6B41FAE}"/>
     <cellStyle name="20% - Accent3 3" xfId="72" xr:uid="{21E79185-8EAF-4DAB-8BA0-96D4426D8503}"/>
     <cellStyle name="20% - Accent3 4" xfId="92" xr:uid="{8ACA4BD6-058B-4C3C-9972-E65B16B05DA4}"/>
@@ -2218,6 +2310,9 @@
     <cellStyle name="20% - Accent3 9" xfId="192" xr:uid="{CA66F180-AC36-4C6F-B239-7C7A0741F272}"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 10" xfId="215" xr:uid="{490FD692-A5BE-4B6C-8F99-87E51B4A63D9}"/>
+    <cellStyle name="20% - Accent4 11" xfId="235" xr:uid="{8B654A04-8BEC-434C-A05D-9D9A655B2843}"/>
+    <cellStyle name="20% - Accent4 12" xfId="255" xr:uid="{9594DDC5-7668-4F1D-BE1F-76A06FE341B4}"/>
+    <cellStyle name="20% - Accent4 13" xfId="275" xr:uid="{841954DE-99A5-46FE-B575-D4D5829F3B1F}"/>
     <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{27A713D1-8C98-4F40-882E-CF4BF70BE480}"/>
     <cellStyle name="20% - Accent4 3" xfId="75" xr:uid="{D490D1A2-E23D-45F5-AA9B-7EE9492D3575}"/>
     <cellStyle name="20% - Accent4 4" xfId="95" xr:uid="{56AD7626-24AD-4771-AE7E-62818455D23E}"/>
@@ -2228,6 +2323,9 @@
     <cellStyle name="20% - Accent4 9" xfId="195" xr:uid="{7B0BBE92-C334-46BA-ADD3-B2AC27239F58}"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 10" xfId="218" xr:uid="{59A2D6E1-E8F3-4191-89EF-C336FB7D5F26}"/>
+    <cellStyle name="20% - Accent5 11" xfId="238" xr:uid="{3E362396-D566-4F12-B157-C844EB9C42C4}"/>
+    <cellStyle name="20% - Accent5 12" xfId="258" xr:uid="{EA9EE76E-585B-415C-8D51-FBF0E30923D8}"/>
+    <cellStyle name="20% - Accent5 13" xfId="278" xr:uid="{34B47B4A-D340-4915-A7BA-31B83435F912}"/>
     <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{4BB5E5F9-EFD1-45B0-90A8-FC64B00DECB1}"/>
     <cellStyle name="20% - Accent5 3" xfId="78" xr:uid="{158DEDEE-C036-4C8F-9D72-41698EA01F81}"/>
     <cellStyle name="20% - Accent5 4" xfId="98" xr:uid="{580E0739-8EA2-43A8-ABB0-A020446047A4}"/>
@@ -2238,6 +2336,9 @@
     <cellStyle name="20% - Accent5 9" xfId="198" xr:uid="{8DFAC370-21B2-4995-90F7-7C978A7DE3CB}"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 10" xfId="221" xr:uid="{7512C20D-CCC3-4A72-8B33-58C3F7FB569B}"/>
+    <cellStyle name="20% - Accent6 11" xfId="241" xr:uid="{42F97139-57F4-4EE9-8546-8B480D9DCBD3}"/>
+    <cellStyle name="20% - Accent6 12" xfId="261" xr:uid="{EC5133E9-23A6-45A2-8320-A1C9A516FA9E}"/>
+    <cellStyle name="20% - Accent6 13" xfId="281" xr:uid="{D3C0079F-ED26-4633-8C44-77B690ECF2F0}"/>
     <cellStyle name="20% - Accent6 2" xfId="61" xr:uid="{A94BA87B-C4B9-42A4-B829-EEFD2D2AAEC1}"/>
     <cellStyle name="20% - Accent6 3" xfId="81" xr:uid="{3B760485-7E3C-405D-89E6-68C13D8201F6}"/>
     <cellStyle name="20% - Accent6 4" xfId="101" xr:uid="{316B90B7-455D-4097-9B9B-049F4374B448}"/>
@@ -2248,6 +2349,9 @@
     <cellStyle name="20% - Accent6 9" xfId="201" xr:uid="{4334798D-3A15-45DC-B772-462F0BE9C951}"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 10" xfId="207" xr:uid="{C2EB4C88-56D8-4C51-828B-C88E7179ED44}"/>
+    <cellStyle name="40% - Accent1 11" xfId="227" xr:uid="{B9387841-664A-4DC1-A37B-C15A79738A35}"/>
+    <cellStyle name="40% - Accent1 12" xfId="247" xr:uid="{67185ECE-B7FA-418E-8CE0-F55AF6443E5C}"/>
+    <cellStyle name="40% - Accent1 13" xfId="267" xr:uid="{CB411CE9-BD3D-409E-8382-001B9F79030B}"/>
     <cellStyle name="40% - Accent1 2" xfId="47" xr:uid="{E14EBB5E-0A47-4C48-9D86-AE1553F6599D}"/>
     <cellStyle name="40% - Accent1 3" xfId="67" xr:uid="{D7187D2C-FB59-4217-802E-DD82BD8595F1}"/>
     <cellStyle name="40% - Accent1 4" xfId="87" xr:uid="{8AE36346-8535-4E4C-8A14-2C72AFF7B9C2}"/>
@@ -2258,6 +2362,9 @@
     <cellStyle name="40% - Accent1 9" xfId="187" xr:uid="{6E487329-5CE1-43B9-878A-501347BE2794}"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 10" xfId="210" xr:uid="{CB800431-25A8-485E-B095-5CC68BA83409}"/>
+    <cellStyle name="40% - Accent2 11" xfId="230" xr:uid="{7BCDF6BE-DEAD-4EAB-A747-7036096D07C2}"/>
+    <cellStyle name="40% - Accent2 12" xfId="250" xr:uid="{EC081CB1-D8D6-47F5-87B4-E4AD7D7487B4}"/>
+    <cellStyle name="40% - Accent2 13" xfId="270" xr:uid="{16823FEF-728B-428B-8C2B-7DC3AF5B8771}"/>
     <cellStyle name="40% - Accent2 2" xfId="50" xr:uid="{C74089CC-0A20-4656-AFB8-03E8B3304615}"/>
     <cellStyle name="40% - Accent2 3" xfId="70" xr:uid="{87D44D69-642F-4737-BACC-5522955842A3}"/>
     <cellStyle name="40% - Accent2 4" xfId="90" xr:uid="{21A1429C-BC89-4879-B848-F1E258E5D6C1}"/>
@@ -2268,6 +2375,9 @@
     <cellStyle name="40% - Accent2 9" xfId="190" xr:uid="{F69EF9BD-7B90-49AB-B32B-1E88A8559205}"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 10" xfId="213" xr:uid="{FB289985-3714-4135-A241-8296DAF413EB}"/>
+    <cellStyle name="40% - Accent3 11" xfId="233" xr:uid="{277BFA69-773E-481D-9584-24C4F5F5D9C0}"/>
+    <cellStyle name="40% - Accent3 12" xfId="253" xr:uid="{848DB2CC-B6B0-4954-8934-72A910FB4374}"/>
+    <cellStyle name="40% - Accent3 13" xfId="273" xr:uid="{13CE7E19-5CF5-402D-8949-198CA66B2531}"/>
     <cellStyle name="40% - Accent3 2" xfId="53" xr:uid="{0272B091-B91F-4E63-9FBB-F7B4A6264D3F}"/>
     <cellStyle name="40% - Accent3 3" xfId="73" xr:uid="{E25EE0E1-7451-4B98-9CDD-3B48DE59DE07}"/>
     <cellStyle name="40% - Accent3 4" xfId="93" xr:uid="{95BB05CB-DA98-4F9B-A1F5-68569D0F3572}"/>
@@ -2278,6 +2388,9 @@
     <cellStyle name="40% - Accent3 9" xfId="193" xr:uid="{1445744E-90B6-488D-803E-5140EAA59A6F}"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 10" xfId="216" xr:uid="{E4A39A42-22FF-4E29-A91E-857C82512AF1}"/>
+    <cellStyle name="40% - Accent4 11" xfId="236" xr:uid="{A15AB521-EDD2-4488-9B8E-B468BF725EC7}"/>
+    <cellStyle name="40% - Accent4 12" xfId="256" xr:uid="{C64F4704-67C3-418C-BBBE-15B46C992F11}"/>
+    <cellStyle name="40% - Accent4 13" xfId="276" xr:uid="{B5F2CEE3-D0B5-469D-89B0-760F3DE3A0BD}"/>
     <cellStyle name="40% - Accent4 2" xfId="56" xr:uid="{83EC9D9B-BEE5-470A-B080-CE16FD9AB9FA}"/>
     <cellStyle name="40% - Accent4 3" xfId="76" xr:uid="{2082F1A2-5A95-474E-B12F-9025B5FB9F11}"/>
     <cellStyle name="40% - Accent4 4" xfId="96" xr:uid="{FC4333FE-9EA6-4B82-B402-5480DF857851}"/>
@@ -2288,6 +2401,9 @@
     <cellStyle name="40% - Accent4 9" xfId="196" xr:uid="{D7C405D6-2468-4B26-A05A-B8EDEA00CE96}"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 10" xfId="219" xr:uid="{95F4F69C-7793-4B51-A067-DE7E22A44152}"/>
+    <cellStyle name="40% - Accent5 11" xfId="239" xr:uid="{987EE0E5-97C5-4C33-88FB-5EC9B80CE386}"/>
+    <cellStyle name="40% - Accent5 12" xfId="259" xr:uid="{92F800BA-3637-4C26-A741-453D0979760D}"/>
+    <cellStyle name="40% - Accent5 13" xfId="279" xr:uid="{258307B7-6B3A-4BF3-BED2-A9F6F7912AC6}"/>
     <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{15AD98EA-98F1-460C-85F3-BB4A4E38A363}"/>
     <cellStyle name="40% - Accent5 3" xfId="79" xr:uid="{C5480D71-5F19-44B6-B080-84766C674A1D}"/>
     <cellStyle name="40% - Accent5 4" xfId="99" xr:uid="{69745F4D-E36C-40AC-8CD0-6930986125DE}"/>
@@ -2298,6 +2414,9 @@
     <cellStyle name="40% - Accent5 9" xfId="199" xr:uid="{0C8A2010-51FD-441B-AB4A-C42C30722C02}"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 10" xfId="222" xr:uid="{7461D848-AB54-4C39-811F-7B795B94C51F}"/>
+    <cellStyle name="40% - Accent6 11" xfId="242" xr:uid="{81410666-474D-47BB-856E-3CCB38ADD449}"/>
+    <cellStyle name="40% - Accent6 12" xfId="262" xr:uid="{89DBFF2C-62D8-4829-9BE8-CCFD25B26BE9}"/>
+    <cellStyle name="40% - Accent6 13" xfId="282" xr:uid="{592AD54A-3227-4261-BEDF-C3F559E9B23B}"/>
     <cellStyle name="40% - Accent6 2" xfId="62" xr:uid="{45B59C48-4470-44FD-BB9F-F30A336F2151}"/>
     <cellStyle name="40% - Accent6 3" xfId="82" xr:uid="{7912BF9F-9C83-4653-9D16-651610831981}"/>
     <cellStyle name="40% - Accent6 4" xfId="102" xr:uid="{5515B6D7-6A40-47AC-8588-587E81DD1B3B}"/>
@@ -2308,6 +2427,9 @@
     <cellStyle name="40% - Accent6 9" xfId="202" xr:uid="{F7993087-342D-4E5A-8EEE-F87C07D35C3F}"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent1 10" xfId="208" xr:uid="{2D40DE72-1A7C-4914-A3E7-013AB12191DA}"/>
+    <cellStyle name="60% - Accent1 11" xfId="228" xr:uid="{7070C891-AA79-474E-8EA7-E6456EDA4DF2}"/>
+    <cellStyle name="60% - Accent1 12" xfId="248" xr:uid="{CDAB397B-436D-492F-8648-379F186999DB}"/>
+    <cellStyle name="60% - Accent1 13" xfId="268" xr:uid="{69D59957-84E2-4998-A73B-6539E6DA37A9}"/>
     <cellStyle name="60% - Accent1 2" xfId="48" xr:uid="{E1A03B6B-FA78-45D5-939C-628EDA4E602C}"/>
     <cellStyle name="60% - Accent1 3" xfId="68" xr:uid="{5D16E2E7-DD78-4135-8AD0-5BDC88DC49AD}"/>
     <cellStyle name="60% - Accent1 4" xfId="88" xr:uid="{B1857BB0-4942-426A-9FE1-27E2795209DA}"/>
@@ -2318,6 +2440,9 @@
     <cellStyle name="60% - Accent1 9" xfId="188" xr:uid="{B604F6D9-E0B7-4D09-AC4B-DB54E9F336FA}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent2 10" xfId="211" xr:uid="{11DDA217-CFDA-41B1-A291-D1143B2236E5}"/>
+    <cellStyle name="60% - Accent2 11" xfId="231" xr:uid="{4CCDC3AD-BF7B-4473-85F7-D5EEC3C8E251}"/>
+    <cellStyle name="60% - Accent2 12" xfId="251" xr:uid="{C58B9182-3548-40EF-B84C-85D69D86CDF2}"/>
+    <cellStyle name="60% - Accent2 13" xfId="271" xr:uid="{2B8D9EB6-83F5-41E1-8751-C0445B57C1C5}"/>
     <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{D0FA212D-F77B-4084-805A-1C705D6AF2DA}"/>
     <cellStyle name="60% - Accent2 3" xfId="71" xr:uid="{B873FD5E-9C9F-4E6A-813B-AD4AECD97E71}"/>
     <cellStyle name="60% - Accent2 4" xfId="91" xr:uid="{F3C6E93D-49C0-42CD-8DBE-516F8EF9C594}"/>
@@ -2328,6 +2453,9 @@
     <cellStyle name="60% - Accent2 9" xfId="191" xr:uid="{C8A811A0-45C3-40DD-8521-689D30F9FC9E}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Accent3 10" xfId="214" xr:uid="{2CD2CD45-D144-4C3C-A9D5-61AE7DDA40F0}"/>
+    <cellStyle name="60% - Accent3 11" xfId="234" xr:uid="{C51B81D1-6FED-40E3-A857-DE9CC22B5A88}"/>
+    <cellStyle name="60% - Accent3 12" xfId="254" xr:uid="{799B7C81-7307-4232-AF89-B8DDDC9C60FE}"/>
+    <cellStyle name="60% - Accent3 13" xfId="274" xr:uid="{41A4D159-08B9-4A88-AB4C-65FDD10FE416}"/>
     <cellStyle name="60% - Accent3 2" xfId="54" xr:uid="{2DB920AF-9A1B-4809-8D7E-7E7D27029255}"/>
     <cellStyle name="60% - Accent3 3" xfId="74" xr:uid="{A793605B-7722-4F77-9376-057AEC03667C}"/>
     <cellStyle name="60% - Accent3 4" xfId="94" xr:uid="{3D5D6532-2B17-404C-BA8F-B5B4195D405A}"/>
@@ -2338,6 +2466,9 @@
     <cellStyle name="60% - Accent3 9" xfId="194" xr:uid="{DE42D8D4-93A4-4629-8A32-E56A89008F4A}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Accent4 10" xfId="217" xr:uid="{1DB35B76-39EC-4E0D-AEF6-3A94A13AE516}"/>
+    <cellStyle name="60% - Accent4 11" xfId="237" xr:uid="{BA08DEFA-1CE2-4941-AB9C-CB09E2075C18}"/>
+    <cellStyle name="60% - Accent4 12" xfId="257" xr:uid="{1D1AD600-1880-4447-9126-9ADAF9D0E5EA}"/>
+    <cellStyle name="60% - Accent4 13" xfId="277" xr:uid="{F0B545A0-D0A5-48DE-B2C8-219794872A82}"/>
     <cellStyle name="60% - Accent4 2" xfId="57" xr:uid="{8195BE35-9B86-415F-9A4D-34B6410EDF5E}"/>
     <cellStyle name="60% - Accent4 3" xfId="77" xr:uid="{4CB98DF4-7B73-43E1-81E0-21FDB4DF4681}"/>
     <cellStyle name="60% - Accent4 4" xfId="97" xr:uid="{047B4172-9762-4193-8BB2-DEA383D577A2}"/>
@@ -2348,6 +2479,9 @@
     <cellStyle name="60% - Accent4 9" xfId="197" xr:uid="{EAD3D1DC-9A29-4913-8759-C878A26794A7}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Accent5 10" xfId="220" xr:uid="{70CE8811-CB9C-4B6E-95A9-FF46C0092824}"/>
+    <cellStyle name="60% - Accent5 11" xfId="240" xr:uid="{40088DD4-F23D-4839-BD45-D16DBBEC117F}"/>
+    <cellStyle name="60% - Accent5 12" xfId="260" xr:uid="{219B4BC5-B5A0-4AFA-900D-A0B5EC1746EB}"/>
+    <cellStyle name="60% - Accent5 13" xfId="280" xr:uid="{351AB47A-D826-4291-9283-813652D58C01}"/>
     <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{2B087051-0B1A-48CB-8C88-FB5419174C45}"/>
     <cellStyle name="60% - Accent5 3" xfId="80" xr:uid="{7CA52249-2793-4CBE-9320-B2E51B7C7208}"/>
     <cellStyle name="60% - Accent5 4" xfId="100" xr:uid="{E73925E2-2A98-4246-A82E-2EB950F86CC1}"/>
@@ -2358,6 +2492,9 @@
     <cellStyle name="60% - Accent5 9" xfId="200" xr:uid="{18C903EB-9722-419A-92FF-E89DCA128818}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Accent6 10" xfId="223" xr:uid="{99C8BEBB-7EC8-438F-97C4-BD916580407A}"/>
+    <cellStyle name="60% - Accent6 11" xfId="243" xr:uid="{655F3FF5-9425-4FC0-BD35-E1D4638E2D3D}"/>
+    <cellStyle name="60% - Accent6 12" xfId="263" xr:uid="{592D428E-0CD2-4523-B624-ECBF8ACFA448}"/>
+    <cellStyle name="60% - Accent6 13" xfId="283" xr:uid="{2EE4857A-8801-4D01-818F-57628330640E}"/>
     <cellStyle name="60% - Accent6 2" xfId="63" xr:uid="{58557526-09F0-45A4-98F9-0C716C5F523E}"/>
     <cellStyle name="60% - Accent6 3" xfId="83" xr:uid="{E8E730DA-91DC-40A1-8E24-A1F3DDEF146E}"/>
     <cellStyle name="60% - Accent6 4" xfId="103" xr:uid="{30FF29FE-4E67-44A8-B821-3B0604D9778B}"/>
@@ -2387,6 +2524,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="184" xr:uid="{8E6231AE-DA40-4C9E-9736-1B82EE5E5E6F}"/>
     <cellStyle name="Normal 11" xfId="204" xr:uid="{5FC8D269-42B1-464C-968F-D78D98DD3FF3}"/>
+    <cellStyle name="Normal 12" xfId="224" xr:uid="{5416065E-0E58-4ED3-B31E-13774CDAE5BA}"/>
+    <cellStyle name="Normal 13" xfId="244" xr:uid="{98967BAE-8BC9-469B-B6A9-65518A605B3F}"/>
+    <cellStyle name="Normal 14" xfId="264" xr:uid="{32B0010D-0188-4624-AD39-9A20458E8E90}"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{F50F2267-46E4-4CC2-A189-BCAD2533BD90}"/>
     <cellStyle name="Normal 3" xfId="44" xr:uid="{D61C6192-B0B8-490B-8EAA-C3CB05EBEB04}"/>
     <cellStyle name="Normal 4" xfId="64" xr:uid="{6E293B67-1F89-4B61-BE65-B4BC73B1F281}"/>
@@ -2397,6 +2537,9 @@
     <cellStyle name="Normal 9" xfId="164" xr:uid="{60AB3928-159E-4B63-B2EE-B9ED7592E562}"/>
     <cellStyle name="Note 10" xfId="185" xr:uid="{00BF838E-8AEA-43DE-A47A-A73365DF3C51}"/>
     <cellStyle name="Note 11" xfId="205" xr:uid="{D9822493-3789-448B-ADE3-0E6288BD800D}"/>
+    <cellStyle name="Note 12" xfId="225" xr:uid="{EEAC6D30-30A5-4551-8C4E-6667B9DDE8C2}"/>
+    <cellStyle name="Note 13" xfId="245" xr:uid="{91725AB7-4F7C-4C03-975B-DB968C9EC293}"/>
+    <cellStyle name="Note 14" xfId="265" xr:uid="{B5E67E63-43A0-450C-9CF3-785C53D6CB7E}"/>
     <cellStyle name="Note 2" xfId="43" xr:uid="{1EF10F79-33D5-4582-804E-9EE3D514D4EE}"/>
     <cellStyle name="Note 3" xfId="45" xr:uid="{C97AE358-3909-487F-A4AA-9350252C81B6}"/>
     <cellStyle name="Note 4" xfId="65" xr:uid="{B117F347-10A2-45EC-8BDC-7C266E1D0FF8}"/>
@@ -3508,8 +3651,11 @@
                 <c:pt idx="3">
                   <c:v>89</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>708</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>596</c:v>
+                  <c:v>1304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,8 +4011,11 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>2546.2986000000001</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="&quot;$&quot;#,##0">
+                  <c:v>18482.002699999994</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>18487.611899999996</c:v>
+                  <c:v>36969.614599999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4429,8 +4578,11 @@
                 <c:pt idx="3">
                   <c:v>139</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1129</c:v>
+                  <c:v>1242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,8 +4929,11 @@
                 <c:pt idx="3" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
                   <c:v>1909.9570999999999</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
+                  <c:v>1541</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>18755.738499999999</c:v>
+                  <c:v>20296.738499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7746,28 +7901,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
       <c r="S1" s="4"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -7864,25 +8019,25 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="100">
+      <c r="L3" s="99">
         <v>4</v>
       </c>
-      <c r="M3" s="100">
+      <c r="M3" s="99">
         <v>46</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="N3" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="100" t="s">
+      <c r="O3" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="101">
+      <c r="P3" s="100">
         <v>11.7</v>
       </c>
-      <c r="Q3" s="101">
+      <c r="Q3" s="100">
         <v>12.561199999999999</v>
       </c>
-      <c r="R3" s="101">
+      <c r="R3" s="100">
         <v>577.8152</v>
       </c>
       <c r="S3" s="22">
@@ -9359,9 +9514,9 @@
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
       <c r="S29" s="22"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -9402,9 +9557,9 @@
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
       <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -9437,9 +9592,9 @@
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -9472,9 +9627,9 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
       <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -9507,9 +9662,9 @@
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
       <c r="S33" s="22"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -9546,9 +9701,9 @@
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
       <c r="S34" s="11"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
@@ -9585,9 +9740,9 @@
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
       <c r="S35" s="11"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
@@ -9624,9 +9779,9 @@
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
       <c r="S36" s="11"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
@@ -9663,9 +9818,9 @@
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -9950,9 +10105,9 @@
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="12"/>
       <c r="I46"/>
       <c r="O46" s="41"/>
@@ -9966,9 +10121,9 @@
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
       <c r="D47" s="41"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="12"/>
       <c r="I47"/>
       <c r="O47" s="41"/>
@@ -9982,9 +10137,9 @@
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
       <c r="D48" s="41"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
       <c r="H48" s="12"/>
       <c r="I48"/>
       <c r="O48" s="41"/>
@@ -9998,9 +10153,9 @@
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="12"/>
       <c r="I49"/>
       <c r="O49" s="41"/>
@@ -10014,9 +10169,9 @@
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="12"/>
       <c r="I50"/>
       <c r="O50" s="41"/>
@@ -10030,9 +10185,9 @@
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
       <c r="H51"/>
       <c r="I51"/>
       <c r="O51" s="41"/>
@@ -10046,9 +10201,9 @@
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="O52" s="41"/>
@@ -10062,9 +10217,9 @@
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
       <c r="D53" s="41"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="O53" s="41"/>
@@ -10078,9 +10233,9 @@
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="Q54" s="15"/>
@@ -10091,108 +10246,108 @@
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
       <c r="D55" s="41"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
       <c r="D56" s="41"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
       <c r="D57" s="41"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
       <c r="D58" s="41"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
       <c r="D59" s="41"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
       <c r="D60" s="41"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
       <c r="D63" s="41"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
       <c r="D64" s="41"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J70" s="2"/>
@@ -10219,8 +10374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2908758-2B63-4D19-8CDF-3000E5F1BE9C}">
   <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView topLeftCell="G83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView topLeftCell="M87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10228,29 +10383,29 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" style="28" customWidth="1"/>
-    <col min="24" max="24" width="4.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="78" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="77" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" customWidth="1"/>
     <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
@@ -10282,176 +10437,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="62"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="61"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126" t="s">
+      <c r="G2" s="128"/>
+      <c r="H2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126" t="s">
+      <c r="K2" s="128"/>
+      <c r="L2" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126" t="s">
+      <c r="M2" s="128"/>
+      <c r="N2" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126" t="s">
+      <c r="O2" s="128"/>
+      <c r="P2" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126" t="s">
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126" t="s">
+      <c r="S2" s="128"/>
+      <c r="T2" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126" t="s">
+      <c r="U2" s="128"/>
+      <c r="V2" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126" t="s">
+      <c r="W2" s="128"/>
+      <c r="X2" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126" t="s">
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="63"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="38" t="s">
         <v>166</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="K3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="M3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="O3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="P3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="Q3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="S3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="U3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="V3" s="72" t="s">
+      <c r="V3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="W3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="X3" s="72" t="s">
+      <c r="X3" s="71" t="s">
         <v>166</v>
       </c>
       <c r="Y3" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" s="92" t="s">
+      <c r="Z3" s="91" t="s">
         <v>166</v>
       </c>
       <c r="AA3" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" s="63"/>
+      <c r="AB3" s="62"/>
       <c r="AF3" s="28"/>
     </row>
     <row r="4" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10464,53 +10619,53 @@
       <c r="C4" s="45">
         <v>0</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="72">
         <v>4</v>
       </c>
       <c r="E4" s="45">
         <v>247.76</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="72">
         <v>1</v>
       </c>
       <c r="G4" s="45">
         <v>53.94</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="72">
         <v>8</v>
       </c>
       <c r="I4" s="45">
         <v>473.92</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="72">
         <v>20</v>
       </c>
       <c r="K4" s="45">
         <v>1182.8</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="72">
         <v>3</v>
       </c>
       <c r="M4" s="45">
         <v>161.82</v>
       </c>
-      <c r="N4" s="80">
+      <c r="N4" s="79">
         <v>1</v>
       </c>
       <c r="O4" s="31">
         <v>62.42</v>
       </c>
-      <c r="P4" s="86"/>
+      <c r="P4" s="85"/>
       <c r="Q4" s="31"/>
-      <c r="R4" s="86"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="31"/>
-      <c r="T4" s="86"/>
+      <c r="T4" s="85"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="86"/>
+      <c r="V4" s="85"/>
       <c r="W4" s="31"/>
-      <c r="X4" s="86"/>
+      <c r="X4" s="85"/>
       <c r="Y4" s="46"/>
-      <c r="Z4" s="93">
+      <c r="Z4" s="92">
         <f>SUM(B4,D4,F4,H4,J4,L4,N4,P4,R4,T4,V4,X4)</f>
         <v>37</v>
       </c>
@@ -10531,53 +10686,53 @@
       <c r="C5" s="24">
         <v>24.5</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="73">
         <v>0</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="73">
         <v>13</v>
       </c>
       <c r="G5" s="24">
         <v>282.37</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="73">
         <v>0</v>
       </c>
       <c r="I5" s="24">
         <v>0</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="73">
         <v>0</v>
       </c>
       <c r="K5" s="24">
         <v>0</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="73">
         <v>2</v>
       </c>
       <c r="M5" s="24">
         <v>53.34</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="80">
         <v>1</v>
       </c>
       <c r="O5" s="32">
         <v>24.02</v>
       </c>
-      <c r="P5" s="87"/>
+      <c r="P5" s="86"/>
       <c r="Q5" s="32"/>
-      <c r="R5" s="87"/>
+      <c r="R5" s="86"/>
       <c r="S5" s="32"/>
-      <c r="T5" s="87"/>
+      <c r="T5" s="86"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="87"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="32"/>
-      <c r="X5" s="87"/>
+      <c r="X5" s="86"/>
       <c r="Y5" s="47"/>
-      <c r="Z5" s="94">
+      <c r="Z5" s="93">
         <f t="shared" ref="Z5:Z68" si="0">SUM(B5,D5,F5,H5,J5,L5,N5,P5,R5,T5,V5,X5)</f>
         <v>17</v>
       </c>
@@ -10598,53 +10753,53 @@
       <c r="C6" s="24">
         <v>0</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="73">
         <v>0</v>
       </c>
       <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="73">
         <v>0</v>
       </c>
       <c r="G6" s="24">
         <v>0</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="73">
         <v>1</v>
       </c>
       <c r="I6" s="24">
         <v>31.47</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="73">
         <v>0</v>
       </c>
       <c r="K6" s="24">
         <v>0</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="73">
         <v>0</v>
       </c>
       <c r="M6" s="24">
         <v>0</v>
       </c>
-      <c r="N6" s="81">
+      <c r="N6" s="80">
         <v>0</v>
       </c>
       <c r="O6" s="32">
         <v>0</v>
       </c>
-      <c r="P6" s="87"/>
+      <c r="P6" s="86"/>
       <c r="Q6" s="32"/>
-      <c r="R6" s="87"/>
+      <c r="R6" s="86"/>
       <c r="S6" s="32"/>
-      <c r="T6" s="87"/>
+      <c r="T6" s="86"/>
       <c r="U6" s="32"/>
-      <c r="V6" s="87"/>
+      <c r="V6" s="86"/>
       <c r="W6" s="32"/>
-      <c r="X6" s="87"/>
+      <c r="X6" s="86"/>
       <c r="Y6" s="47"/>
-      <c r="Z6" s="94">
+      <c r="Z6" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10665,53 +10820,53 @@
       <c r="C7" s="24">
         <v>0</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="73">
         <v>6</v>
       </c>
       <c r="E7" s="24">
         <v>140.26</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="73">
         <v>0</v>
       </c>
       <c r="G7" s="24">
         <v>0</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="73">
         <v>21</v>
       </c>
       <c r="I7" s="24">
         <v>451.08</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="73">
         <v>2</v>
       </c>
       <c r="K7" s="24">
         <v>45.2</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="73">
         <v>0</v>
       </c>
       <c r="M7" s="24">
         <v>0</v>
       </c>
-      <c r="N7" s="81">
+      <c r="N7" s="80">
         <v>12</v>
       </c>
       <c r="O7" s="32">
         <v>233.76</v>
       </c>
-      <c r="P7" s="87"/>
+      <c r="P7" s="86"/>
       <c r="Q7" s="32"/>
-      <c r="R7" s="87"/>
+      <c r="R7" s="86"/>
       <c r="S7" s="32"/>
-      <c r="T7" s="87"/>
+      <c r="T7" s="86"/>
       <c r="U7" s="32"/>
-      <c r="V7" s="87"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="32"/>
-      <c r="X7" s="87"/>
+      <c r="X7" s="86"/>
       <c r="Y7" s="47"/>
-      <c r="Z7" s="94">
+      <c r="Z7" s="93">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -10732,53 +10887,53 @@
       <c r="C8" s="24">
         <v>35.96</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="73">
         <v>3</v>
       </c>
       <c r="E8" s="24">
         <v>59.23</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <v>0</v>
       </c>
       <c r="G8" s="24">
         <v>0</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="73">
         <v>8</v>
       </c>
       <c r="I8" s="24">
         <v>166.08</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>29</v>
       </c>
       <c r="K8" s="24">
         <v>702.58</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="73">
         <v>19</v>
       </c>
       <c r="M8" s="24">
         <v>354.5</v>
       </c>
-      <c r="N8" s="81">
+      <c r="N8" s="80">
         <v>0</v>
       </c>
       <c r="O8" s="32">
         <v>0</v>
       </c>
-      <c r="P8" s="87"/>
+      <c r="P8" s="86"/>
       <c r="Q8" s="32"/>
-      <c r="R8" s="87"/>
+      <c r="R8" s="86"/>
       <c r="S8" s="32"/>
-      <c r="T8" s="87"/>
+      <c r="T8" s="86"/>
       <c r="U8" s="32"/>
-      <c r="V8" s="87"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="32"/>
-      <c r="X8" s="87"/>
+      <c r="X8" s="86"/>
       <c r="Y8" s="47"/>
-      <c r="Z8" s="94">
+      <c r="Z8" s="93">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -10799,53 +10954,53 @@
       <c r="C9" s="24">
         <v>0</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="73">
         <v>1</v>
       </c>
       <c r="E9" s="24">
         <v>25.22</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="73">
         <v>0</v>
       </c>
       <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="73">
         <v>0</v>
       </c>
       <c r="I9" s="24">
         <v>0</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>0</v>
       </c>
       <c r="K9" s="24">
         <v>0</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="73">
         <v>0</v>
       </c>
       <c r="M9" s="24">
         <v>0</v>
       </c>
-      <c r="N9" s="81">
+      <c r="N9" s="80">
         <v>0</v>
       </c>
       <c r="O9" s="32">
         <v>0</v>
       </c>
-      <c r="P9" s="87"/>
+      <c r="P9" s="86"/>
       <c r="Q9" s="32"/>
-      <c r="R9" s="87"/>
+      <c r="R9" s="86"/>
       <c r="S9" s="32"/>
-      <c r="T9" s="87"/>
+      <c r="T9" s="86"/>
       <c r="U9" s="32"/>
-      <c r="V9" s="87"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="32"/>
-      <c r="X9" s="87"/>
+      <c r="X9" s="86"/>
       <c r="Y9" s="47"/>
-      <c r="Z9" s="94">
+      <c r="Z9" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10866,53 +11021,53 @@
       <c r="C10" s="24">
         <v>423.59</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="73">
         <v>12</v>
       </c>
       <c r="E10" s="24">
         <v>218.47</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="73">
         <v>30</v>
       </c>
       <c r="G10" s="24">
         <v>541.26</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="73">
         <v>26</v>
       </c>
       <c r="I10" s="24">
         <v>473.15</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <v>13</v>
       </c>
       <c r="K10" s="24">
         <v>233.67</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="73">
         <v>4</v>
       </c>
       <c r="M10" s="24">
         <v>69.040000000000006</v>
       </c>
-      <c r="N10" s="81">
+      <c r="N10" s="80">
         <v>4</v>
       </c>
       <c r="O10" s="32">
         <v>84.58</v>
       </c>
-      <c r="P10" s="87"/>
+      <c r="P10" s="86"/>
       <c r="Q10" s="32"/>
-      <c r="R10" s="87"/>
+      <c r="R10" s="86"/>
       <c r="S10" s="32"/>
-      <c r="T10" s="87"/>
+      <c r="T10" s="86"/>
       <c r="U10" s="32"/>
-      <c r="V10" s="87"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="32"/>
-      <c r="X10" s="87"/>
+      <c r="X10" s="86"/>
       <c r="Y10" s="47"/>
-      <c r="Z10" s="94">
+      <c r="Z10" s="93">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
@@ -10933,53 +11088,53 @@
       <c r="C11" s="24">
         <v>573.48</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="73">
         <v>0</v>
       </c>
       <c r="E11" s="24">
         <v>0</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="73">
         <v>0</v>
       </c>
       <c r="G11" s="24">
         <v>0</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="73">
         <v>0</v>
       </c>
       <c r="I11" s="24">
         <v>0</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>4</v>
       </c>
       <c r="K11" s="24">
         <v>107.52</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="73">
         <v>0</v>
       </c>
       <c r="M11" s="24">
         <v>0</v>
       </c>
-      <c r="N11" s="81">
+      <c r="N11" s="80">
         <v>0</v>
       </c>
       <c r="O11" s="32">
         <v>0</v>
       </c>
-      <c r="P11" s="87"/>
+      <c r="P11" s="86"/>
       <c r="Q11" s="32"/>
-      <c r="R11" s="87"/>
+      <c r="R11" s="86"/>
       <c r="S11" s="32"/>
-      <c r="T11" s="87"/>
+      <c r="T11" s="86"/>
       <c r="U11" s="32"/>
-      <c r="V11" s="87"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="32"/>
-      <c r="X11" s="87"/>
+      <c r="X11" s="86"/>
       <c r="Y11" s="47"/>
-      <c r="Z11" s="94">
+      <c r="Z11" s="93">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -11000,53 +11155,53 @@
       <c r="C12" s="24">
         <v>32.729999999999997</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="73">
         <v>0</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="73">
         <v>0</v>
       </c>
       <c r="G12" s="24">
         <v>0</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="73">
         <v>0</v>
       </c>
       <c r="I12" s="24">
         <v>0</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="73">
         <v>0</v>
       </c>
       <c r="K12" s="24">
         <v>0</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="73">
         <v>0</v>
       </c>
       <c r="M12" s="24">
         <v>0</v>
       </c>
-      <c r="N12" s="81">
+      <c r="N12" s="80">
         <v>0</v>
       </c>
       <c r="O12" s="32">
         <v>0</v>
       </c>
-      <c r="P12" s="87"/>
+      <c r="P12" s="86"/>
       <c r="Q12" s="32"/>
-      <c r="R12" s="87"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="32"/>
-      <c r="T12" s="87"/>
+      <c r="T12" s="86"/>
       <c r="U12" s="32"/>
-      <c r="V12" s="87"/>
+      <c r="V12" s="86"/>
       <c r="W12" s="32"/>
-      <c r="X12" s="87"/>
+      <c r="X12" s="86"/>
       <c r="Y12" s="47"/>
-      <c r="Z12" s="94">
+      <c r="Z12" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11067,53 +11222,53 @@
       <c r="C13" s="24">
         <v>120.87</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="73">
         <v>0</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="73">
         <v>0</v>
       </c>
       <c r="G13" s="24">
         <v>0</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="73">
         <v>2</v>
       </c>
       <c r="I13" s="24">
         <v>80.58</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="73">
         <v>0</v>
       </c>
       <c r="K13" s="24">
         <v>0</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="73">
         <v>0</v>
       </c>
       <c r="M13" s="24">
         <v>0</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N13" s="80">
         <v>0</v>
       </c>
       <c r="O13" s="32">
         <v>0</v>
       </c>
-      <c r="P13" s="87"/>
+      <c r="P13" s="86"/>
       <c r="Q13" s="32"/>
-      <c r="R13" s="87"/>
+      <c r="R13" s="86"/>
       <c r="S13" s="32"/>
-      <c r="T13" s="87"/>
+      <c r="T13" s="86"/>
       <c r="U13" s="32"/>
-      <c r="V13" s="87"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="32"/>
-      <c r="X13" s="87"/>
+      <c r="X13" s="86"/>
       <c r="Y13" s="47"/>
-      <c r="Z13" s="94">
+      <c r="Z13" s="93">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -11134,53 +11289,53 @@
       <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="73">
         <v>0</v>
       </c>
       <c r="E14" s="24">
         <v>0</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="73">
         <v>5</v>
       </c>
       <c r="G14" s="24">
         <v>303.25</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="73">
         <v>1</v>
       </c>
       <c r="I14" s="24">
         <v>60.65</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="73">
         <v>0</v>
       </c>
       <c r="K14" s="24">
         <v>0</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="73">
         <v>0</v>
       </c>
       <c r="M14" s="24">
         <v>0</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="80">
         <v>0</v>
       </c>
       <c r="O14" s="32">
         <v>0</v>
       </c>
-      <c r="P14" s="87"/>
+      <c r="P14" s="86"/>
       <c r="Q14" s="32"/>
-      <c r="R14" s="87"/>
+      <c r="R14" s="86"/>
       <c r="S14" s="32"/>
-      <c r="T14" s="87"/>
+      <c r="T14" s="86"/>
       <c r="U14" s="32"/>
-      <c r="V14" s="87"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="32"/>
-      <c r="X14" s="87"/>
+      <c r="X14" s="86"/>
       <c r="Y14" s="47"/>
-      <c r="Z14" s="94">
+      <c r="Z14" s="93">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -11201,53 +11356,53 @@
       <c r="C15" s="24">
         <v>0</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="73">
         <v>4</v>
       </c>
       <c r="E15" s="24">
         <v>217.88</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="73">
         <v>0</v>
       </c>
       <c r="G15" s="24">
         <v>0</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="73">
         <v>2</v>
       </c>
       <c r="I15" s="24">
         <v>108.94</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="73">
         <v>2</v>
       </c>
       <c r="K15" s="24">
         <v>98.32</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="73">
         <v>0</v>
       </c>
       <c r="M15" s="24">
         <v>0</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="80">
         <v>1</v>
       </c>
       <c r="O15" s="32">
         <v>54.47</v>
       </c>
-      <c r="P15" s="87"/>
+      <c r="P15" s="86"/>
       <c r="Q15" s="32"/>
-      <c r="R15" s="87"/>
+      <c r="R15" s="86"/>
       <c r="S15" s="32"/>
-      <c r="T15" s="87"/>
+      <c r="T15" s="86"/>
       <c r="U15" s="32"/>
-      <c r="V15" s="87"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="32"/>
-      <c r="X15" s="87"/>
+      <c r="X15" s="86"/>
       <c r="Y15" s="47"/>
-      <c r="Z15" s="94">
+      <c r="Z15" s="93">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -11267,53 +11422,53 @@
       <c r="C16" s="24">
         <v>0</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="73">
         <v>1</v>
       </c>
       <c r="E16" s="24">
         <v>63.67</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="73">
         <v>0</v>
       </c>
       <c r="G16" s="24">
         <v>0</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="73">
         <v>0</v>
       </c>
       <c r="I16" s="24">
         <v>0</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="73">
         <v>0</v>
       </c>
       <c r="K16" s="24">
         <v>0</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="73">
         <v>0</v>
       </c>
       <c r="M16" s="24">
         <v>0</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="80">
         <v>0</v>
       </c>
       <c r="O16" s="32">
         <v>0</v>
       </c>
-      <c r="P16" s="87"/>
+      <c r="P16" s="86"/>
       <c r="Q16" s="32"/>
-      <c r="R16" s="87"/>
+      <c r="R16" s="86"/>
       <c r="S16" s="32"/>
-      <c r="T16" s="87"/>
+      <c r="T16" s="86"/>
       <c r="U16" s="32"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="32"/>
-      <c r="X16" s="87"/>
+      <c r="X16" s="86"/>
       <c r="Y16" s="47"/>
-      <c r="Z16" s="94">
+      <c r="Z16" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11333,53 +11488,53 @@
       <c r="C17" s="24">
         <v>207</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="73">
         <v>2</v>
       </c>
       <c r="E17" s="24">
         <v>110.84</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="73">
         <v>0</v>
       </c>
       <c r="G17" s="24">
         <v>0</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="73">
         <v>15</v>
       </c>
       <c r="I17" s="24">
         <v>778.38</v>
       </c>
-      <c r="J17" s="74">
+      <c r="J17" s="73">
         <v>0</v>
       </c>
       <c r="K17" s="24">
         <v>0</v>
       </c>
-      <c r="L17" s="74">
+      <c r="L17" s="73">
         <v>8</v>
       </c>
       <c r="M17" s="24">
         <v>425.07</v>
       </c>
-      <c r="N17" s="81">
+      <c r="N17" s="80">
         <v>0</v>
       </c>
       <c r="O17" s="32">
         <v>0</v>
       </c>
-      <c r="P17" s="87"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="32"/>
-      <c r="R17" s="87"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="32"/>
-      <c r="T17" s="87"/>
+      <c r="T17" s="86"/>
       <c r="U17" s="32"/>
-      <c r="V17" s="87"/>
+      <c r="V17" s="86"/>
       <c r="W17" s="32"/>
-      <c r="X17" s="87"/>
+      <c r="X17" s="86"/>
       <c r="Y17" s="47"/>
-      <c r="Z17" s="94">
+      <c r="Z17" s="93">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -11399,53 +11554,53 @@
       <c r="C18" s="24">
         <v>0</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="73">
         <v>0</v>
       </c>
       <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="73">
         <v>13</v>
       </c>
       <c r="G18" s="24">
         <v>984.83</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="73">
         <v>1</v>
       </c>
       <c r="I18" s="24">
         <v>73.319999999999993</v>
       </c>
-      <c r="J18" s="74">
+      <c r="J18" s="73">
         <v>0</v>
       </c>
       <c r="K18" s="24">
         <v>0</v>
       </c>
-      <c r="L18" s="74">
+      <c r="L18" s="73">
         <v>18</v>
       </c>
       <c r="M18" s="24">
         <v>1360.27</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="80">
         <v>0</v>
       </c>
       <c r="O18" s="32">
         <v>0</v>
       </c>
-      <c r="P18" s="87"/>
+      <c r="P18" s="86"/>
       <c r="Q18" s="32"/>
-      <c r="R18" s="87"/>
+      <c r="R18" s="86"/>
       <c r="S18" s="32"/>
-      <c r="T18" s="87"/>
+      <c r="T18" s="86"/>
       <c r="U18" s="32"/>
-      <c r="V18" s="87"/>
+      <c r="V18" s="86"/>
       <c r="W18" s="32"/>
-      <c r="X18" s="87"/>
+      <c r="X18" s="86"/>
       <c r="Y18" s="47"/>
-      <c r="Z18" s="94">
+      <c r="Z18" s="93">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -11465,53 +11620,53 @@
       <c r="C19" s="24">
         <v>135.78</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="73">
         <v>0</v>
       </c>
       <c r="E19" s="24">
         <v>0</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="73">
         <v>0</v>
       </c>
       <c r="G19" s="24">
         <v>0</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="73">
         <v>0</v>
       </c>
       <c r="I19" s="24">
         <v>0</v>
       </c>
-      <c r="J19" s="74">
+      <c r="J19" s="73">
         <v>1</v>
       </c>
       <c r="K19" s="24">
         <v>67.89</v>
       </c>
-      <c r="L19" s="74">
+      <c r="L19" s="73">
         <v>1</v>
       </c>
       <c r="M19" s="24">
         <v>67.89</v>
       </c>
-      <c r="N19" s="81">
+      <c r="N19" s="80">
         <v>0</v>
       </c>
       <c r="O19" s="32">
         <v>0</v>
       </c>
-      <c r="P19" s="87"/>
+      <c r="P19" s="86"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="87"/>
+      <c r="R19" s="86"/>
       <c r="S19" s="32"/>
-      <c r="T19" s="87"/>
+      <c r="T19" s="86"/>
       <c r="U19" s="32"/>
-      <c r="V19" s="87"/>
+      <c r="V19" s="86"/>
       <c r="W19" s="32"/>
-      <c r="X19" s="87"/>
+      <c r="X19" s="86"/>
       <c r="Y19" s="47"/>
-      <c r="Z19" s="94">
+      <c r="Z19" s="93">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -11531,53 +11686,53 @@
       <c r="C20" s="24">
         <v>0</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="73">
         <v>2</v>
       </c>
       <c r="E20" s="24">
         <v>104.52</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="73">
         <v>0</v>
       </c>
       <c r="G20" s="24">
         <v>0</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="73">
         <v>0</v>
       </c>
       <c r="I20" s="24">
         <v>0</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="73">
         <v>0</v>
       </c>
       <c r="K20" s="24">
         <v>0</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="73">
         <v>0</v>
       </c>
       <c r="M20" s="24">
         <v>0</v>
       </c>
-      <c r="N20" s="81">
+      <c r="N20" s="80">
         <v>1</v>
       </c>
       <c r="O20" s="32">
         <v>54.44</v>
       </c>
-      <c r="P20" s="87"/>
+      <c r="P20" s="86"/>
       <c r="Q20" s="32"/>
-      <c r="R20" s="87"/>
+      <c r="R20" s="86"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="87"/>
+      <c r="T20" s="86"/>
       <c r="U20" s="32"/>
-      <c r="V20" s="87"/>
+      <c r="V20" s="86"/>
       <c r="W20" s="32"/>
-      <c r="X20" s="87"/>
+      <c r="X20" s="86"/>
       <c r="Y20" s="47"/>
-      <c r="Z20" s="94">
+      <c r="Z20" s="93">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -11597,53 +11752,53 @@
       <c r="C21" s="24">
         <v>0</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="73">
         <v>2</v>
       </c>
       <c r="E21" s="24">
         <v>123.98</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="73">
         <v>0</v>
       </c>
       <c r="G21" s="24">
         <v>0</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="73">
         <v>0</v>
       </c>
       <c r="I21" s="24">
         <v>0</v>
       </c>
-      <c r="J21" s="74">
+      <c r="J21" s="73">
         <v>0</v>
       </c>
       <c r="K21" s="24">
         <v>0</v>
       </c>
-      <c r="L21" s="74">
+      <c r="L21" s="73">
         <v>0</v>
       </c>
       <c r="M21" s="24">
         <v>0</v>
       </c>
-      <c r="N21" s="81">
+      <c r="N21" s="80">
         <v>0</v>
       </c>
       <c r="O21" s="32">
         <v>0</v>
       </c>
-      <c r="P21" s="87"/>
+      <c r="P21" s="86"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="87"/>
+      <c r="R21" s="86"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="87"/>
+      <c r="T21" s="86"/>
       <c r="U21" s="32"/>
-      <c r="V21" s="87"/>
+      <c r="V21" s="86"/>
       <c r="W21" s="32"/>
-      <c r="X21" s="87"/>
+      <c r="X21" s="86"/>
       <c r="Y21" s="47"/>
-      <c r="Z21" s="94">
+      <c r="Z21" s="93">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -11663,53 +11818,53 @@
       <c r="C22" s="24">
         <v>608</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="73">
         <v>0</v>
       </c>
       <c r="E22" s="24">
         <v>0</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="73">
         <v>0</v>
       </c>
       <c r="G22" s="24">
         <v>0</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="73">
         <v>0</v>
       </c>
       <c r="I22" s="24">
         <v>0</v>
       </c>
-      <c r="J22" s="74">
+      <c r="J22" s="73">
         <v>0</v>
       </c>
       <c r="K22" s="24">
         <v>0</v>
       </c>
-      <c r="L22" s="74">
+      <c r="L22" s="73">
         <v>0</v>
       </c>
       <c r="M22" s="24">
         <v>0</v>
       </c>
-      <c r="N22" s="81">
+      <c r="N22" s="80">
         <v>0</v>
       </c>
       <c r="O22" s="32">
         <v>0</v>
       </c>
-      <c r="P22" s="87"/>
+      <c r="P22" s="86"/>
       <c r="Q22" s="32"/>
-      <c r="R22" s="87"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="32"/>
-      <c r="T22" s="87"/>
+      <c r="T22" s="86"/>
       <c r="U22" s="32"/>
-      <c r="V22" s="87"/>
+      <c r="V22" s="86"/>
       <c r="W22" s="32"/>
-      <c r="X22" s="87"/>
+      <c r="X22" s="86"/>
       <c r="Y22" s="47"/>
-      <c r="Z22" s="94">
+      <c r="Z22" s="93">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -11729,53 +11884,53 @@
       <c r="C23" s="24">
         <v>0</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="73">
         <v>0</v>
       </c>
       <c r="E23" s="24">
         <v>0</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="73">
         <v>4</v>
       </c>
       <c r="G23" s="24">
         <v>231.08</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="73">
         <v>0</v>
       </c>
       <c r="I23" s="24">
         <v>0</v>
       </c>
-      <c r="J23" s="74">
+      <c r="J23" s="73">
         <v>0</v>
       </c>
       <c r="K23" s="24">
         <v>0</v>
       </c>
-      <c r="L23" s="74">
+      <c r="L23" s="73">
         <v>0</v>
       </c>
       <c r="M23" s="24">
         <v>0</v>
       </c>
-      <c r="N23" s="81">
+      <c r="N23" s="80">
         <v>0</v>
       </c>
       <c r="O23" s="32">
         <v>0</v>
       </c>
-      <c r="P23" s="87"/>
+      <c r="P23" s="86"/>
       <c r="Q23" s="32"/>
-      <c r="R23" s="87"/>
+      <c r="R23" s="86"/>
       <c r="S23" s="32"/>
-      <c r="T23" s="87"/>
+      <c r="T23" s="86"/>
       <c r="U23" s="32"/>
-      <c r="V23" s="87"/>
+      <c r="V23" s="86"/>
       <c r="W23" s="32"/>
-      <c r="X23" s="87"/>
+      <c r="X23" s="86"/>
       <c r="Y23" s="47"/>
-      <c r="Z23" s="94">
+      <c r="Z23" s="93">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -11795,53 +11950,53 @@
       <c r="C24" s="24">
         <v>0</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="73">
         <v>0</v>
       </c>
       <c r="E24" s="24">
         <v>0</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="73">
         <v>0</v>
       </c>
       <c r="G24" s="24">
         <v>0</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="73">
         <v>2</v>
       </c>
       <c r="I24" s="24">
         <v>73.44</v>
       </c>
-      <c r="J24" s="74">
+      <c r="J24" s="73">
         <v>0</v>
       </c>
       <c r="K24" s="24">
         <v>0</v>
       </c>
-      <c r="L24" s="74">
+      <c r="L24" s="73">
         <v>2</v>
       </c>
       <c r="M24" s="24">
         <v>60.38</v>
       </c>
-      <c r="N24" s="81">
+      <c r="N24" s="80">
         <v>0</v>
       </c>
       <c r="O24" s="32">
         <v>0</v>
       </c>
-      <c r="P24" s="87"/>
+      <c r="P24" s="86"/>
       <c r="Q24" s="32"/>
-      <c r="R24" s="87"/>
+      <c r="R24" s="86"/>
       <c r="S24" s="32"/>
-      <c r="T24" s="87"/>
+      <c r="T24" s="86"/>
       <c r="U24" s="32"/>
-      <c r="V24" s="87"/>
+      <c r="V24" s="86"/>
       <c r="W24" s="32"/>
-      <c r="X24" s="87"/>
+      <c r="X24" s="86"/>
       <c r="Y24" s="47"/>
-      <c r="Z24" s="94">
+      <c r="Z24" s="93">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -11861,53 +12016,53 @@
       <c r="C25" s="24">
         <v>49.7</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="73">
         <v>2</v>
       </c>
       <c r="E25" s="24">
         <v>74</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="73">
         <v>0</v>
       </c>
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="74">
+      <c r="H25" s="73">
         <v>2</v>
       </c>
       <c r="I25" s="24">
         <v>86.99</v>
       </c>
-      <c r="J25" s="74">
+      <c r="J25" s="73">
         <v>0</v>
       </c>
       <c r="K25" s="24">
         <v>0</v>
       </c>
-      <c r="L25" s="74">
+      <c r="L25" s="73">
         <v>0</v>
       </c>
       <c r="M25" s="24">
         <v>0</v>
       </c>
-      <c r="N25" s="81">
+      <c r="N25" s="80">
         <v>0</v>
       </c>
       <c r="O25" s="32">
         <v>0</v>
       </c>
-      <c r="P25" s="87"/>
+      <c r="P25" s="86"/>
       <c r="Q25" s="32"/>
-      <c r="R25" s="87"/>
+      <c r="R25" s="86"/>
       <c r="S25" s="32"/>
-      <c r="T25" s="87"/>
+      <c r="T25" s="86"/>
       <c r="U25" s="32"/>
-      <c r="V25" s="87"/>
+      <c r="V25" s="86"/>
       <c r="W25" s="32"/>
-      <c r="X25" s="87"/>
+      <c r="X25" s="86"/>
       <c r="Y25" s="47"/>
-      <c r="Z25" s="94">
+      <c r="Z25" s="93">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -11927,53 +12082,53 @@
       <c r="C26" s="24">
         <v>1621.82</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="73">
         <v>98</v>
       </c>
       <c r="E26" s="24">
         <v>1971.04</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="73">
         <v>160</v>
       </c>
       <c r="G26" s="24">
         <v>3417.6</v>
       </c>
-      <c r="H26" s="74">
+      <c r="H26" s="73">
         <v>9</v>
       </c>
       <c r="I26" s="24">
         <v>221.35</v>
       </c>
-      <c r="J26" s="74">
+      <c r="J26" s="73">
         <v>20</v>
       </c>
       <c r="K26" s="24">
         <v>877.67</v>
       </c>
-      <c r="L26" s="74">
+      <c r="L26" s="73">
         <v>5</v>
       </c>
       <c r="M26" s="24">
         <v>106.51</v>
       </c>
-      <c r="N26" s="81">
+      <c r="N26" s="80">
         <v>27</v>
       </c>
       <c r="O26" s="32">
         <v>1082.97</v>
       </c>
-      <c r="P26" s="87"/>
+      <c r="P26" s="86"/>
       <c r="Q26" s="32"/>
-      <c r="R26" s="87"/>
+      <c r="R26" s="86"/>
       <c r="S26" s="32"/>
-      <c r="T26" s="87"/>
+      <c r="T26" s="86"/>
       <c r="U26" s="32"/>
-      <c r="V26" s="87"/>
+      <c r="V26" s="86"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="87"/>
+      <c r="X26" s="86"/>
       <c r="Y26" s="47"/>
-      <c r="Z26" s="94">
+      <c r="Z26" s="93">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
@@ -11993,53 +12148,53 @@
       <c r="C27" s="24">
         <v>942.2</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="73">
         <v>2</v>
       </c>
       <c r="E27" s="24">
         <v>46.18</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="73">
         <v>33</v>
       </c>
       <c r="G27" s="24">
         <v>736.77</v>
       </c>
-      <c r="H27" s="74">
+      <c r="H27" s="73">
         <v>4</v>
       </c>
       <c r="I27" s="24">
         <v>93.16</v>
       </c>
-      <c r="J27" s="74">
+      <c r="J27" s="73">
         <v>12</v>
       </c>
       <c r="K27" s="24">
         <v>241.92</v>
       </c>
-      <c r="L27" s="74">
+      <c r="L27" s="73">
         <v>2</v>
       </c>
       <c r="M27" s="24">
         <v>36.159999999999997</v>
       </c>
-      <c r="N27" s="81">
+      <c r="N27" s="80">
         <v>2</v>
       </c>
       <c r="O27" s="32">
         <v>43.74</v>
       </c>
-      <c r="P27" s="87"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="32"/>
-      <c r="R27" s="87"/>
+      <c r="R27" s="86"/>
       <c r="S27" s="32"/>
-      <c r="T27" s="87"/>
+      <c r="T27" s="86"/>
       <c r="U27" s="32"/>
-      <c r="V27" s="87"/>
+      <c r="V27" s="86"/>
       <c r="W27" s="32"/>
-      <c r="X27" s="87"/>
+      <c r="X27" s="86"/>
       <c r="Y27" s="47"/>
-      <c r="Z27" s="94">
+      <c r="Z27" s="93">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -12059,53 +12214,53 @@
       <c r="C28" s="24">
         <v>0</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="73">
         <v>0</v>
       </c>
       <c r="E28" s="24">
         <v>0</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="73">
         <v>0</v>
       </c>
       <c r="G28" s="24">
         <v>0</v>
       </c>
-      <c r="H28" s="74">
+      <c r="H28" s="73">
         <v>0</v>
       </c>
       <c r="I28" s="24">
         <v>0</v>
       </c>
-      <c r="J28" s="74">
+      <c r="J28" s="73">
         <v>0</v>
       </c>
       <c r="K28" s="24">
         <v>0</v>
       </c>
-      <c r="L28" s="74">
+      <c r="L28" s="73">
         <v>12</v>
       </c>
       <c r="M28" s="24">
         <v>369</v>
       </c>
-      <c r="N28" s="81">
+      <c r="N28" s="80">
         <v>1</v>
       </c>
       <c r="O28" s="32">
         <v>36.81</v>
       </c>
-      <c r="P28" s="87"/>
+      <c r="P28" s="86"/>
       <c r="Q28" s="32"/>
-      <c r="R28" s="87"/>
+      <c r="R28" s="86"/>
       <c r="S28" s="32"/>
-      <c r="T28" s="87"/>
+      <c r="T28" s="86"/>
       <c r="U28" s="32"/>
-      <c r="V28" s="87"/>
+      <c r="V28" s="86"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="87"/>
+      <c r="X28" s="86"/>
       <c r="Y28" s="47"/>
-      <c r="Z28" s="94">
+      <c r="Z28" s="93">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -12125,53 +12280,53 @@
       <c r="C29" s="24">
         <v>0</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="73">
         <v>0</v>
       </c>
       <c r="E29" s="24">
         <v>0</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="73">
         <v>1</v>
       </c>
       <c r="G29" s="24">
         <v>32.56</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="73">
         <v>0</v>
       </c>
       <c r="I29" s="24">
         <v>0</v>
       </c>
-      <c r="J29" s="74">
+      <c r="J29" s="73">
         <v>0</v>
       </c>
       <c r="K29" s="24">
         <v>0</v>
       </c>
-      <c r="L29" s="74">
+      <c r="L29" s="73">
         <v>0</v>
       </c>
       <c r="M29" s="24">
         <v>0</v>
       </c>
-      <c r="N29" s="81">
+      <c r="N29" s="80">
         <v>0</v>
       </c>
       <c r="O29" s="32">
         <v>0</v>
       </c>
-      <c r="P29" s="87"/>
+      <c r="P29" s="86"/>
       <c r="Q29" s="32"/>
-      <c r="R29" s="87"/>
+      <c r="R29" s="86"/>
       <c r="S29" s="32"/>
-      <c r="T29" s="87"/>
+      <c r="T29" s="86"/>
       <c r="U29" s="32"/>
-      <c r="V29" s="87"/>
+      <c r="V29" s="86"/>
       <c r="W29" s="32"/>
-      <c r="X29" s="87"/>
+      <c r="X29" s="86"/>
       <c r="Y29" s="47"/>
-      <c r="Z29" s="94">
+      <c r="Z29" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12191,53 +12346,53 @@
       <c r="C30" s="24">
         <v>0</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="73">
         <v>0</v>
       </c>
       <c r="E30" s="24">
         <v>0</v>
       </c>
-      <c r="F30" s="74">
+      <c r="F30" s="73">
         <v>0</v>
       </c>
       <c r="G30" s="24">
         <v>0</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="73">
         <v>0</v>
       </c>
       <c r="I30" s="24">
         <v>0</v>
       </c>
-      <c r="J30" s="74">
+      <c r="J30" s="73">
         <v>2</v>
       </c>
       <c r="K30" s="24">
         <v>53.53</v>
       </c>
-      <c r="L30" s="74">
+      <c r="L30" s="73">
         <v>0</v>
       </c>
       <c r="M30" s="24">
         <v>0</v>
       </c>
-      <c r="N30" s="81">
+      <c r="N30" s="80">
         <v>0</v>
       </c>
       <c r="O30" s="32">
         <v>0</v>
       </c>
-      <c r="P30" s="87"/>
+      <c r="P30" s="86"/>
       <c r="Q30" s="32"/>
-      <c r="R30" s="87"/>
+      <c r="R30" s="86"/>
       <c r="S30" s="32"/>
-      <c r="T30" s="87"/>
+      <c r="T30" s="86"/>
       <c r="U30" s="32"/>
-      <c r="V30" s="87"/>
+      <c r="V30" s="86"/>
       <c r="W30" s="32"/>
-      <c r="X30" s="87"/>
+      <c r="X30" s="86"/>
       <c r="Y30" s="47"/>
-      <c r="Z30" s="94">
+      <c r="Z30" s="93">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -12257,53 +12412,53 @@
       <c r="C31" s="24">
         <v>0</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="73">
         <v>0</v>
       </c>
       <c r="E31" s="24">
         <v>0</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="73">
         <v>0</v>
       </c>
       <c r="G31" s="24">
         <v>0</v>
       </c>
-      <c r="H31" s="74">
+      <c r="H31" s="73">
         <v>1</v>
       </c>
       <c r="I31" s="24">
         <v>93.85</v>
       </c>
-      <c r="J31" s="74">
+      <c r="J31" s="73">
         <v>0</v>
       </c>
       <c r="K31" s="24">
         <v>0</v>
       </c>
-      <c r="L31" s="74">
+      <c r="L31" s="73">
         <v>21</v>
       </c>
       <c r="M31" s="24">
         <v>1970.85</v>
       </c>
-      <c r="N31" s="81">
+      <c r="N31" s="80">
         <v>0</v>
       </c>
       <c r="O31" s="32">
         <v>0</v>
       </c>
-      <c r="P31" s="87"/>
+      <c r="P31" s="86"/>
       <c r="Q31" s="32"/>
-      <c r="R31" s="87"/>
+      <c r="R31" s="86"/>
       <c r="S31" s="32"/>
-      <c r="T31" s="87"/>
+      <c r="T31" s="86"/>
       <c r="U31" s="32"/>
-      <c r="V31" s="87"/>
+      <c r="V31" s="86"/>
       <c r="W31" s="32"/>
-      <c r="X31" s="87"/>
+      <c r="X31" s="86"/>
       <c r="Y31" s="47"/>
-      <c r="Z31" s="94">
+      <c r="Z31" s="93">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -12323,53 +12478,53 @@
       <c r="C32" s="24">
         <v>0</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="73">
         <v>0</v>
       </c>
       <c r="E32" s="24">
         <v>0</v>
       </c>
-      <c r="F32" s="74">
+      <c r="F32" s="73">
         <v>10</v>
       </c>
       <c r="G32" s="24">
         <v>1123.5999999999999</v>
       </c>
-      <c r="H32" s="74">
+      <c r="H32" s="73">
         <v>0</v>
       </c>
       <c r="I32" s="24">
         <v>0</v>
       </c>
-      <c r="J32" s="74">
+      <c r="J32" s="73">
         <v>0</v>
       </c>
       <c r="K32" s="24">
         <v>0</v>
       </c>
-      <c r="L32" s="74">
+      <c r="L32" s="73">
         <v>0</v>
       </c>
       <c r="M32" s="24">
         <v>0</v>
       </c>
-      <c r="N32" s="81">
+      <c r="N32" s="80">
         <v>0</v>
       </c>
       <c r="O32" s="32">
         <v>0</v>
       </c>
-      <c r="P32" s="87"/>
+      <c r="P32" s="86"/>
       <c r="Q32" s="32"/>
-      <c r="R32" s="87"/>
+      <c r="R32" s="86"/>
       <c r="S32" s="32"/>
-      <c r="T32" s="87"/>
+      <c r="T32" s="86"/>
       <c r="U32" s="32"/>
-      <c r="V32" s="87"/>
+      <c r="V32" s="86"/>
       <c r="W32" s="32"/>
-      <c r="X32" s="87"/>
+      <c r="X32" s="86"/>
       <c r="Y32" s="47"/>
-      <c r="Z32" s="94">
+      <c r="Z32" s="93">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -12389,53 +12544,53 @@
       <c r="C33" s="24">
         <v>154.32</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="73">
         <v>0</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="73">
         <v>3</v>
       </c>
       <c r="G33" s="24">
         <v>155.28</v>
       </c>
-      <c r="H33" s="74">
+      <c r="H33" s="73">
         <v>0</v>
       </c>
       <c r="I33" s="24">
         <v>0</v>
       </c>
-      <c r="J33" s="74">
+      <c r="J33" s="73">
         <v>7</v>
       </c>
       <c r="K33" s="24">
         <v>356.04</v>
       </c>
-      <c r="L33" s="74">
+      <c r="L33" s="73">
         <v>3</v>
       </c>
       <c r="M33" s="24">
         <v>154.32</v>
       </c>
-      <c r="N33" s="81">
+      <c r="N33" s="80">
         <v>0</v>
       </c>
       <c r="O33" s="32">
         <v>0</v>
       </c>
-      <c r="P33" s="87"/>
+      <c r="P33" s="86"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="87"/>
+      <c r="R33" s="86"/>
       <c r="S33" s="32"/>
-      <c r="T33" s="87"/>
+      <c r="T33" s="86"/>
       <c r="U33" s="32"/>
-      <c r="V33" s="87"/>
+      <c r="V33" s="86"/>
       <c r="W33" s="32"/>
-      <c r="X33" s="87"/>
+      <c r="X33" s="86"/>
       <c r="Y33" s="47"/>
-      <c r="Z33" s="94">
+      <c r="Z33" s="93">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -12455,53 +12610,53 @@
       <c r="C34" s="24">
         <v>0</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="73">
         <v>0</v>
       </c>
       <c r="E34" s="24">
         <v>0</v>
       </c>
-      <c r="F34" s="74">
+      <c r="F34" s="73">
         <v>1</v>
       </c>
       <c r="G34" s="24">
         <v>54.46</v>
       </c>
-      <c r="H34" s="74">
+      <c r="H34" s="73">
         <v>0</v>
       </c>
       <c r="I34" s="24">
         <v>0</v>
       </c>
-      <c r="J34" s="74">
+      <c r="J34" s="73">
         <v>0</v>
       </c>
       <c r="K34" s="24">
         <v>0</v>
       </c>
-      <c r="L34" s="74">
+      <c r="L34" s="73">
         <v>0</v>
       </c>
       <c r="M34" s="24">
         <v>0</v>
       </c>
-      <c r="N34" s="81">
+      <c r="N34" s="80">
         <v>0</v>
       </c>
       <c r="O34" s="32">
         <v>0</v>
       </c>
-      <c r="P34" s="87"/>
+      <c r="P34" s="86"/>
       <c r="Q34" s="32"/>
-      <c r="R34" s="87"/>
+      <c r="R34" s="86"/>
       <c r="S34" s="32"/>
-      <c r="T34" s="87"/>
+      <c r="T34" s="86"/>
       <c r="U34" s="32"/>
-      <c r="V34" s="87"/>
+      <c r="V34" s="86"/>
       <c r="W34" s="32"/>
-      <c r="X34" s="87"/>
+      <c r="X34" s="86"/>
       <c r="Y34" s="47"/>
-      <c r="Z34" s="94">
+      <c r="Z34" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12521,53 +12676,53 @@
       <c r="C35" s="24">
         <v>379.68</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="73">
         <v>0</v>
       </c>
       <c r="E35" s="24">
         <v>0</v>
       </c>
-      <c r="F35" s="74">
+      <c r="F35" s="73">
         <v>0</v>
       </c>
       <c r="G35" s="24">
         <v>0</v>
       </c>
-      <c r="H35" s="74">
+      <c r="H35" s="73">
         <v>0</v>
       </c>
       <c r="I35" s="24">
         <v>0</v>
       </c>
-      <c r="J35" s="74">
+      <c r="J35" s="73">
         <v>0</v>
       </c>
       <c r="K35" s="24">
         <v>0</v>
       </c>
-      <c r="L35" s="74">
+      <c r="L35" s="73">
         <v>0</v>
       </c>
       <c r="M35" s="24">
         <v>0</v>
       </c>
-      <c r="N35" s="81">
+      <c r="N35" s="80">
         <v>0</v>
       </c>
       <c r="O35" s="32">
         <v>0</v>
       </c>
-      <c r="P35" s="87"/>
+      <c r="P35" s="86"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="87"/>
+      <c r="R35" s="86"/>
       <c r="S35" s="32"/>
-      <c r="T35" s="87"/>
+      <c r="T35" s="86"/>
       <c r="U35" s="32"/>
-      <c r="V35" s="87"/>
+      <c r="V35" s="86"/>
       <c r="W35" s="32"/>
-      <c r="X35" s="87"/>
+      <c r="X35" s="86"/>
       <c r="Y35" s="47"/>
-      <c r="Z35" s="94">
+      <c r="Z35" s="93">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -12587,53 +12742,53 @@
       <c r="C36" s="24">
         <v>0</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="73">
         <v>1</v>
       </c>
       <c r="E36" s="24">
         <v>57.52</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F36" s="73">
         <v>0</v>
       </c>
       <c r="G36" s="24">
         <v>0</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H36" s="73">
         <v>0</v>
       </c>
       <c r="I36" s="24">
         <v>0</v>
       </c>
-      <c r="J36" s="74">
+      <c r="J36" s="73">
         <v>0</v>
       </c>
       <c r="K36" s="24">
         <v>0</v>
       </c>
-      <c r="L36" s="74">
+      <c r="L36" s="73">
         <v>0</v>
       </c>
       <c r="M36" s="24">
         <v>0</v>
       </c>
-      <c r="N36" s="81">
+      <c r="N36" s="80">
         <v>0</v>
       </c>
       <c r="O36" s="32">
         <v>0</v>
       </c>
-      <c r="P36" s="87"/>
+      <c r="P36" s="86"/>
       <c r="Q36" s="32"/>
-      <c r="R36" s="87"/>
+      <c r="R36" s="86"/>
       <c r="S36" s="32"/>
-      <c r="T36" s="87"/>
+      <c r="T36" s="86"/>
       <c r="U36" s="32"/>
-      <c r="V36" s="87"/>
+      <c r="V36" s="86"/>
       <c r="W36" s="32"/>
-      <c r="X36" s="87"/>
+      <c r="X36" s="86"/>
       <c r="Y36" s="47"/>
-      <c r="Z36" s="94">
+      <c r="Z36" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12653,53 +12808,53 @@
       <c r="C37" s="24">
         <v>0</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="73">
         <v>0</v>
       </c>
       <c r="E37" s="24">
         <v>0</v>
       </c>
-      <c r="F37" s="74">
+      <c r="F37" s="73">
         <v>0</v>
       </c>
       <c r="G37" s="24">
         <v>0</v>
       </c>
-      <c r="H37" s="74">
+      <c r="H37" s="73">
         <v>0</v>
       </c>
       <c r="I37" s="24">
         <v>0</v>
       </c>
-      <c r="J37" s="74">
+      <c r="J37" s="73">
         <v>0</v>
       </c>
       <c r="K37" s="24">
         <v>0</v>
       </c>
-      <c r="L37" s="74">
+      <c r="L37" s="73">
         <v>0</v>
       </c>
       <c r="M37" s="24">
         <v>0</v>
       </c>
-      <c r="N37" s="81">
+      <c r="N37" s="80">
         <v>12</v>
       </c>
       <c r="O37" s="32">
         <v>663.84</v>
       </c>
-      <c r="P37" s="87"/>
+      <c r="P37" s="86"/>
       <c r="Q37" s="32"/>
-      <c r="R37" s="87"/>
+      <c r="R37" s="86"/>
       <c r="S37" s="32"/>
-      <c r="T37" s="87"/>
+      <c r="T37" s="86"/>
       <c r="U37" s="32"/>
-      <c r="V37" s="87"/>
+      <c r="V37" s="86"/>
       <c r="W37" s="32"/>
-      <c r="X37" s="87"/>
+      <c r="X37" s="86"/>
       <c r="Y37" s="47"/>
-      <c r="Z37" s="94">
+      <c r="Z37" s="93">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -12719,53 +12874,53 @@
       <c r="C38" s="24">
         <v>52.28</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="73">
         <v>0</v>
       </c>
       <c r="E38" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="74">
+      <c r="F38" s="73">
         <v>0</v>
       </c>
       <c r="G38" s="24">
         <v>0</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="73">
         <v>0</v>
       </c>
       <c r="I38" s="24">
         <v>0</v>
       </c>
-      <c r="J38" s="74">
+      <c r="J38" s="73">
         <v>0</v>
       </c>
       <c r="K38" s="24">
         <v>0</v>
       </c>
-      <c r="L38" s="74">
+      <c r="L38" s="73">
         <v>0</v>
       </c>
       <c r="M38" s="24">
         <v>0</v>
       </c>
-      <c r="N38" s="81">
+      <c r="N38" s="80">
         <v>0</v>
       </c>
       <c r="O38" s="32">
         <v>0</v>
       </c>
-      <c r="P38" s="87"/>
+      <c r="P38" s="86"/>
       <c r="Q38" s="32"/>
-      <c r="R38" s="87"/>
+      <c r="R38" s="86"/>
       <c r="S38" s="32"/>
-      <c r="T38" s="87"/>
+      <c r="T38" s="86"/>
       <c r="U38" s="32"/>
-      <c r="V38" s="87"/>
+      <c r="V38" s="86"/>
       <c r="W38" s="32"/>
-      <c r="X38" s="87"/>
+      <c r="X38" s="86"/>
       <c r="Y38" s="47"/>
-      <c r="Z38" s="94">
+      <c r="Z38" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -12785,53 +12940,53 @@
       <c r="C39" s="24">
         <v>55.2</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="73">
         <v>0</v>
       </c>
       <c r="E39" s="24">
         <v>0</v>
       </c>
-      <c r="F39" s="74">
+      <c r="F39" s="73">
         <v>0</v>
       </c>
       <c r="G39" s="24">
         <v>0</v>
       </c>
-      <c r="H39" s="74">
+      <c r="H39" s="73">
         <v>0</v>
       </c>
       <c r="I39" s="24">
         <v>0</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J39" s="73">
         <v>1</v>
       </c>
       <c r="K39" s="24">
         <v>54.97</v>
       </c>
-      <c r="L39" s="74">
+      <c r="L39" s="73">
         <v>0</v>
       </c>
       <c r="M39" s="24">
         <v>0</v>
       </c>
-      <c r="N39" s="81">
+      <c r="N39" s="80">
         <v>0</v>
       </c>
       <c r="O39" s="32">
         <v>0</v>
       </c>
-      <c r="P39" s="87"/>
+      <c r="P39" s="86"/>
       <c r="Q39" s="32"/>
-      <c r="R39" s="87"/>
+      <c r="R39" s="86"/>
       <c r="S39" s="32"/>
-      <c r="T39" s="87"/>
+      <c r="T39" s="86"/>
       <c r="U39" s="32"/>
-      <c r="V39" s="87"/>
+      <c r="V39" s="86"/>
       <c r="W39" s="32"/>
-      <c r="X39" s="87"/>
+      <c r="X39" s="86"/>
       <c r="Y39" s="47"/>
-      <c r="Z39" s="94">
+      <c r="Z39" s="93">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -12851,53 +13006,53 @@
       <c r="C40" s="24">
         <v>45.64</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="73">
         <v>0</v>
       </c>
       <c r="E40" s="24">
         <v>0</v>
       </c>
-      <c r="F40" s="74">
+      <c r="F40" s="73">
         <v>0</v>
       </c>
       <c r="G40" s="24">
         <v>0</v>
       </c>
-      <c r="H40" s="74">
+      <c r="H40" s="73">
         <v>0</v>
       </c>
       <c r="I40" s="24">
         <v>0</v>
       </c>
-      <c r="J40" s="74">
+      <c r="J40" s="73">
         <v>0</v>
       </c>
       <c r="K40" s="24">
         <v>0</v>
       </c>
-      <c r="L40" s="74">
+      <c r="L40" s="73">
         <v>2</v>
       </c>
       <c r="M40" s="24">
         <v>52.45</v>
       </c>
-      <c r="N40" s="81">
+      <c r="N40" s="80">
         <v>25</v>
       </c>
       <c r="O40" s="32">
         <v>644.15</v>
       </c>
-      <c r="P40" s="87"/>
+      <c r="P40" s="86"/>
       <c r="Q40" s="32"/>
-      <c r="R40" s="87"/>
+      <c r="R40" s="86"/>
       <c r="S40" s="32"/>
-      <c r="T40" s="87"/>
+      <c r="T40" s="86"/>
       <c r="U40" s="32"/>
-      <c r="V40" s="87"/>
+      <c r="V40" s="86"/>
       <c r="W40" s="32"/>
-      <c r="X40" s="87"/>
+      <c r="X40" s="86"/>
       <c r="Y40" s="47"/>
-      <c r="Z40" s="94">
+      <c r="Z40" s="93">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -12917,53 +13072,53 @@
       <c r="C41" s="24">
         <v>0</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="73">
         <v>0</v>
       </c>
       <c r="E41" s="24">
         <v>0</v>
       </c>
-      <c r="F41" s="74">
+      <c r="F41" s="73">
         <v>0</v>
       </c>
       <c r="G41" s="24">
         <v>0</v>
       </c>
-      <c r="H41" s="74">
+      <c r="H41" s="73">
         <v>0</v>
       </c>
       <c r="I41" s="24">
         <v>0</v>
       </c>
-      <c r="J41" s="74">
+      <c r="J41" s="73">
         <v>0</v>
       </c>
       <c r="K41" s="24">
         <v>0</v>
       </c>
-      <c r="L41" s="74">
+      <c r="L41" s="73">
         <v>10</v>
       </c>
       <c r="M41" s="24">
         <v>489.7</v>
       </c>
-      <c r="N41" s="81">
+      <c r="N41" s="80">
         <v>0</v>
       </c>
       <c r="O41" s="32">
         <v>0</v>
       </c>
-      <c r="P41" s="87"/>
+      <c r="P41" s="86"/>
       <c r="Q41" s="32"/>
-      <c r="R41" s="87"/>
+      <c r="R41" s="86"/>
       <c r="S41" s="32"/>
-      <c r="T41" s="87"/>
+      <c r="T41" s="86"/>
       <c r="U41" s="32"/>
-      <c r="V41" s="87"/>
+      <c r="V41" s="86"/>
       <c r="W41" s="32"/>
-      <c r="X41" s="87"/>
+      <c r="X41" s="86"/>
       <c r="Y41" s="47"/>
-      <c r="Z41" s="94">
+      <c r="Z41" s="93">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -12983,53 +13138,53 @@
       <c r="C42" s="24">
         <v>0</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="73">
         <v>0</v>
       </c>
       <c r="E42" s="24">
         <v>0</v>
       </c>
-      <c r="F42" s="74">
+      <c r="F42" s="73">
         <v>1</v>
       </c>
       <c r="G42" s="24">
         <v>24.41</v>
       </c>
-      <c r="H42" s="74">
+      <c r="H42" s="73">
         <v>31</v>
       </c>
       <c r="I42" s="24">
         <v>665.81</v>
       </c>
-      <c r="J42" s="74">
+      <c r="J42" s="73">
         <v>1</v>
       </c>
       <c r="K42" s="24">
         <v>21.38</v>
       </c>
-      <c r="L42" s="74">
+      <c r="L42" s="73">
         <v>0</v>
       </c>
       <c r="M42" s="24">
         <v>0</v>
       </c>
-      <c r="N42" s="81">
+      <c r="N42" s="80">
         <v>0</v>
       </c>
       <c r="O42" s="32">
         <v>0</v>
       </c>
-      <c r="P42" s="87"/>
+      <c r="P42" s="86"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="87"/>
+      <c r="R42" s="86"/>
       <c r="S42" s="32"/>
-      <c r="T42" s="87"/>
+      <c r="T42" s="86"/>
       <c r="U42" s="32"/>
-      <c r="V42" s="87"/>
+      <c r="V42" s="86"/>
       <c r="W42" s="32"/>
-      <c r="X42" s="87"/>
+      <c r="X42" s="86"/>
       <c r="Y42" s="47"/>
-      <c r="Z42" s="94">
+      <c r="Z42" s="93">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -13049,53 +13204,53 @@
       <c r="C43" s="24">
         <v>0</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="73">
         <v>1</v>
       </c>
       <c r="E43" s="24">
         <v>23.86</v>
       </c>
-      <c r="F43" s="74">
+      <c r="F43" s="73">
         <v>0</v>
       </c>
       <c r="G43" s="24">
         <v>0</v>
       </c>
-      <c r="H43" s="74">
+      <c r="H43" s="73">
         <v>0</v>
       </c>
       <c r="I43" s="24">
         <v>0</v>
       </c>
-      <c r="J43" s="74">
+      <c r="J43" s="73">
         <v>3</v>
       </c>
       <c r="K43" s="24">
         <v>120.27</v>
       </c>
-      <c r="L43" s="74">
+      <c r="L43" s="73">
         <v>18</v>
       </c>
       <c r="M43" s="24">
         <v>666.25</v>
       </c>
-      <c r="N43" s="81">
+      <c r="N43" s="80">
         <v>12</v>
       </c>
       <c r="O43" s="32">
         <v>406.79</v>
       </c>
-      <c r="P43" s="87"/>
+      <c r="P43" s="86"/>
       <c r="Q43" s="32"/>
-      <c r="R43" s="87"/>
+      <c r="R43" s="86"/>
       <c r="S43" s="32"/>
-      <c r="T43" s="87"/>
+      <c r="T43" s="86"/>
       <c r="U43" s="32"/>
-      <c r="V43" s="87"/>
+      <c r="V43" s="86"/>
       <c r="W43" s="32"/>
-      <c r="X43" s="87"/>
+      <c r="X43" s="86"/>
       <c r="Y43" s="47"/>
-      <c r="Z43" s="94">
+      <c r="Z43" s="93">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -13115,53 +13270,53 @@
       <c r="C44" s="24">
         <v>0</v>
       </c>
-      <c r="D44" s="74">
+      <c r="D44" s="73">
         <v>0</v>
       </c>
       <c r="E44" s="24">
         <v>0</v>
       </c>
-      <c r="F44" s="74">
+      <c r="F44" s="73">
         <v>0</v>
       </c>
       <c r="G44" s="24">
         <v>0</v>
       </c>
-      <c r="H44" s="74">
+      <c r="H44" s="73">
         <v>1</v>
       </c>
       <c r="I44" s="24">
         <v>22.82</v>
       </c>
-      <c r="J44" s="74">
+      <c r="J44" s="73">
         <v>0</v>
       </c>
       <c r="K44" s="24">
         <v>0</v>
       </c>
-      <c r="L44" s="74">
+      <c r="L44" s="73">
         <v>8</v>
       </c>
       <c r="M44" s="24">
         <v>172.55</v>
       </c>
-      <c r="N44" s="81">
+      <c r="N44" s="80">
         <v>4</v>
       </c>
       <c r="O44" s="32">
         <v>88.42</v>
       </c>
-      <c r="P44" s="87"/>
+      <c r="P44" s="86"/>
       <c r="Q44" s="32"/>
-      <c r="R44" s="87"/>
+      <c r="R44" s="86"/>
       <c r="S44" s="32"/>
-      <c r="T44" s="87"/>
+      <c r="T44" s="86"/>
       <c r="U44" s="32"/>
-      <c r="V44" s="87"/>
+      <c r="V44" s="86"/>
       <c r="W44" s="32"/>
-      <c r="X44" s="87"/>
+      <c r="X44" s="86"/>
       <c r="Y44" s="47"/>
-      <c r="Z44" s="94">
+      <c r="Z44" s="93">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -13181,53 +13336,53 @@
       <c r="C45" s="24">
         <v>0</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="73">
         <v>2</v>
       </c>
       <c r="E45" s="24">
         <v>51.28</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="73">
         <v>3</v>
       </c>
       <c r="G45" s="24">
         <v>77.69</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="73">
         <v>4</v>
       </c>
       <c r="I45" s="24">
         <v>101.68</v>
       </c>
-      <c r="J45" s="74">
+      <c r="J45" s="73">
         <v>5</v>
       </c>
       <c r="K45" s="24">
         <v>129.08000000000001</v>
       </c>
-      <c r="L45" s="74">
+      <c r="L45" s="73">
         <v>0</v>
       </c>
       <c r="M45" s="24">
         <v>0</v>
       </c>
-      <c r="N45" s="81">
+      <c r="N45" s="80">
         <v>22</v>
       </c>
       <c r="O45" s="32">
         <v>565.62</v>
       </c>
-      <c r="P45" s="87"/>
+      <c r="P45" s="86"/>
       <c r="Q45" s="32"/>
-      <c r="R45" s="87"/>
+      <c r="R45" s="86"/>
       <c r="S45" s="32"/>
-      <c r="T45" s="87"/>
+      <c r="T45" s="86"/>
       <c r="U45" s="32"/>
-      <c r="V45" s="87"/>
+      <c r="V45" s="86"/>
       <c r="W45" s="32"/>
-      <c r="X45" s="87"/>
+      <c r="X45" s="86"/>
       <c r="Y45" s="47"/>
-      <c r="Z45" s="94">
+      <c r="Z45" s="93">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -13247,53 +13402,53 @@
       <c r="C46" s="24">
         <v>0</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="73">
         <v>0</v>
       </c>
       <c r="E46" s="24">
         <v>0</v>
       </c>
-      <c r="F46" s="74">
+      <c r="F46" s="73">
         <v>1</v>
       </c>
       <c r="G46" s="24">
         <v>22.71</v>
       </c>
-      <c r="H46" s="74">
+      <c r="H46" s="73">
         <v>0</v>
       </c>
       <c r="I46" s="24">
         <v>0</v>
       </c>
-      <c r="J46" s="74">
+      <c r="J46" s="73">
         <v>0</v>
       </c>
       <c r="K46" s="24">
         <v>0</v>
       </c>
-      <c r="L46" s="74">
+      <c r="L46" s="73">
         <v>1</v>
       </c>
       <c r="M46" s="24">
         <v>24.08</v>
       </c>
-      <c r="N46" s="81">
+      <c r="N46" s="80">
         <v>0</v>
       </c>
       <c r="O46" s="32">
         <v>0</v>
       </c>
-      <c r="P46" s="87"/>
+      <c r="P46" s="86"/>
       <c r="Q46" s="32"/>
-      <c r="R46" s="87"/>
+      <c r="R46" s="86"/>
       <c r="S46" s="32"/>
-      <c r="T46" s="87"/>
+      <c r="T46" s="86"/>
       <c r="U46" s="32"/>
-      <c r="V46" s="87"/>
+      <c r="V46" s="86"/>
       <c r="W46" s="32"/>
-      <c r="X46" s="87"/>
+      <c r="X46" s="86"/>
       <c r="Y46" s="47"/>
-      <c r="Z46" s="94">
+      <c r="Z46" s="93">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -13313,53 +13468,53 @@
       <c r="C47" s="24">
         <v>0</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="73">
         <v>0</v>
       </c>
       <c r="E47" s="24">
         <v>0</v>
       </c>
-      <c r="F47" s="74">
+      <c r="F47" s="73">
         <v>0</v>
       </c>
       <c r="G47" s="24">
         <v>0</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="73">
         <v>1</v>
       </c>
       <c r="I47" s="24">
         <v>22.29</v>
       </c>
-      <c r="J47" s="74">
+      <c r="J47" s="73">
         <v>1</v>
       </c>
       <c r="K47" s="24">
         <v>22.9</v>
       </c>
-      <c r="L47" s="74">
+      <c r="L47" s="73">
         <v>0</v>
       </c>
       <c r="M47" s="24">
         <v>0</v>
       </c>
-      <c r="N47" s="81">
+      <c r="N47" s="80">
         <v>0</v>
       </c>
       <c r="O47" s="32">
         <v>0</v>
       </c>
-      <c r="P47" s="87"/>
+      <c r="P47" s="86"/>
       <c r="Q47" s="32"/>
-      <c r="R47" s="87"/>
+      <c r="R47" s="86"/>
       <c r="S47" s="32"/>
-      <c r="T47" s="87"/>
+      <c r="T47" s="86"/>
       <c r="U47" s="32"/>
-      <c r="V47" s="87"/>
+      <c r="V47" s="86"/>
       <c r="W47" s="32"/>
-      <c r="X47" s="87"/>
+      <c r="X47" s="86"/>
       <c r="Y47" s="47"/>
-      <c r="Z47" s="94">
+      <c r="Z47" s="93">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -13379,53 +13534,53 @@
       <c r="C48" s="24">
         <v>0</v>
       </c>
-      <c r="D48" s="74">
+      <c r="D48" s="73">
         <v>0</v>
       </c>
       <c r="E48" s="24">
         <v>0</v>
       </c>
-      <c r="F48" s="74">
+      <c r="F48" s="73">
         <v>0</v>
       </c>
       <c r="G48" s="24">
         <v>0</v>
       </c>
-      <c r="H48" s="74">
+      <c r="H48" s="73">
         <v>1</v>
       </c>
       <c r="I48" s="24">
         <v>21.48</v>
       </c>
-      <c r="J48" s="74">
+      <c r="J48" s="73">
         <v>0</v>
       </c>
       <c r="K48" s="24">
         <v>0</v>
       </c>
-      <c r="L48" s="74">
+      <c r="L48" s="73">
         <v>0</v>
       </c>
       <c r="M48" s="24">
         <v>0</v>
       </c>
-      <c r="N48" s="81">
+      <c r="N48" s="80">
         <v>0</v>
       </c>
       <c r="O48" s="32">
         <v>0</v>
       </c>
-      <c r="P48" s="87"/>
+      <c r="P48" s="86"/>
       <c r="Q48" s="32"/>
-      <c r="R48" s="87"/>
+      <c r="R48" s="86"/>
       <c r="S48" s="32"/>
-      <c r="T48" s="87"/>
+      <c r="T48" s="86"/>
       <c r="U48" s="32"/>
-      <c r="V48" s="87"/>
+      <c r="V48" s="86"/>
       <c r="W48" s="32"/>
-      <c r="X48" s="87"/>
+      <c r="X48" s="86"/>
       <c r="Y48" s="47"/>
-      <c r="Z48" s="94">
+      <c r="Z48" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13445,53 +13600,53 @@
       <c r="C49" s="24">
         <v>0</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="73">
         <v>0</v>
       </c>
       <c r="E49" s="24">
         <v>0</v>
       </c>
-      <c r="F49" s="74">
+      <c r="F49" s="73">
         <v>0</v>
       </c>
       <c r="G49" s="24">
         <v>0</v>
       </c>
-      <c r="H49" s="74">
+      <c r="H49" s="73">
         <v>0</v>
       </c>
       <c r="I49" s="24">
         <v>0</v>
       </c>
-      <c r="J49" s="74">
+      <c r="J49" s="73">
         <v>0</v>
       </c>
       <c r="K49" s="24">
         <v>0</v>
       </c>
-      <c r="L49" s="74">
+      <c r="L49" s="73">
         <v>1</v>
       </c>
       <c r="M49" s="24">
         <v>21.49</v>
       </c>
-      <c r="N49" s="81">
+      <c r="N49" s="80">
         <v>0</v>
       </c>
       <c r="O49" s="32">
         <v>0</v>
       </c>
-      <c r="P49" s="87"/>
+      <c r="P49" s="86"/>
       <c r="Q49" s="32"/>
-      <c r="R49" s="87"/>
+      <c r="R49" s="86"/>
       <c r="S49" s="32"/>
-      <c r="T49" s="87"/>
+      <c r="T49" s="86"/>
       <c r="U49" s="32"/>
-      <c r="V49" s="87"/>
+      <c r="V49" s="86"/>
       <c r="W49" s="32"/>
-      <c r="X49" s="87"/>
+      <c r="X49" s="86"/>
       <c r="Y49" s="47"/>
-      <c r="Z49" s="94">
+      <c r="Z49" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13511,53 +13666,53 @@
       <c r="C50" s="24">
         <v>336.91</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="73">
         <v>9</v>
       </c>
       <c r="E50" s="24">
         <v>398.41</v>
       </c>
-      <c r="F50" s="74">
+      <c r="F50" s="73">
         <v>1</v>
       </c>
       <c r="G50" s="24">
         <v>33.33</v>
       </c>
-      <c r="H50" s="74">
+      <c r="H50" s="73">
         <v>3</v>
       </c>
       <c r="I50" s="24">
         <v>90.45</v>
       </c>
-      <c r="J50" s="74">
+      <c r="J50" s="73">
         <v>0</v>
       </c>
       <c r="K50" s="24">
         <v>0</v>
       </c>
-      <c r="L50" s="74">
+      <c r="L50" s="73">
         <v>8</v>
       </c>
       <c r="M50" s="24">
         <v>215.12</v>
       </c>
-      <c r="N50" s="81">
+      <c r="N50" s="80">
         <v>7</v>
       </c>
       <c r="O50" s="32">
         <v>205.39</v>
       </c>
-      <c r="P50" s="87"/>
+      <c r="P50" s="86"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="87"/>
+      <c r="R50" s="86"/>
       <c r="S50" s="32"/>
-      <c r="T50" s="87"/>
+      <c r="T50" s="86"/>
       <c r="U50" s="32"/>
-      <c r="V50" s="87"/>
+      <c r="V50" s="86"/>
       <c r="W50" s="32"/>
-      <c r="X50" s="87"/>
+      <c r="X50" s="86"/>
       <c r="Y50" s="47"/>
-      <c r="Z50" s="94">
+      <c r="Z50" s="93">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -13577,53 +13732,53 @@
       <c r="C51" s="24">
         <v>0</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="73">
         <v>8</v>
       </c>
       <c r="E51" s="24">
         <v>192</v>
       </c>
-      <c r="F51" s="74">
+      <c r="F51" s="73">
         <v>0</v>
       </c>
       <c r="G51" s="24">
         <v>0</v>
       </c>
-      <c r="H51" s="74">
+      <c r="H51" s="73">
         <v>16</v>
       </c>
       <c r="I51" s="24">
         <v>384</v>
       </c>
-      <c r="J51" s="74">
+      <c r="J51" s="73">
         <v>0</v>
       </c>
       <c r="K51" s="24">
         <v>0</v>
       </c>
-      <c r="L51" s="74">
+      <c r="L51" s="73">
         <v>2</v>
       </c>
       <c r="M51" s="24">
         <v>48</v>
       </c>
-      <c r="N51" s="81">
+      <c r="N51" s="80">
         <v>1</v>
       </c>
       <c r="O51" s="32">
         <v>28.77</v>
       </c>
-      <c r="P51" s="87"/>
+      <c r="P51" s="86"/>
       <c r="Q51" s="32"/>
-      <c r="R51" s="87"/>
+      <c r="R51" s="86"/>
       <c r="S51" s="32"/>
-      <c r="T51" s="87"/>
+      <c r="T51" s="86"/>
       <c r="U51" s="32"/>
-      <c r="V51" s="87"/>
+      <c r="V51" s="86"/>
       <c r="W51" s="32"/>
-      <c r="X51" s="87"/>
+      <c r="X51" s="86"/>
       <c r="Y51" s="47"/>
-      <c r="Z51" s="94">
+      <c r="Z51" s="93">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -13643,53 +13798,53 @@
       <c r="C52" s="24">
         <v>0</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="73">
         <v>0</v>
       </c>
       <c r="E52" s="24">
         <v>0</v>
       </c>
-      <c r="F52" s="74">
+      <c r="F52" s="73">
         <v>0</v>
       </c>
       <c r="G52" s="24">
         <v>0</v>
       </c>
-      <c r="H52" s="74">
+      <c r="H52" s="73">
         <v>0</v>
       </c>
       <c r="I52" s="24">
         <v>0</v>
       </c>
-      <c r="J52" s="74">
+      <c r="J52" s="73">
         <v>33</v>
       </c>
       <c r="K52" s="24">
         <v>993.63</v>
       </c>
-      <c r="L52" s="74">
+      <c r="L52" s="73">
         <v>13</v>
       </c>
       <c r="M52" s="24">
         <v>391.43</v>
       </c>
-      <c r="N52" s="81">
+      <c r="N52" s="80">
         <v>0</v>
       </c>
       <c r="O52" s="32">
         <v>0</v>
       </c>
-      <c r="P52" s="87"/>
+      <c r="P52" s="86"/>
       <c r="Q52" s="32"/>
-      <c r="R52" s="87"/>
+      <c r="R52" s="86"/>
       <c r="S52" s="32"/>
-      <c r="T52" s="87"/>
+      <c r="T52" s="86"/>
       <c r="U52" s="32"/>
-      <c r="V52" s="87"/>
+      <c r="V52" s="86"/>
       <c r="W52" s="32"/>
-      <c r="X52" s="87"/>
+      <c r="X52" s="86"/>
       <c r="Y52" s="47"/>
-      <c r="Z52" s="94">
+      <c r="Z52" s="93">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -13709,53 +13864,53 @@
       <c r="C53" s="24">
         <v>0</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="73">
         <v>0</v>
       </c>
       <c r="E53" s="24">
         <v>0</v>
       </c>
-      <c r="F53" s="74">
+      <c r="F53" s="73">
         <v>0</v>
       </c>
       <c r="G53" s="24">
         <v>0</v>
       </c>
-      <c r="H53" s="74">
+      <c r="H53" s="73">
         <v>12</v>
       </c>
       <c r="I53" s="24">
         <v>296.52</v>
       </c>
-      <c r="J53" s="74">
+      <c r="J53" s="73">
         <v>2</v>
       </c>
       <c r="K53" s="24">
         <v>46.48</v>
       </c>
-      <c r="L53" s="74">
+      <c r="L53" s="73">
         <v>1</v>
       </c>
       <c r="M53" s="24">
         <v>28.24</v>
       </c>
-      <c r="N53" s="81">
+      <c r="N53" s="80">
         <v>0</v>
       </c>
       <c r="O53" s="32">
         <v>0</v>
       </c>
-      <c r="P53" s="87"/>
+      <c r="P53" s="86"/>
       <c r="Q53" s="32"/>
-      <c r="R53" s="87"/>
+      <c r="R53" s="86"/>
       <c r="S53" s="32"/>
-      <c r="T53" s="87"/>
+      <c r="T53" s="86"/>
       <c r="U53" s="32"/>
-      <c r="V53" s="87"/>
+      <c r="V53" s="86"/>
       <c r="W53" s="32"/>
-      <c r="X53" s="87"/>
+      <c r="X53" s="86"/>
       <c r="Y53" s="47"/>
-      <c r="Z53" s="94">
+      <c r="Z53" s="93">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -13775,53 +13930,53 @@
       <c r="C54" s="24">
         <v>45.46</v>
       </c>
-      <c r="D54" s="74">
+      <c r="D54" s="73">
         <v>1</v>
       </c>
       <c r="E54" s="24">
         <v>22.73</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="73">
         <v>0</v>
       </c>
       <c r="G54" s="24">
         <v>0</v>
       </c>
-      <c r="H54" s="74">
+      <c r="H54" s="73">
         <v>0</v>
       </c>
       <c r="I54" s="24">
         <v>0</v>
       </c>
-      <c r="J54" s="74">
+      <c r="J54" s="73">
         <v>0</v>
       </c>
       <c r="K54" s="24">
         <v>0</v>
       </c>
-      <c r="L54" s="74">
+      <c r="L54" s="73">
         <v>0</v>
       </c>
       <c r="M54" s="24">
         <v>0</v>
       </c>
-      <c r="N54" s="81">
+      <c r="N54" s="80">
         <v>0</v>
       </c>
       <c r="O54" s="32">
         <v>0</v>
       </c>
-      <c r="P54" s="87"/>
+      <c r="P54" s="86"/>
       <c r="Q54" s="32"/>
-      <c r="R54" s="87"/>
+      <c r="R54" s="86"/>
       <c r="S54" s="32"/>
-      <c r="T54" s="87"/>
+      <c r="T54" s="86"/>
       <c r="U54" s="32"/>
-      <c r="V54" s="87"/>
+      <c r="V54" s="86"/>
       <c r="W54" s="32"/>
-      <c r="X54" s="87"/>
+      <c r="X54" s="86"/>
       <c r="Y54" s="47"/>
-      <c r="Z54" s="94">
+      <c r="Z54" s="93">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -13841,53 +13996,53 @@
       <c r="C55" s="24">
         <v>0</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="73">
         <v>2</v>
       </c>
       <c r="E55" s="24">
         <v>59.9</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="73">
         <v>0</v>
       </c>
       <c r="G55" s="24">
         <v>0</v>
       </c>
-      <c r="H55" s="74">
+      <c r="H55" s="73">
         <v>1</v>
       </c>
       <c r="I55" s="24">
         <v>29.44</v>
       </c>
-      <c r="J55" s="74">
+      <c r="J55" s="73">
         <v>0</v>
       </c>
       <c r="K55" s="24">
         <v>0</v>
       </c>
-      <c r="L55" s="74">
+      <c r="L55" s="73">
         <v>0</v>
       </c>
       <c r="M55" s="24">
         <v>0</v>
       </c>
-      <c r="N55" s="81">
+      <c r="N55" s="80">
         <v>0</v>
       </c>
       <c r="O55" s="32">
         <v>0</v>
       </c>
-      <c r="P55" s="87"/>
+      <c r="P55" s="86"/>
       <c r="Q55" s="32"/>
-      <c r="R55" s="87"/>
+      <c r="R55" s="86"/>
       <c r="S55" s="32"/>
-      <c r="T55" s="87"/>
+      <c r="T55" s="86"/>
       <c r="U55" s="32"/>
-      <c r="V55" s="87"/>
+      <c r="V55" s="86"/>
       <c r="W55" s="32"/>
-      <c r="X55" s="87"/>
+      <c r="X55" s="86"/>
       <c r="Y55" s="47"/>
-      <c r="Z55" s="94">
+      <c r="Z55" s="93">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -13907,53 +14062,53 @@
       <c r="C56" s="24">
         <v>0</v>
       </c>
-      <c r="D56" s="74">
+      <c r="D56" s="73">
         <v>0</v>
       </c>
       <c r="E56" s="24">
         <v>0</v>
       </c>
-      <c r="F56" s="74">
+      <c r="F56" s="73">
         <v>0</v>
       </c>
       <c r="G56" s="24">
         <v>0</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="73">
         <v>0</v>
       </c>
       <c r="I56" s="24">
         <v>0</v>
       </c>
-      <c r="J56" s="74">
+      <c r="J56" s="73">
         <v>0</v>
       </c>
       <c r="K56" s="24">
         <v>0</v>
       </c>
-      <c r="L56" s="74">
+      <c r="L56" s="73">
         <v>1</v>
       </c>
       <c r="M56" s="24">
         <v>30.18</v>
       </c>
-      <c r="N56" s="81">
+      <c r="N56" s="80">
         <v>0</v>
       </c>
       <c r="O56" s="32">
         <v>0</v>
       </c>
-      <c r="P56" s="87"/>
+      <c r="P56" s="86"/>
       <c r="Q56" s="32"/>
-      <c r="R56" s="87"/>
+      <c r="R56" s="86"/>
       <c r="S56" s="32"/>
-      <c r="T56" s="87"/>
+      <c r="T56" s="86"/>
       <c r="U56" s="32"/>
-      <c r="V56" s="87"/>
+      <c r="V56" s="86"/>
       <c r="W56" s="32"/>
-      <c r="X56" s="87"/>
+      <c r="X56" s="86"/>
       <c r="Y56" s="47"/>
-      <c r="Z56" s="94">
+      <c r="Z56" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -13973,53 +14128,53 @@
       <c r="C57" s="24">
         <v>0</v>
       </c>
-      <c r="D57" s="74">
+      <c r="D57" s="73">
         <v>0</v>
       </c>
       <c r="E57" s="24">
         <v>0</v>
       </c>
-      <c r="F57" s="74">
+      <c r="F57" s="73">
         <v>1</v>
       </c>
       <c r="G57" s="24">
         <v>28.38</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="73">
         <v>0</v>
       </c>
       <c r="I57" s="24">
         <v>0</v>
       </c>
-      <c r="J57" s="74">
+      <c r="J57" s="73">
         <v>0</v>
       </c>
       <c r="K57" s="24">
         <v>0</v>
       </c>
-      <c r="L57" s="74">
+      <c r="L57" s="73">
         <v>0</v>
       </c>
       <c r="M57" s="24">
         <v>0</v>
       </c>
-      <c r="N57" s="81">
+      <c r="N57" s="80">
         <v>0</v>
       </c>
       <c r="O57" s="32">
         <v>0</v>
       </c>
-      <c r="P57" s="87"/>
+      <c r="P57" s="86"/>
       <c r="Q57" s="32"/>
-      <c r="R57" s="87"/>
+      <c r="R57" s="86"/>
       <c r="S57" s="32"/>
-      <c r="T57" s="87"/>
+      <c r="T57" s="86"/>
       <c r="U57" s="32"/>
-      <c r="V57" s="87"/>
+      <c r="V57" s="86"/>
       <c r="W57" s="32"/>
-      <c r="X57" s="87"/>
+      <c r="X57" s="86"/>
       <c r="Y57" s="47"/>
-      <c r="Z57" s="94">
+      <c r="Z57" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -14039,53 +14194,53 @@
       <c r="C58" s="24">
         <v>0</v>
       </c>
-      <c r="D58" s="74">
+      <c r="D58" s="73">
         <v>2</v>
       </c>
       <c r="E58" s="24">
         <v>46.38</v>
       </c>
-      <c r="F58" s="74">
+      <c r="F58" s="73">
         <v>1</v>
       </c>
       <c r="G58" s="24">
         <v>37.130000000000003</v>
       </c>
-      <c r="H58" s="74">
+      <c r="H58" s="73">
         <v>1</v>
       </c>
       <c r="I58" s="24">
         <v>27.61</v>
       </c>
-      <c r="J58" s="74">
+      <c r="J58" s="73">
         <v>0</v>
       </c>
       <c r="K58" s="24">
         <v>0</v>
       </c>
-      <c r="L58" s="74">
+      <c r="L58" s="73">
         <v>1</v>
       </c>
       <c r="M58" s="24">
         <v>27.61</v>
       </c>
-      <c r="N58" s="81">
+      <c r="N58" s="80">
         <v>0</v>
       </c>
       <c r="O58" s="32">
         <v>0</v>
       </c>
-      <c r="P58" s="87"/>
+      <c r="P58" s="86"/>
       <c r="Q58" s="32"/>
-      <c r="R58" s="87"/>
+      <c r="R58" s="86"/>
       <c r="S58" s="32"/>
-      <c r="T58" s="87"/>
+      <c r="T58" s="86"/>
       <c r="U58" s="32"/>
-      <c r="V58" s="87"/>
+      <c r="V58" s="86"/>
       <c r="W58" s="32"/>
-      <c r="X58" s="87"/>
+      <c r="X58" s="86"/>
       <c r="Y58" s="47"/>
-      <c r="Z58" s="94">
+      <c r="Z58" s="93">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -14105,53 +14260,53 @@
       <c r="C59" s="24">
         <v>36.24</v>
       </c>
-      <c r="D59" s="74">
+      <c r="D59" s="73">
         <v>0</v>
       </c>
       <c r="E59" s="24">
         <v>0</v>
       </c>
-      <c r="F59" s="74">
+      <c r="F59" s="73">
         <v>2</v>
       </c>
       <c r="G59" s="24">
         <v>45.88</v>
       </c>
-      <c r="H59" s="74">
+      <c r="H59" s="73">
         <v>1</v>
       </c>
       <c r="I59" s="24">
         <v>22.72</v>
       </c>
-      <c r="J59" s="74">
+      <c r="J59" s="73">
         <v>0</v>
       </c>
       <c r="K59" s="24">
         <v>0</v>
       </c>
-      <c r="L59" s="74">
+      <c r="L59" s="73">
         <v>1</v>
       </c>
       <c r="M59" s="24">
         <v>22.96</v>
       </c>
-      <c r="N59" s="81">
+      <c r="N59" s="80">
         <v>50</v>
       </c>
       <c r="O59" s="32">
         <v>1136</v>
       </c>
-      <c r="P59" s="87"/>
+      <c r="P59" s="86"/>
       <c r="Q59" s="32"/>
-      <c r="R59" s="87"/>
+      <c r="R59" s="86"/>
       <c r="S59" s="32"/>
-      <c r="T59" s="87"/>
+      <c r="T59" s="86"/>
       <c r="U59" s="32"/>
-      <c r="V59" s="87"/>
+      <c r="V59" s="86"/>
       <c r="W59" s="32"/>
-      <c r="X59" s="87"/>
+      <c r="X59" s="86"/>
       <c r="Y59" s="47"/>
-      <c r="Z59" s="94">
+      <c r="Z59" s="93">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -14171,53 +14326,53 @@
       <c r="C60" s="24">
         <v>93.56</v>
       </c>
-      <c r="D60" s="74">
+      <c r="D60" s="73">
         <v>0</v>
       </c>
       <c r="E60" s="24">
         <v>0</v>
       </c>
-      <c r="F60" s="74">
+      <c r="F60" s="73">
         <v>0</v>
       </c>
       <c r="G60" s="24">
         <v>0</v>
       </c>
-      <c r="H60" s="74">
+      <c r="H60" s="73">
         <v>0</v>
       </c>
       <c r="I60" s="24">
         <v>0</v>
       </c>
-      <c r="J60" s="74">
+      <c r="J60" s="73">
         <v>0</v>
       </c>
       <c r="K60" s="24">
         <v>0</v>
       </c>
-      <c r="L60" s="74">
+      <c r="L60" s="73">
         <v>0</v>
       </c>
       <c r="M60" s="24">
         <v>0</v>
       </c>
-      <c r="N60" s="81">
+      <c r="N60" s="80">
         <v>0</v>
       </c>
       <c r="O60" s="32">
         <v>0</v>
       </c>
-      <c r="P60" s="87"/>
+      <c r="P60" s="86"/>
       <c r="Q60" s="32"/>
-      <c r="R60" s="87"/>
+      <c r="R60" s="86"/>
       <c r="S60" s="32"/>
-      <c r="T60" s="87"/>
+      <c r="T60" s="86"/>
       <c r="U60" s="32"/>
-      <c r="V60" s="87"/>
+      <c r="V60" s="86"/>
       <c r="W60" s="32"/>
-      <c r="X60" s="87"/>
+      <c r="X60" s="86"/>
       <c r="Y60" s="47"/>
-      <c r="Z60" s="94">
+      <c r="Z60" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -14237,53 +14392,53 @@
       <c r="C61" s="24">
         <v>0</v>
       </c>
-      <c r="D61" s="74">
+      <c r="D61" s="73">
         <v>0</v>
       </c>
       <c r="E61" s="24">
         <v>0</v>
       </c>
-      <c r="F61" s="74">
+      <c r="F61" s="73">
         <v>6</v>
       </c>
       <c r="G61" s="24">
         <v>92.88</v>
       </c>
-      <c r="H61" s="74">
+      <c r="H61" s="73">
         <v>0</v>
       </c>
       <c r="I61" s="24">
         <v>0</v>
       </c>
-      <c r="J61" s="74">
+      <c r="J61" s="73">
         <v>0</v>
       </c>
       <c r="K61" s="24">
         <v>0</v>
       </c>
-      <c r="L61" s="74">
+      <c r="L61" s="73">
         <v>0</v>
       </c>
       <c r="M61" s="24">
         <v>0</v>
       </c>
-      <c r="N61" s="81">
+      <c r="N61" s="80">
         <v>52</v>
       </c>
       <c r="O61" s="32">
         <v>828.36</v>
       </c>
-      <c r="P61" s="87"/>
+      <c r="P61" s="86"/>
       <c r="Q61" s="32"/>
-      <c r="R61" s="87"/>
+      <c r="R61" s="86"/>
       <c r="S61" s="32"/>
-      <c r="T61" s="87"/>
+      <c r="T61" s="86"/>
       <c r="U61" s="32"/>
-      <c r="V61" s="87"/>
+      <c r="V61" s="86"/>
       <c r="W61" s="32"/>
-      <c r="X61" s="87"/>
+      <c r="X61" s="86"/>
       <c r="Y61" s="47"/>
-      <c r="Z61" s="94">
+      <c r="Z61" s="93">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -14303,53 +14458,53 @@
       <c r="C62" s="24">
         <v>0</v>
       </c>
-      <c r="D62" s="74">
+      <c r="D62" s="73">
         <v>0</v>
       </c>
       <c r="E62" s="24">
         <v>0</v>
       </c>
-      <c r="F62" s="74">
+      <c r="F62" s="73">
         <v>0</v>
       </c>
       <c r="G62" s="24">
         <v>0</v>
       </c>
-      <c r="H62" s="74">
+      <c r="H62" s="73">
         <v>3</v>
       </c>
       <c r="I62" s="24">
         <v>101.07</v>
       </c>
-      <c r="J62" s="74">
+      <c r="J62" s="73">
         <v>0</v>
       </c>
       <c r="K62" s="24">
         <v>0</v>
       </c>
-      <c r="L62" s="74">
+      <c r="L62" s="73">
         <v>0</v>
       </c>
       <c r="M62" s="24">
         <v>0</v>
       </c>
-      <c r="N62" s="81">
+      <c r="N62" s="80">
         <v>0</v>
       </c>
       <c r="O62" s="32">
         <v>0</v>
       </c>
-      <c r="P62" s="87"/>
+      <c r="P62" s="86"/>
       <c r="Q62" s="32"/>
-      <c r="R62" s="87"/>
+      <c r="R62" s="86"/>
       <c r="S62" s="32"/>
-      <c r="T62" s="87"/>
+      <c r="T62" s="86"/>
       <c r="U62" s="32"/>
-      <c r="V62" s="87"/>
+      <c r="V62" s="86"/>
       <c r="W62" s="32"/>
-      <c r="X62" s="87"/>
+      <c r="X62" s="86"/>
       <c r="Y62" s="47"/>
-      <c r="Z62" s="94">
+      <c r="Z62" s="93">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -14369,53 +14524,53 @@
       <c r="C63" s="24">
         <v>0</v>
       </c>
-      <c r="D63" s="74">
+      <c r="D63" s="73">
         <v>0</v>
       </c>
       <c r="E63" s="24">
         <v>0</v>
       </c>
-      <c r="F63" s="74">
+      <c r="F63" s="73">
         <v>0</v>
       </c>
       <c r="G63" s="24">
         <v>0</v>
       </c>
-      <c r="H63" s="74">
+      <c r="H63" s="73">
         <v>0</v>
       </c>
       <c r="I63" s="24">
         <v>0</v>
       </c>
-      <c r="J63" s="74">
+      <c r="J63" s="73">
         <v>1</v>
       </c>
       <c r="K63" s="24">
         <v>16.190000000000001</v>
       </c>
-      <c r="L63" s="74">
+      <c r="L63" s="73">
         <v>0</v>
       </c>
       <c r="M63" s="24">
         <v>0</v>
       </c>
-      <c r="N63" s="81">
+      <c r="N63" s="80">
         <v>0</v>
       </c>
       <c r="O63" s="32">
         <v>0</v>
       </c>
-      <c r="P63" s="87"/>
+      <c r="P63" s="86"/>
       <c r="Q63" s="32"/>
-      <c r="R63" s="87"/>
+      <c r="R63" s="86"/>
       <c r="S63" s="32"/>
-      <c r="T63" s="87"/>
+      <c r="T63" s="86"/>
       <c r="U63" s="32"/>
-      <c r="V63" s="87"/>
+      <c r="V63" s="86"/>
       <c r="W63" s="32"/>
-      <c r="X63" s="87"/>
+      <c r="X63" s="86"/>
       <c r="Y63" s="47"/>
-      <c r="Z63" s="94">
+      <c r="Z63" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -14435,53 +14590,53 @@
       <c r="C64" s="24">
         <v>0</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="73">
         <v>0</v>
       </c>
       <c r="E64" s="24">
         <v>0</v>
       </c>
-      <c r="F64" s="74">
+      <c r="F64" s="73">
         <v>0</v>
       </c>
       <c r="G64" s="24">
         <v>0</v>
       </c>
-      <c r="H64" s="74">
+      <c r="H64" s="73">
         <v>0</v>
       </c>
       <c r="I64" s="24">
         <v>0</v>
       </c>
-      <c r="J64" s="74">
+      <c r="J64" s="73">
         <v>0</v>
       </c>
       <c r="K64" s="24">
         <v>0</v>
       </c>
-      <c r="L64" s="74">
+      <c r="L64" s="73">
         <v>1</v>
       </c>
       <c r="M64" s="24">
         <v>54.31</v>
       </c>
-      <c r="N64" s="81">
+      <c r="N64" s="80">
         <v>0</v>
       </c>
       <c r="O64" s="32">
         <v>0</v>
       </c>
-      <c r="P64" s="87"/>
+      <c r="P64" s="86"/>
       <c r="Q64" s="32"/>
-      <c r="R64" s="87"/>
+      <c r="R64" s="86"/>
       <c r="S64" s="32"/>
-      <c r="T64" s="87"/>
+      <c r="T64" s="86"/>
       <c r="U64" s="32"/>
-      <c r="V64" s="87"/>
+      <c r="V64" s="86"/>
       <c r="W64" s="32"/>
-      <c r="X64" s="87"/>
+      <c r="X64" s="86"/>
       <c r="Y64" s="47"/>
-      <c r="Z64" s="94">
+      <c r="Z64" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -14501,53 +14656,53 @@
       <c r="C65" s="24">
         <v>170.82</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="73">
         <v>10</v>
       </c>
       <c r="E65" s="24">
         <v>195.61</v>
       </c>
-      <c r="F65" s="74">
+      <c r="F65" s="73">
         <v>51</v>
       </c>
       <c r="G65" s="24">
         <v>1123.08</v>
       </c>
-      <c r="H65" s="74">
+      <c r="H65" s="73">
         <v>25</v>
       </c>
       <c r="I65" s="24">
         <v>538.94000000000005</v>
       </c>
-      <c r="J65" s="74">
+      <c r="J65" s="73">
         <v>10</v>
       </c>
       <c r="K65" s="24">
         <v>212.75</v>
       </c>
-      <c r="L65" s="74">
+      <c r="L65" s="73">
         <v>5</v>
       </c>
       <c r="M65" s="24">
         <v>94.26</v>
       </c>
-      <c r="N65" s="81">
+      <c r="N65" s="80">
         <v>5</v>
       </c>
       <c r="O65" s="32">
         <v>107.44</v>
       </c>
-      <c r="P65" s="87"/>
+      <c r="P65" s="86"/>
       <c r="Q65" s="32"/>
-      <c r="R65" s="87"/>
+      <c r="R65" s="86"/>
       <c r="S65" s="32"/>
-      <c r="T65" s="87"/>
+      <c r="T65" s="86"/>
       <c r="U65" s="32"/>
-      <c r="V65" s="87"/>
+      <c r="V65" s="86"/>
       <c r="W65" s="32"/>
-      <c r="X65" s="87"/>
+      <c r="X65" s="86"/>
       <c r="Y65" s="47"/>
-      <c r="Z65" s="94">
+      <c r="Z65" s="93">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -14567,53 +14722,53 @@
       <c r="C66" s="24">
         <v>0</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="73">
         <v>0</v>
       </c>
       <c r="E66" s="24">
         <v>0</v>
       </c>
-      <c r="F66" s="74">
+      <c r="F66" s="73">
         <v>0</v>
       </c>
       <c r="G66" s="24">
         <v>0</v>
       </c>
-      <c r="H66" s="74">
+      <c r="H66" s="73">
         <v>0</v>
       </c>
       <c r="I66" s="24">
         <v>0</v>
       </c>
-      <c r="J66" s="74">
+      <c r="J66" s="73">
         <v>0</v>
       </c>
       <c r="K66" s="24">
         <v>0</v>
       </c>
-      <c r="L66" s="74">
+      <c r="L66" s="73">
         <v>40</v>
       </c>
       <c r="M66" s="24">
         <v>1692</v>
       </c>
-      <c r="N66" s="81">
+      <c r="N66" s="80">
         <v>0</v>
       </c>
       <c r="O66" s="32">
         <v>0</v>
       </c>
-      <c r="P66" s="87"/>
+      <c r="P66" s="86"/>
       <c r="Q66" s="32"/>
-      <c r="R66" s="87"/>
+      <c r="R66" s="86"/>
       <c r="S66" s="32"/>
-      <c r="T66" s="87"/>
+      <c r="T66" s="86"/>
       <c r="U66" s="32"/>
-      <c r="V66" s="87"/>
+      <c r="V66" s="86"/>
       <c r="W66" s="32"/>
-      <c r="X66" s="87"/>
+      <c r="X66" s="86"/>
       <c r="Y66" s="47"/>
-      <c r="Z66" s="94">
+      <c r="Z66" s="93">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -14633,53 +14788,53 @@
       <c r="C67" s="24">
         <v>109.45</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="73">
         <v>2</v>
       </c>
       <c r="E67" s="24">
         <v>41.28</v>
       </c>
-      <c r="F67" s="74">
+      <c r="F67" s="73">
         <v>18</v>
       </c>
       <c r="G67" s="24">
         <v>383.88</v>
       </c>
-      <c r="H67" s="74">
+      <c r="H67" s="73">
         <v>3</v>
       </c>
       <c r="I67" s="24">
         <v>61.92</v>
       </c>
-      <c r="J67" s="74">
+      <c r="J67" s="73">
         <v>1</v>
       </c>
       <c r="K67" s="24">
         <v>20.64</v>
       </c>
-      <c r="L67" s="74">
+      <c r="L67" s="73">
         <v>9</v>
       </c>
       <c r="M67" s="24">
         <v>189.3</v>
       </c>
-      <c r="N67" s="81">
+      <c r="N67" s="80">
         <v>5</v>
       </c>
       <c r="O67" s="32">
         <v>104.97</v>
       </c>
-      <c r="P67" s="87"/>
+      <c r="P67" s="86"/>
       <c r="Q67" s="32"/>
-      <c r="R67" s="87"/>
+      <c r="R67" s="86"/>
       <c r="S67" s="32"/>
-      <c r="T67" s="87"/>
+      <c r="T67" s="86"/>
       <c r="U67" s="32"/>
-      <c r="V67" s="87"/>
+      <c r="V67" s="86"/>
       <c r="W67" s="32"/>
-      <c r="X67" s="87"/>
+      <c r="X67" s="86"/>
       <c r="Y67" s="47"/>
-      <c r="Z67" s="94">
+      <c r="Z67" s="93">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -14699,53 +14854,53 @@
       <c r="C68" s="24">
         <v>45.29</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="73">
         <v>0</v>
       </c>
       <c r="E68" s="24">
         <v>0</v>
       </c>
-      <c r="F68" s="74">
+      <c r="F68" s="73">
         <v>0</v>
       </c>
       <c r="G68" s="24">
         <v>0</v>
       </c>
-      <c r="H68" s="74">
+      <c r="H68" s="73">
         <v>0</v>
       </c>
       <c r="I68" s="24">
         <v>0</v>
       </c>
-      <c r="J68" s="74">
+      <c r="J68" s="73">
         <v>0</v>
       </c>
       <c r="K68" s="24">
         <v>0</v>
       </c>
-      <c r="L68" s="74">
+      <c r="L68" s="73">
         <v>0</v>
       </c>
       <c r="M68" s="24">
         <v>0</v>
       </c>
-      <c r="N68" s="81">
+      <c r="N68" s="80">
         <v>0</v>
       </c>
       <c r="O68" s="32">
         <v>0</v>
       </c>
-      <c r="P68" s="87"/>
+      <c r="P68" s="86"/>
       <c r="Q68" s="32"/>
-      <c r="R68" s="87"/>
+      <c r="R68" s="86"/>
       <c r="S68" s="32"/>
-      <c r="T68" s="87"/>
+      <c r="T68" s="86"/>
       <c r="U68" s="32"/>
-      <c r="V68" s="87"/>
+      <c r="V68" s="86"/>
       <c r="W68" s="32"/>
-      <c r="X68" s="87"/>
+      <c r="X68" s="86"/>
       <c r="Y68" s="47"/>
-      <c r="Z68" s="94">
+      <c r="Z68" s="93">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -14765,53 +14920,53 @@
       <c r="C69" s="24">
         <v>0</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="73">
         <v>0</v>
       </c>
       <c r="E69" s="24">
         <v>0</v>
       </c>
-      <c r="F69" s="74">
+      <c r="F69" s="73">
         <v>0</v>
       </c>
       <c r="G69" s="24">
         <v>0</v>
       </c>
-      <c r="H69" s="74">
+      <c r="H69" s="73">
         <v>0</v>
       </c>
       <c r="I69" s="24">
         <v>0</v>
       </c>
-      <c r="J69" s="74">
+      <c r="J69" s="73">
         <v>0</v>
       </c>
       <c r="K69" s="24">
         <v>0</v>
       </c>
-      <c r="L69" s="74">
+      <c r="L69" s="73">
         <v>16</v>
       </c>
       <c r="M69" s="24">
         <v>678.88</v>
       </c>
-      <c r="N69" s="81">
+      <c r="N69" s="80">
         <v>0</v>
       </c>
       <c r="O69" s="32">
         <v>0</v>
       </c>
-      <c r="P69" s="87"/>
+      <c r="P69" s="86"/>
       <c r="Q69" s="32"/>
-      <c r="R69" s="87"/>
+      <c r="R69" s="86"/>
       <c r="S69" s="32"/>
-      <c r="T69" s="87"/>
+      <c r="T69" s="86"/>
       <c r="U69" s="32"/>
-      <c r="V69" s="87"/>
+      <c r="V69" s="86"/>
       <c r="W69" s="32"/>
-      <c r="X69" s="87"/>
+      <c r="X69" s="86"/>
       <c r="Y69" s="47"/>
-      <c r="Z69" s="94">
+      <c r="Z69" s="93">
         <f t="shared" ref="Z69:AA78" si="3">SUM(B69,D69,F69,H69,J69,L69,N69,P69,R69,T69,V69,X69)</f>
         <v>16</v>
       </c>
@@ -14831,53 +14986,53 @@
       <c r="C70" s="24">
         <v>0</v>
       </c>
-      <c r="D70" s="74">
+      <c r="D70" s="73">
         <v>0</v>
       </c>
       <c r="E70" s="24">
         <v>0</v>
       </c>
-      <c r="F70" s="74">
+      <c r="F70" s="73">
         <v>0</v>
       </c>
       <c r="G70" s="24">
         <v>0</v>
       </c>
-      <c r="H70" s="74">
+      <c r="H70" s="73">
         <v>5</v>
       </c>
       <c r="I70" s="24">
         <v>224.75</v>
       </c>
-      <c r="J70" s="74">
+      <c r="J70" s="73">
         <v>0</v>
       </c>
       <c r="K70" s="24">
         <v>0</v>
       </c>
-      <c r="L70" s="74">
+      <c r="L70" s="73">
         <v>0</v>
       </c>
       <c r="M70" s="24">
         <v>0</v>
       </c>
-      <c r="N70" s="82">
+      <c r="N70" s="81">
         <v>0</v>
       </c>
       <c r="O70" s="34">
         <v>0</v>
       </c>
-      <c r="P70" s="88"/>
+      <c r="P70" s="87"/>
       <c r="Q70" s="34"/>
-      <c r="R70" s="88"/>
+      <c r="R70" s="87"/>
       <c r="S70" s="34"/>
-      <c r="T70" s="88"/>
+      <c r="T70" s="87"/>
       <c r="U70" s="34"/>
-      <c r="V70" s="88"/>
+      <c r="V70" s="87"/>
       <c r="W70" s="34"/>
-      <c r="X70" s="88"/>
+      <c r="X70" s="87"/>
       <c r="Y70" s="48"/>
-      <c r="Z70" s="94">
+      <c r="Z70" s="93">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -14897,53 +15052,53 @@
       <c r="C71" s="24">
         <v>98.56</v>
       </c>
-      <c r="D71" s="74">
+      <c r="D71" s="73">
         <v>0</v>
       </c>
       <c r="E71" s="24">
         <v>0</v>
       </c>
-      <c r="F71" s="74">
+      <c r="F71" s="73">
         <v>0</v>
       </c>
       <c r="G71" s="24">
         <v>0</v>
       </c>
-      <c r="H71" s="74">
+      <c r="H71" s="73">
         <v>2</v>
       </c>
       <c r="I71" s="24">
         <v>65.38</v>
       </c>
-      <c r="J71" s="74">
+      <c r="J71" s="73">
         <v>2</v>
       </c>
       <c r="K71" s="24">
         <v>65.38</v>
       </c>
-      <c r="L71" s="74">
+      <c r="L71" s="73">
         <v>0</v>
       </c>
       <c r="M71" s="24">
         <v>0</v>
       </c>
-      <c r="N71" s="83">
-        <v>0</v>
-      </c>
-      <c r="O71" s="58">
-        <v>0</v>
-      </c>
-      <c r="P71" s="89"/>
+      <c r="N71" s="82">
+        <v>0</v>
+      </c>
+      <c r="O71" s="57">
+        <v>0</v>
+      </c>
+      <c r="P71" s="88"/>
       <c r="Q71" s="42"/>
-      <c r="R71" s="89"/>
+      <c r="R71" s="88"/>
       <c r="S71" s="42"/>
-      <c r="T71" s="89"/>
+      <c r="T71" s="88"/>
       <c r="U71" s="42"/>
-      <c r="V71" s="89"/>
+      <c r="V71" s="88"/>
       <c r="W71" s="42"/>
-      <c r="X71" s="89"/>
+      <c r="X71" s="88"/>
       <c r="Y71" s="49"/>
-      <c r="Z71" s="94">
+      <c r="Z71" s="93">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -14962,53 +15117,53 @@
       <c r="C72" s="24">
         <v>375.42</v>
       </c>
-      <c r="D72" s="74">
+      <c r="D72" s="73">
         <v>11</v>
       </c>
       <c r="E72" s="24">
         <v>258.43</v>
       </c>
-      <c r="F72" s="74">
+      <c r="F72" s="73">
         <v>24</v>
       </c>
       <c r="G72" s="24">
         <v>560.09</v>
       </c>
-      <c r="H72" s="74">
+      <c r="H72" s="73">
         <v>3</v>
       </c>
       <c r="I72" s="24">
         <v>76.03</v>
       </c>
-      <c r="J72" s="74">
+      <c r="J72" s="73">
         <v>2</v>
       </c>
       <c r="K72" s="24">
         <v>46.74</v>
       </c>
-      <c r="L72" s="74">
+      <c r="L72" s="73">
         <v>22</v>
       </c>
       <c r="M72" s="24">
         <v>556.36</v>
       </c>
-      <c r="N72" s="84">
+      <c r="N72" s="83">
         <v>37</v>
       </c>
       <c r="O72" s="16">
         <v>881.65</v>
       </c>
-      <c r="P72" s="90"/>
+      <c r="P72" s="89"/>
       <c r="Q72" s="16"/>
-      <c r="R72" s="90"/>
+      <c r="R72" s="89"/>
       <c r="S72" s="16"/>
-      <c r="T72" s="90"/>
+      <c r="T72" s="89"/>
       <c r="U72" s="16"/>
-      <c r="V72" s="90"/>
+      <c r="V72" s="89"/>
       <c r="W72" s="16"/>
-      <c r="X72" s="90"/>
-      <c r="Y72" s="56"/>
-      <c r="Z72" s="94">
+      <c r="X72" s="89"/>
+      <c r="Y72" s="55"/>
+      <c r="Z72" s="93">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
@@ -15027,53 +15182,53 @@
       <c r="C73" s="24">
         <v>23.35</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D73" s="73">
         <v>1</v>
       </c>
       <c r="E73" s="24">
         <v>25.71</v>
       </c>
-      <c r="F73" s="74">
+      <c r="F73" s="73">
         <v>0</v>
       </c>
       <c r="G73" s="24">
         <v>0</v>
       </c>
-      <c r="H73" s="74">
+      <c r="H73" s="73">
         <v>2</v>
       </c>
       <c r="I73" s="24">
         <v>46.7</v>
       </c>
-      <c r="J73" s="74">
+      <c r="J73" s="73">
         <v>0</v>
       </c>
       <c r="K73" s="24">
         <v>0</v>
       </c>
-      <c r="L73" s="74">
+      <c r="L73" s="73">
         <v>5</v>
       </c>
       <c r="M73" s="24">
         <v>133.07</v>
       </c>
-      <c r="N73" s="84">
+      <c r="N73" s="83">
         <v>8</v>
       </c>
       <c r="O73" s="16">
         <v>201.65</v>
       </c>
-      <c r="P73" s="90"/>
+      <c r="P73" s="89"/>
       <c r="Q73" s="16"/>
-      <c r="R73" s="90"/>
+      <c r="R73" s="89"/>
       <c r="S73" s="16"/>
-      <c r="T73" s="90"/>
+      <c r="T73" s="89"/>
       <c r="U73" s="16"/>
-      <c r="V73" s="90"/>
+      <c r="V73" s="89"/>
       <c r="W73" s="16"/>
-      <c r="X73" s="90"/>
-      <c r="Y73" s="56"/>
-      <c r="Z73" s="94">
+      <c r="X73" s="89"/>
+      <c r="Y73" s="55"/>
+      <c r="Z73" s="93">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
@@ -15092,53 +15247,53 @@
       <c r="C74" s="24">
         <v>0</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="73">
         <v>1</v>
       </c>
       <c r="E74" s="24">
         <v>24.52</v>
       </c>
-      <c r="F74" s="74">
+      <c r="F74" s="73">
         <v>0</v>
       </c>
       <c r="G74" s="24">
         <v>0</v>
       </c>
-      <c r="H74" s="74">
+      <c r="H74" s="73">
         <v>0</v>
       </c>
       <c r="I74" s="24">
         <v>0</v>
       </c>
-      <c r="J74" s="74">
+      <c r="J74" s="73">
         <v>0</v>
       </c>
       <c r="K74" s="24">
         <v>0</v>
       </c>
-      <c r="L74" s="74">
+      <c r="L74" s="73">
         <v>4</v>
       </c>
       <c r="M74" s="24">
         <v>98.08</v>
       </c>
-      <c r="N74" s="84">
+      <c r="N74" s="83">
         <v>0</v>
       </c>
       <c r="O74" s="16">
         <v>0</v>
       </c>
-      <c r="P74" s="90"/>
+      <c r="P74" s="89"/>
       <c r="Q74" s="16"/>
-      <c r="R74" s="90"/>
+      <c r="R74" s="89"/>
       <c r="S74" s="16"/>
-      <c r="T74" s="90"/>
+      <c r="T74" s="89"/>
       <c r="U74" s="16"/>
-      <c r="V74" s="90"/>
+      <c r="V74" s="89"/>
       <c r="W74" s="16"/>
-      <c r="X74" s="90"/>
-      <c r="Y74" s="56"/>
-      <c r="Z74" s="94">
+      <c r="X74" s="89"/>
+      <c r="Y74" s="55"/>
+      <c r="Z74" s="93">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -15157,53 +15312,53 @@
       <c r="C75" s="24">
         <v>0</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D75" s="73">
         <v>7</v>
       </c>
       <c r="E75" s="24">
         <v>174.73</v>
       </c>
-      <c r="F75" s="74">
+      <c r="F75" s="73">
         <v>0</v>
       </c>
       <c r="G75" s="24">
         <v>0</v>
       </c>
-      <c r="H75" s="74">
+      <c r="H75" s="73">
         <v>2</v>
       </c>
       <c r="I75" s="24">
         <v>56.3</v>
       </c>
-      <c r="J75" s="74">
+      <c r="J75" s="73">
         <v>2</v>
       </c>
       <c r="K75" s="24">
         <v>54.26</v>
       </c>
-      <c r="L75" s="74">
+      <c r="L75" s="73">
         <v>2</v>
       </c>
       <c r="M75" s="24">
         <v>55.28</v>
       </c>
-      <c r="N75" s="84">
+      <c r="N75" s="83">
         <v>0</v>
       </c>
       <c r="O75" s="16">
         <v>0</v>
       </c>
-      <c r="P75" s="90"/>
+      <c r="P75" s="89"/>
       <c r="Q75" s="16"/>
-      <c r="R75" s="90"/>
+      <c r="R75" s="89"/>
       <c r="S75" s="16"/>
-      <c r="T75" s="90"/>
+      <c r="T75" s="89"/>
       <c r="U75" s="16"/>
-      <c r="V75" s="90"/>
+      <c r="V75" s="89"/>
       <c r="W75" s="16"/>
-      <c r="X75" s="90"/>
-      <c r="Y75" s="56"/>
-      <c r="Z75" s="94">
+      <c r="X75" s="89"/>
+      <c r="Y75" s="55"/>
+      <c r="Z75" s="93">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -15222,53 +15377,53 @@
       <c r="C76" s="24">
         <v>0</v>
       </c>
-      <c r="D76" s="74">
+      <c r="D76" s="73">
         <v>0</v>
       </c>
       <c r="E76" s="24">
         <v>0</v>
       </c>
-      <c r="F76" s="74">
+      <c r="F76" s="73">
         <v>0</v>
       </c>
       <c r="G76" s="24">
         <v>0</v>
       </c>
-      <c r="H76" s="74">
+      <c r="H76" s="73">
         <v>0</v>
       </c>
       <c r="I76" s="24">
         <v>0</v>
       </c>
-      <c r="J76" s="74">
+      <c r="J76" s="73">
         <v>0</v>
       </c>
       <c r="K76" s="24">
         <v>0</v>
       </c>
-      <c r="L76" s="74">
+      <c r="L76" s="73">
         <v>4</v>
       </c>
       <c r="M76" s="24">
         <v>169.2</v>
       </c>
-      <c r="N76" s="84">
+      <c r="N76" s="83">
         <v>0</v>
       </c>
       <c r="O76" s="16">
         <v>0</v>
       </c>
-      <c r="P76" s="90"/>
+      <c r="P76" s="89"/>
       <c r="Q76" s="16"/>
-      <c r="R76" s="90"/>
+      <c r="R76" s="89"/>
       <c r="S76" s="16"/>
-      <c r="T76" s="90"/>
+      <c r="T76" s="89"/>
       <c r="U76" s="16"/>
-      <c r="V76" s="90"/>
+      <c r="V76" s="89"/>
       <c r="W76" s="16"/>
-      <c r="X76" s="90"/>
-      <c r="Y76" s="56"/>
-      <c r="Z76" s="94">
+      <c r="X76" s="89"/>
+      <c r="Y76" s="55"/>
+      <c r="Z76" s="93">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -15287,53 +15442,53 @@
       <c r="C77" s="24">
         <v>61.74</v>
       </c>
-      <c r="D77" s="74">
+      <c r="D77" s="73">
         <v>11</v>
       </c>
       <c r="E77" s="24">
         <v>223.52</v>
       </c>
-      <c r="F77" s="74">
+      <c r="F77" s="73">
         <v>10</v>
       </c>
       <c r="G77" s="24">
         <v>196.4</v>
       </c>
-      <c r="H77" s="74">
+      <c r="H77" s="73">
         <v>2</v>
       </c>
       <c r="I77" s="24">
         <v>39.28</v>
       </c>
-      <c r="J77" s="74">
+      <c r="J77" s="73">
         <v>0</v>
       </c>
       <c r="K77" s="24">
         <v>0</v>
       </c>
-      <c r="L77" s="74">
+      <c r="L77" s="73">
         <v>2</v>
       </c>
       <c r="M77" s="24">
         <v>39.28</v>
       </c>
-      <c r="N77" s="84">
+      <c r="N77" s="83">
         <v>0</v>
       </c>
       <c r="O77" s="16">
         <v>0</v>
       </c>
-      <c r="P77" s="90"/>
+      <c r="P77" s="89"/>
       <c r="Q77" s="16"/>
-      <c r="R77" s="90"/>
+      <c r="R77" s="89"/>
       <c r="S77" s="16"/>
-      <c r="T77" s="90"/>
+      <c r="T77" s="89"/>
       <c r="U77" s="16"/>
-      <c r="V77" s="90"/>
+      <c r="V77" s="89"/>
       <c r="W77" s="16"/>
-      <c r="X77" s="90"/>
-      <c r="Y77" s="56"/>
-      <c r="Z77" s="94">
+      <c r="X77" s="89"/>
+      <c r="Y77" s="55"/>
+      <c r="Z77" s="93">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -15352,53 +15507,53 @@
       <c r="C78" s="25">
         <v>0</v>
       </c>
-      <c r="D78" s="75">
+      <c r="D78" s="74">
         <v>0</v>
       </c>
       <c r="E78" s="25">
         <v>0</v>
       </c>
-      <c r="F78" s="75">
+      <c r="F78" s="74">
         <v>4</v>
       </c>
       <c r="G78" s="25">
         <v>198.96</v>
       </c>
-      <c r="H78" s="75">
+      <c r="H78" s="74">
         <v>0</v>
       </c>
       <c r="I78" s="25">
         <v>0</v>
       </c>
-      <c r="J78" s="75">
+      <c r="J78" s="74">
         <v>0</v>
       </c>
       <c r="K78" s="25">
         <v>0</v>
       </c>
-      <c r="L78" s="75">
+      <c r="L78" s="74">
         <v>0</v>
       </c>
       <c r="M78" s="25">
         <v>0</v>
       </c>
-      <c r="N78" s="85">
+      <c r="N78" s="84">
         <v>0</v>
       </c>
       <c r="O78" s="37">
         <v>0</v>
       </c>
-      <c r="P78" s="91"/>
+      <c r="P78" s="90"/>
       <c r="Q78" s="37"/>
-      <c r="R78" s="91"/>
+      <c r="R78" s="90"/>
       <c r="S78" s="37"/>
-      <c r="T78" s="91"/>
+      <c r="T78" s="90"/>
       <c r="U78" s="37"/>
-      <c r="V78" s="91"/>
+      <c r="V78" s="90"/>
       <c r="W78" s="37"/>
-      <c r="X78" s="91"/>
-      <c r="Y78" s="59"/>
-      <c r="Z78" s="95">
+      <c r="X78" s="90"/>
+      <c r="Y78" s="58"/>
+      <c r="Z78" s="94">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -15408,62 +15563,62 @@
       </c>
     </row>
     <row r="79" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="60">
-        <v>0</v>
-      </c>
-      <c r="C79" s="71">
-        <v>0</v>
-      </c>
-      <c r="D79" s="76">
-        <v>0</v>
-      </c>
-      <c r="E79" s="71">
-        <v>0</v>
-      </c>
-      <c r="F79" s="76">
+      <c r="B79" s="59">
+        <v>0</v>
+      </c>
+      <c r="C79" s="70">
+        <v>0</v>
+      </c>
+      <c r="D79" s="75">
+        <v>0</v>
+      </c>
+      <c r="E79" s="70">
+        <v>0</v>
+      </c>
+      <c r="F79" s="75">
         <v>4</v>
       </c>
-      <c r="G79" s="71">
+      <c r="G79" s="70">
         <v>198.96</v>
       </c>
-      <c r="H79" s="76">
-        <v>0</v>
-      </c>
-      <c r="I79" s="71">
-        <v>0</v>
-      </c>
-      <c r="J79" s="76">
-        <v>0</v>
-      </c>
-      <c r="K79" s="71">
-        <v>0</v>
-      </c>
-      <c r="L79" s="76">
-        <v>0</v>
-      </c>
-      <c r="M79" s="71">
-        <v>0</v>
-      </c>
-      <c r="N79" s="76">
-        <v>0</v>
-      </c>
-      <c r="O79" s="60">
-        <v>0</v>
-      </c>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="60"/>
-      <c r="R79" s="76"/>
-      <c r="S79" s="60"/>
-      <c r="T79" s="76"/>
-      <c r="U79" s="60"/>
-      <c r="V79" s="76"/>
-      <c r="W79" s="60"/>
-      <c r="X79" s="76"/>
-      <c r="Y79" s="60"/>
-      <c r="Z79" s="95">
+      <c r="H79" s="75">
+        <v>0</v>
+      </c>
+      <c r="I79" s="70">
+        <v>0</v>
+      </c>
+      <c r="J79" s="75">
+        <v>0</v>
+      </c>
+      <c r="K79" s="70">
+        <v>0</v>
+      </c>
+      <c r="L79" s="75">
+        <v>0</v>
+      </c>
+      <c r="M79" s="70">
+        <v>0</v>
+      </c>
+      <c r="N79" s="75">
+        <v>0</v>
+      </c>
+      <c r="O79" s="59">
+        <v>0</v>
+      </c>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="75"/>
+      <c r="U79" s="59"/>
+      <c r="V79" s="75"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="75"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="94">
         <f t="shared" ref="Z79" si="4">SUM(B79,D79,F79,H79,J79,L79,N79,P79,R79,T79,V79,X79)</f>
         <v>4</v>
       </c>
@@ -15484,7 +15639,7 @@
         <f>SUM(C4:C79)</f>
         <v>6859.5499999999993</v>
       </c>
-      <c r="D80" s="77">
+      <c r="D80" s="76">
         <f t="shared" ref="D80:O80" si="6">SUM(D4:D79)</f>
         <v>208</v>
       </c>
@@ -15492,7 +15647,7 @@
         <f t="shared" si="6"/>
         <v>5198.9299999999994</v>
       </c>
-      <c r="F80" s="77">
+      <c r="F80" s="76">
         <f t="shared" si="6"/>
         <v>401</v>
       </c>
@@ -15500,7 +15655,7 @@
         <f t="shared" si="6"/>
         <v>10940.779999999997</v>
       </c>
-      <c r="H80" s="77">
+      <c r="H80" s="76">
         <f t="shared" si="6"/>
         <v>222</v>
       </c>
@@ -15508,7 +15663,7 @@
         <f t="shared" si="6"/>
         <v>6161.5499999999984</v>
       </c>
-      <c r="J80" s="77">
+      <c r="J80" s="76">
         <f t="shared" si="6"/>
         <v>176</v>
       </c>
@@ -15516,7 +15671,7 @@
         <f t="shared" si="6"/>
         <v>5771.8099999999995</v>
       </c>
-      <c r="L80" s="77">
+      <c r="L80" s="76">
         <f t="shared" si="6"/>
         <v>277</v>
       </c>
@@ -15524,7 +15679,7 @@
         <f t="shared" si="6"/>
         <v>11139.23</v>
       </c>
-      <c r="N80" s="77">
+      <c r="N80" s="76">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
@@ -15532,13 +15687,13 @@
         <f t="shared" si="6"/>
         <v>7540.2599999999993</v>
       </c>
-      <c r="P80" s="77">
+      <c r="P80" s="76">
         <v>215</v>
       </c>
       <c r="Q80" s="29">
         <v>6048.51</v>
       </c>
-      <c r="R80" s="77">
+      <c r="R80" s="76">
         <f t="shared" ref="R80" si="7">SUM(R4:R79)</f>
         <v>0</v>
       </c>
@@ -15546,7 +15701,7 @@
         <f t="shared" ref="S80" si="8">SUM(S4:S79)</f>
         <v>0</v>
       </c>
-      <c r="T80" s="77">
+      <c r="T80" s="76">
         <f t="shared" ref="T80" si="9">SUM(T4:T79)</f>
         <v>0</v>
       </c>
@@ -15554,7 +15709,7 @@
         <f t="shared" ref="U80" si="10">SUM(U4:U79)</f>
         <v>0</v>
       </c>
-      <c r="V80" s="77">
+      <c r="V80" s="76">
         <f t="shared" ref="V80" si="11">SUM(V4:V79)</f>
         <v>0</v>
       </c>
@@ -15562,7 +15717,7 @@
         <f t="shared" ref="W80" si="12">SUM(W4:W79)</f>
         <v>0</v>
       </c>
-      <c r="X80" s="77">
+      <c r="X80" s="76">
         <f t="shared" ref="X80" si="13">SUM(X4:X79)</f>
         <v>0</v>
       </c>
@@ -15570,7 +15725,7 @@
         <f t="shared" ref="Y80" si="14">SUM(Y4:Y79)</f>
         <v>0</v>
       </c>
-      <c r="Z80" s="77">
+      <c r="Z80" s="76">
         <f t="shared" ref="Z80" si="15">SUM(Z4:Z79)</f>
         <v>1819</v>
       </c>
@@ -15580,164 +15735,170 @@
       </c>
     </row>
     <row r="81" spans="3:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="Z81" s="79"/>
+      <c r="Z81" s="78"/>
     </row>
     <row r="82" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Z82" s="79"/>
+      <c r="Z82" s="78"/>
     </row>
     <row r="83" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Z83" s="79"/>
+      <c r="Z83" s="78"/>
     </row>
     <row r="84" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C84" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="77" t="s">
         <v>1</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="78" t="s">
+      <c r="F84" s="77" t="s">
         <v>170</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="Z84" s="79"/>
+      <c r="Z84" s="78"/>
     </row>
     <row r="85" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C85" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="78">
+      <c r="D85" s="77">
         <v>170</v>
       </c>
       <c r="G85" s="28">
         <v>5566</v>
       </c>
-      <c r="Z85" s="79"/>
+      <c r="Z85" s="78"/>
     </row>
     <row r="86" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C86" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="109">
+      <c r="D86" s="108">
         <v>160</v>
       </c>
-      <c r="G86" s="110">
+      <c r="G86" s="109">
         <v>4824.1032999999979</v>
       </c>
-      <c r="Z86" s="79"/>
+      <c r="Z86" s="78"/>
     </row>
     <row r="87" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="113">
+      <c r="D87" s="112">
         <v>177</v>
       </c>
-      <c r="G87" s="114">
+      <c r="G87" s="113">
         <v>5551.21</v>
       </c>
-      <c r="Z87" s="79"/>
-    </row>
-    <row r="88" spans="3:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z87" s="78"/>
+    </row>
+    <row r="88" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="112">
+      <c r="D88" s="111">
         <v>89</v>
       </c>
-      <c r="G88" s="111">
+      <c r="G88" s="110">
         <v>2546.2986000000001</v>
       </c>
-      <c r="Z88" s="79"/>
-    </row>
-    <row r="89" spans="3:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z88" s="78"/>
+    </row>
+    <row r="89" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C89" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="55"/>
+      <c r="D89" s="118">
+        <v>708</v>
+      </c>
+      <c r="E89" s="119"/>
+      <c r="G89" s="119">
+        <v>18482.002699999994</v>
+      </c>
       <c r="I89" s="40"/>
-      <c r="Z89" s="79"/>
-    </row>
-    <row r="90" spans="3:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Z89" s="78"/>
+    </row>
+    <row r="90" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C90" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Z90" s="79"/>
+      <c r="Z90" s="78"/>
     </row>
     <row r="91" spans="3:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Z91" s="79"/>
+      <c r="Z91" s="78"/>
     </row>
     <row r="92" spans="3:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D92" s="77"/>
+      <c r="D92" s="76"/>
       <c r="G92" s="29"/>
-      <c r="Z92" s="79"/>
+      <c r="Z92" s="78"/>
     </row>
     <row r="93" spans="3:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C93" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Z93" s="79"/>
+      <c r="Z93" s="78"/>
     </row>
     <row r="94" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C94" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="103"/>
-      <c r="E94" s="104"/>
-      <c r="G94" s="104"/>
-      <c r="Z94" s="79"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="Z94" s="78"/>
     </row>
     <row r="95" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C95" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="Z95" s="79"/>
+      <c r="Z95" s="78"/>
     </row>
     <row r="96" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C96" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="Z96" s="79"/>
+      <c r="Z96" s="78"/>
     </row>
     <row r="97" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C97" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="78">
+      <c r="D97" s="77">
         <f>SUM(D85:D96)</f>
-        <v>596</v>
+        <v>1304</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>18487.611899999996</v>
-      </c>
-      <c r="Z97" s="79"/>
+        <v>36969.614599999986</v>
+      </c>
+      <c r="Z97" s="78"/>
     </row>
     <row r="98" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Z98" s="79"/>
+      <c r="Z98" s="78"/>
     </row>
     <row r="99" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Z99" s="79"/>
+      <c r="Z99" s="78"/>
     </row>
     <row r="100" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Z100" s="79"/>
+      <c r="Z100" s="78"/>
     </row>
     <row r="101" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J101" s="79"/>
-      <c r="Z101" s="79"/>
+      <c r="J101" s="78"/>
+      <c r="Z101" s="78"/>
     </row>
     <row r="102" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Z102" s="96"/>
+      <c r="Z102" s="95"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Z67">
@@ -15760,7 +15921,7 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15770,8 +15931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05395F9A-1504-413B-B37C-6F2917ED4558}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90:G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15806,95 +15967,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="132" t="s">
+      <c r="C2" s="135"/>
+      <c r="D2" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132" t="s">
+      <c r="E2" s="134"/>
+      <c r="F2" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132" t="s">
+      <c r="G2" s="134"/>
+      <c r="H2" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132" t="s">
+      <c r="I2" s="134"/>
+      <c r="J2" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132" t="s">
+      <c r="K2" s="134"/>
+      <c r="L2" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132" t="s">
+      <c r="M2" s="134"/>
+      <c r="N2" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132" t="s">
+      <c r="O2" s="134"/>
+      <c r="P2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132" t="s">
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132" t="s">
+      <c r="S2" s="134"/>
+      <c r="T2" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132" t="s">
+      <c r="U2" s="134"/>
+      <c r="V2" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132" t="s">
+      <c r="W2" s="134"/>
+      <c r="X2" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132" t="s">
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="132"/>
+      <c r="AA2" s="134"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
@@ -16014,7 +16175,7 @@
       <c r="M4" s="16">
         <v>0</v>
       </c>
-      <c r="N4" s="97">
+      <c r="N4" s="96">
         <v>0</v>
       </c>
       <c r="O4" s="20">
@@ -19979,7 +20140,7 @@
       <c r="M65" s="16">
         <v>0</v>
       </c>
-      <c r="N65" s="60">
+      <c r="N65" s="59">
         <v>0</v>
       </c>
       <c r="O65" s="37">
@@ -20041,25 +20202,25 @@
       <c r="L66" s="3">
         <v>1</v>
       </c>
-      <c r="M66" s="56">
+      <c r="M66" s="55">
         <v>11.81</v>
       </c>
-      <c r="N66" s="57">
+      <c r="N66" s="56">
         <v>2</v>
       </c>
-      <c r="O66" s="58">
+      <c r="O66" s="57">
         <v>23.62</v>
       </c>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="58"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="58"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="58"/>
-      <c r="X66" s="57"/>
-      <c r="Y66" s="58"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="56"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="56"/>
+      <c r="Y66" s="57"/>
       <c r="Z66" s="36">
         <f t="shared" ref="Z66:Z71" si="1">SUM(B66,D66,F66,H66,J66,L66,N66,P66,R66,T66,V66,X66)</f>
         <v>57</v>
@@ -20106,13 +20267,13 @@
       <c r="L67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="56">
+      <c r="M67" s="55">
         <v>0</v>
       </c>
       <c r="N67" s="6">
         <v>0</v>
       </c>
-      <c r="O67" s="58">
+      <c r="O67" s="57">
         <v>0</v>
       </c>
       <c r="P67" s="6"/>
@@ -20171,13 +20332,13 @@
       <c r="L68" s="3">
         <v>1</v>
       </c>
-      <c r="M68" s="56">
+      <c r="M68" s="55">
         <v>30.48</v>
       </c>
       <c r="N68" s="6">
         <v>1</v>
       </c>
-      <c r="O68" s="58">
+      <c r="O68" s="57">
         <v>30.48</v>
       </c>
       <c r="P68" s="6"/>
@@ -20236,25 +20397,25 @@
       <c r="L69" s="36">
         <v>0</v>
       </c>
-      <c r="M69" s="59">
-        <v>0</v>
-      </c>
-      <c r="N69" s="60">
-        <v>0</v>
-      </c>
-      <c r="O69" s="71">
-        <v>0</v>
-      </c>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
-      <c r="V69" s="60"/>
-      <c r="W69" s="60"/>
-      <c r="X69" s="60"/>
-      <c r="Y69" s="60"/>
+      <c r="M69" s="58">
+        <v>0</v>
+      </c>
+      <c r="N69" s="59">
+        <v>0</v>
+      </c>
+      <c r="O69" s="70">
+        <v>0</v>
+      </c>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
       <c r="Z69" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -20265,46 +20426,46 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="66">
+      <c r="B70" s="65">
         <v>0</v>
       </c>
       <c r="C70" s="16">
         <v>0</v>
       </c>
-      <c r="D70" s="66">
+      <c r="D70" s="65">
         <v>0</v>
       </c>
       <c r="E70" s="16">
         <v>0</v>
       </c>
-      <c r="F70" s="66">
+      <c r="F70" s="65">
         <v>1</v>
       </c>
       <c r="G70" s="16">
         <v>6.04</v>
       </c>
-      <c r="H70" s="66">
+      <c r="H70" s="65">
         <v>0</v>
       </c>
       <c r="I70" s="16">
         <v>0</v>
       </c>
-      <c r="J70" s="66">
+      <c r="J70" s="65">
         <v>0</v>
       </c>
       <c r="K70" s="16">
         <v>0</v>
       </c>
-      <c r="L70" s="66">
+      <c r="L70" s="65">
         <v>0</v>
       </c>
       <c r="M70" s="16">
         <v>0</v>
       </c>
-      <c r="N70" s="66">
+      <c r="N70" s="65">
         <v>0</v>
       </c>
       <c r="O70" s="16">
@@ -20395,7 +20556,7 @@
       </c>
     </row>
     <row r="72" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="60" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="54">
@@ -20537,10 +20698,10 @@
       <c r="C87" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="107">
+      <c r="D87" s="106">
         <v>425</v>
       </c>
-      <c r="G87" s="108">
+      <c r="G87" s="107">
         <v>6429.4114000000009</v>
       </c>
     </row>
@@ -20548,10 +20709,10 @@
       <c r="C88" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="116">
+      <c r="D88" s="115">
         <v>382</v>
       </c>
-      <c r="G88" s="117">
+      <c r="G88" s="116">
         <v>7412.37</v>
       </c>
     </row>
@@ -20559,10 +20720,10 @@
       <c r="C89" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="115">
+      <c r="D89" s="114">
         <v>139</v>
       </c>
-      <c r="G89" s="140">
+      <c r="G89" s="117">
         <v>1909.9570999999999</v>
       </c>
     </row>
@@ -20570,13 +20731,21 @@
       <c r="C90" s="28" t="s">
         <v>32</v>
       </c>
+      <c r="D90" s="142">
+        <v>113</v>
+      </c>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="143">
+        <v>1541</v>
+      </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="98"/>
-      <c r="G91" s="99"/>
+      <c r="D91" s="97"/>
+      <c r="G91" s="98"/>
     </row>
     <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="28" t="s">
@@ -20599,10 +20768,10 @@
       <c r="C95" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="105"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="102"/>
-      <c r="G95" s="106"/>
+      <c r="D95" s="104"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="105"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="28" t="s">
@@ -20620,11 +20789,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>1129</v>
+        <v>1242</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>18755.738499999999</v>
+        <v>20296.738499999999</v>
       </c>
     </row>
   </sheetData>
@@ -20645,7 +20814,7 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20673,95 +20842,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="I1" s="137" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="I1" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="136">
+      <c r="B2" s="138">
         <v>2020</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138">
         <v>2021</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="134" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="139" t="s">
+      <c r="I2" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="136">
+      <c r="J2" s="138">
         <v>2020</v>
       </c>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138">
         <v>2021</v>
       </c>
-      <c r="M2" s="136"/>
-      <c r="N2" s="134" t="s">
+      <c r="M2" s="138"/>
+      <c r="N2" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="136" t="s">
+      <c r="O2" s="138" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="65" t="s">
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="3">
@@ -20776,15 +20945,15 @@
       <c r="E4" s="16">
         <v>6859.55</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <f>D4-B4</f>
         <v>17</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="67">
         <f>E4-C4</f>
         <v>-1304.3500000000004</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="63" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="3">
@@ -20799,17 +20968,17 @@
       <c r="M4" s="16">
         <v>3988.8400000000006</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="66">
         <f>L4-J4</f>
         <v>-226</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="67">
         <f>M4-K4</f>
         <v>-3723.0299999999966</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3">
@@ -20824,15 +20993,15 @@
       <c r="E5" s="16">
         <v>5198.9299999999994</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="66">
         <f t="shared" ref="F5:F11" si="0">D5-B5</f>
         <v>5</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="67">
         <f t="shared" ref="G5:G11" si="1">E5-C5</f>
         <v>-1102.7399999999989</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="3">
@@ -20847,17 +21016,17 @@
       <c r="M5" s="16">
         <v>3160.0499999999997</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="66">
         <f t="shared" ref="N5:N11" si="2">L5-J5</f>
         <v>-420</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="67">
         <f t="shared" ref="O5:O11" si="3">M5-K5</f>
         <v>-6038.9099999999962</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="3">
@@ -20872,15 +21041,15 @@
       <c r="E6" s="16">
         <v>10940.779999999997</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="66">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <f t="shared" si="1"/>
         <v>2612.34</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="63" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="3">
@@ -20895,17 +21064,17 @@
       <c r="M6" s="16">
         <v>6076.7999999999975</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="66">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="67">
         <f t="shared" si="3"/>
         <v>715.51999999999771</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="3">
@@ -20920,15 +21089,15 @@
       <c r="E7" s="16">
         <v>6161.5499999999984</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="66">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="67">
         <f t="shared" si="1"/>
         <v>2294.1699999999992</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="3">
@@ -20943,17 +21112,17 @@
       <c r="M7" s="16">
         <v>3788.7900000000013</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="66">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="67">
         <f t="shared" si="3"/>
         <v>142.33000000000129</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3">
@@ -20968,15 +21137,15 @@
       <c r="E8" s="16">
         <v>5771.8099999999995</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="66">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <f t="shared" si="1"/>
         <v>1321.42</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>32</v>
       </c>
       <c r="J8" s="3">
@@ -20991,17 +21160,17 @@
       <c r="M8" s="16">
         <v>2416.4899999999998</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="66">
         <f t="shared" si="2"/>
         <v>-89</v>
       </c>
-      <c r="O8" s="68">
+      <c r="O8" s="67">
         <f t="shared" si="3"/>
         <v>-1653.400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="3">
@@ -21016,15 +21185,15 @@
       <c r="E9" s="16">
         <v>11139.23</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="66">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <f t="shared" si="1"/>
         <v>6692.2099999999982</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="3">
@@ -21039,17 +21208,17 @@
       <c r="M9" s="16">
         <v>42216.630000000026</v>
       </c>
-      <c r="N9" s="67">
+      <c r="N9" s="66">
         <f t="shared" si="2"/>
         <v>2867</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="67">
         <f t="shared" si="3"/>
         <v>36517.170000000027</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3">
@@ -21064,15 +21233,15 @@
       <c r="E10" s="16">
         <v>7540.2599999999993</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="66">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <f t="shared" si="1"/>
         <v>3246.0599999999995</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="63" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="3">
@@ -21087,17 +21256,17 @@
       <c r="M10" s="16">
         <v>4489.0599999999995</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="66">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <f t="shared" si="3"/>
         <v>1878.1599999999985</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="3">
@@ -21112,15 +21281,15 @@
       <c r="E11" s="16">
         <v>6048.51</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <f t="shared" si="0"/>
         <v>-107</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <f t="shared" si="1"/>
         <v>-3643.3899999999994</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="63" t="s">
         <v>45</v>
       </c>
       <c r="J11" s="3">
@@ -21135,17 +21304,17 @@
       <c r="M11" s="16">
         <v>3061.2491000000009</v>
       </c>
-      <c r="N11" s="67">
+      <c r="N11" s="66">
         <f t="shared" si="2"/>
         <v>-166</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="67">
         <f t="shared" si="3"/>
         <v>-2457.7708999999995</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="3">
@@ -21160,13 +21329,13 @@
       <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="67">
-        <v>0</v>
-      </c>
-      <c r="G12" s="68">
-        <v>0</v>
-      </c>
-      <c r="I12" s="64" t="s">
+      <c r="F12" s="66">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67">
+        <v>0</v>
+      </c>
+      <c r="I12" s="63" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="3">
@@ -21181,15 +21350,15 @@
       <c r="M12" s="16">
         <v>0</v>
       </c>
-      <c r="N12" s="67">
-        <v>0</v>
-      </c>
-      <c r="O12" s="68">
+      <c r="N12" s="66">
+        <v>0</v>
+      </c>
+      <c r="O12" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="3">
@@ -21204,13 +21373,13 @@
       <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F13" s="67">
-        <v>0</v>
-      </c>
-      <c r="G13" s="68">
-        <v>0</v>
-      </c>
-      <c r="I13" s="64" t="s">
+      <c r="F13" s="66">
+        <v>0</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0</v>
+      </c>
+      <c r="I13" s="63" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="3">
@@ -21225,15 +21394,15 @@
       <c r="M13" s="16">
         <v>0</v>
       </c>
-      <c r="N13" s="67">
-        <v>0</v>
-      </c>
-      <c r="O13" s="68">
+      <c r="N13" s="66">
+        <v>0</v>
+      </c>
+      <c r="O13" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="3">
@@ -21248,13 +21417,13 @@
       <c r="E14" s="16">
         <v>0</v>
       </c>
-      <c r="F14" s="67">
-        <v>0</v>
-      </c>
-      <c r="G14" s="68">
-        <v>0</v>
-      </c>
-      <c r="I14" s="64" t="s">
+      <c r="F14" s="66">
+        <v>0</v>
+      </c>
+      <c r="G14" s="67">
+        <v>0</v>
+      </c>
+      <c r="I14" s="63" t="s">
         <v>52</v>
       </c>
       <c r="J14" s="3">
@@ -21269,15 +21438,15 @@
       <c r="M14" s="16">
         <v>0</v>
       </c>
-      <c r="N14" s="67">
-        <v>0</v>
-      </c>
-      <c r="O14" s="68">
+      <c r="N14" s="66">
+        <v>0</v>
+      </c>
+      <c r="O14" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="3">
@@ -21292,13 +21461,13 @@
       <c r="E15" s="16">
         <v>0</v>
       </c>
-      <c r="F15" s="67">
-        <v>0</v>
-      </c>
-      <c r="G15" s="68">
-        <v>0</v>
-      </c>
-      <c r="I15" s="64" t="s">
+      <c r="F15" s="66">
+        <v>0</v>
+      </c>
+      <c r="G15" s="67">
+        <v>0</v>
+      </c>
+      <c r="I15" s="63" t="s">
         <v>62</v>
       </c>
       <c r="J15" s="3">
@@ -21313,10 +21482,10 @@
       <c r="M15" s="16">
         <v>0</v>
       </c>
-      <c r="N15" s="67">
-        <v>0</v>
-      </c>
-      <c r="O15" s="68">
+      <c r="N15" s="66">
+        <v>0</v>
+      </c>
+      <c r="O15" s="67">
         <v>0</v>
       </c>
     </row>

--- a/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
+++ b/Code/Output/August_2021/Metrics_Report_August_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\August_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F171927-E87E-41CD-B4D3-3871E0106FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82696EE-3A67-4130-8274-764911282290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="3075" windowWidth="16455" windowHeight="9990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="5250" windowWidth="14100" windowHeight="6285" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver and Engine RMAs" sheetId="3" r:id="rId1"/>
@@ -680,10 +680,24 @@
     <numFmt numFmtId="166" formatCode="\+&quot;$&quot;0.00;\-&quot;$&quot;0.00;&quot;$&quot;0.00"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1614,51 +1628,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="284">
+  <cellStyleXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1900,7 +1954,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1912,16 +1966,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1944,10 +1998,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1956,7 +2010,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1971,14 +2025,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1996,7 +2050,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2005,19 +2059,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2036,7 +2090,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2046,10 +2100,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2067,15 +2121,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2096,7 +2150,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2111,11 +2165,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2145,7 +2199,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2154,28 +2208,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2184,28 +2232,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="44"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="64"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="84"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="124"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="144"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="164"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="164"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="164"/>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="164" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="184"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="184"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="184" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="204" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="64"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="64" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="84"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="124"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="144"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="144" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="164"/>
+    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="164" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="184"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="184"/>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="0" xfId="184" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="204" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="224"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="224" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="224"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="224" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="264"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="264" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="284" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="284"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2214,66 +2266,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="264"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="264" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="304"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="304" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="284">
+  <cellStyles count="324">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 10" xfId="206" xr:uid="{DF50A6DA-51F4-4649-A970-1DA017078481}"/>
     <cellStyle name="20% - Accent1 11" xfId="226" xr:uid="{DA7A451B-845F-45B7-9A05-D7C5C2F9A59A}"/>
     <cellStyle name="20% - Accent1 12" xfId="246" xr:uid="{753F7579-5475-47B8-8E8F-11C14D9699E6}"/>
     <cellStyle name="20% - Accent1 13" xfId="266" xr:uid="{6AF21919-076F-44D8-8ED0-E43259700611}"/>
+    <cellStyle name="20% - Accent1 14" xfId="286" xr:uid="{9DE95A4A-5C0C-48C4-9C7F-EC2C1E7680FB}"/>
+    <cellStyle name="20% - Accent1 15" xfId="306" xr:uid="{D3AB26D6-BF14-423C-AE65-7A9D5F021255}"/>
     <cellStyle name="20% - Accent1 2" xfId="46" xr:uid="{02BAB7D6-C846-4D2A-912F-3C07D1DD4FF0}"/>
     <cellStyle name="20% - Accent1 3" xfId="66" xr:uid="{89DAF94E-6BDD-4FDC-8302-85528D01EDDA}"/>
     <cellStyle name="20% - Accent1 4" xfId="86" xr:uid="{7B1B9CF1-2737-409F-9F4B-CF269FE4FDDC}"/>
@@ -2287,6 +2341,8 @@
     <cellStyle name="20% - Accent2 11" xfId="229" xr:uid="{E0AEAD27-1B90-42DE-B9C3-983888CCCF54}"/>
     <cellStyle name="20% - Accent2 12" xfId="249" xr:uid="{3815400F-5720-4AF2-853A-CCEA8AC23822}"/>
     <cellStyle name="20% - Accent2 13" xfId="269" xr:uid="{D7DB7E40-B3B6-4897-B269-489D46B59BD7}"/>
+    <cellStyle name="20% - Accent2 14" xfId="289" xr:uid="{5BD80DD9-0DBB-4182-A1E5-6B8BD3DBE295}"/>
+    <cellStyle name="20% - Accent2 15" xfId="309" xr:uid="{137B403F-AAEF-4792-8BD3-7910D862CE22}"/>
     <cellStyle name="20% - Accent2 2" xfId="49" xr:uid="{9B8B4624-16AD-4AEE-A198-A8FDF7C8BD81}"/>
     <cellStyle name="20% - Accent2 3" xfId="69" xr:uid="{7FC42DE8-97E3-483D-86E4-1C43881206A5}"/>
     <cellStyle name="20% - Accent2 4" xfId="89" xr:uid="{6C52E251-C353-4B7E-A4FD-FEA2151429DF}"/>
@@ -2300,6 +2356,8 @@
     <cellStyle name="20% - Accent3 11" xfId="232" xr:uid="{C91DA1B2-F026-4513-A5AE-E77ABCAEB7AD}"/>
     <cellStyle name="20% - Accent3 12" xfId="252" xr:uid="{3A62E0F5-7D77-47E4-8C51-C090F83FC185}"/>
     <cellStyle name="20% - Accent3 13" xfId="272" xr:uid="{463692D0-B004-4200-9F60-26CC04F986E9}"/>
+    <cellStyle name="20% - Accent3 14" xfId="292" xr:uid="{818BDC4B-3A38-4BD4-8204-8F65AC04536D}"/>
+    <cellStyle name="20% - Accent3 15" xfId="312" xr:uid="{E0D0BCFF-685A-4E9A-9B5D-8589E508C707}"/>
     <cellStyle name="20% - Accent3 2" xfId="52" xr:uid="{7A856016-D5DC-4F33-97B8-3BDEC6B41FAE}"/>
     <cellStyle name="20% - Accent3 3" xfId="72" xr:uid="{21E79185-8EAF-4DAB-8BA0-96D4426D8503}"/>
     <cellStyle name="20% - Accent3 4" xfId="92" xr:uid="{8ACA4BD6-058B-4C3C-9972-E65B16B05DA4}"/>
@@ -2313,6 +2371,8 @@
     <cellStyle name="20% - Accent4 11" xfId="235" xr:uid="{8B654A04-8BEC-434C-A05D-9D9A655B2843}"/>
     <cellStyle name="20% - Accent4 12" xfId="255" xr:uid="{9594DDC5-7668-4F1D-BE1F-76A06FE341B4}"/>
     <cellStyle name="20% - Accent4 13" xfId="275" xr:uid="{841954DE-99A5-46FE-B575-D4D5829F3B1F}"/>
+    <cellStyle name="20% - Accent4 14" xfId="295" xr:uid="{58264A52-3800-4607-9B4E-FECC942EBD2C}"/>
+    <cellStyle name="20% - Accent4 15" xfId="315" xr:uid="{4F5F01B5-78C4-4D24-868E-6EAADDFAEBA2}"/>
     <cellStyle name="20% - Accent4 2" xfId="55" xr:uid="{27A713D1-8C98-4F40-882E-CF4BF70BE480}"/>
     <cellStyle name="20% - Accent4 3" xfId="75" xr:uid="{D490D1A2-E23D-45F5-AA9B-7EE9492D3575}"/>
     <cellStyle name="20% - Accent4 4" xfId="95" xr:uid="{56AD7626-24AD-4771-AE7E-62818455D23E}"/>
@@ -2326,6 +2386,8 @@
     <cellStyle name="20% - Accent5 11" xfId="238" xr:uid="{3E362396-D566-4F12-B157-C844EB9C42C4}"/>
     <cellStyle name="20% - Accent5 12" xfId="258" xr:uid="{EA9EE76E-585B-415C-8D51-FBF0E30923D8}"/>
     <cellStyle name="20% - Accent5 13" xfId="278" xr:uid="{34B47B4A-D340-4915-A7BA-31B83435F912}"/>
+    <cellStyle name="20% - Accent5 14" xfId="298" xr:uid="{1AA343F0-CC5F-419E-91BA-2FD3BE232A4C}"/>
+    <cellStyle name="20% - Accent5 15" xfId="318" xr:uid="{833089FB-6C0D-4DBE-B33E-F500B00DF4A9}"/>
     <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{4BB5E5F9-EFD1-45B0-90A8-FC64B00DECB1}"/>
     <cellStyle name="20% - Accent5 3" xfId="78" xr:uid="{158DEDEE-C036-4C8F-9D72-41698EA01F81}"/>
     <cellStyle name="20% - Accent5 4" xfId="98" xr:uid="{580E0739-8EA2-43A8-ABB0-A020446047A4}"/>
@@ -2339,6 +2401,8 @@
     <cellStyle name="20% - Accent6 11" xfId="241" xr:uid="{42F97139-57F4-4EE9-8546-8B480D9DCBD3}"/>
     <cellStyle name="20% - Accent6 12" xfId="261" xr:uid="{EC5133E9-23A6-45A2-8320-A1C9A516FA9E}"/>
     <cellStyle name="20% - Accent6 13" xfId="281" xr:uid="{D3C0079F-ED26-4633-8C44-77B690ECF2F0}"/>
+    <cellStyle name="20% - Accent6 14" xfId="301" xr:uid="{0C0EA01A-E585-4692-A690-F9D0155E292B}"/>
+    <cellStyle name="20% - Accent6 15" xfId="321" xr:uid="{8FFB73B6-9718-4821-B930-2E6FECA936E6}"/>
     <cellStyle name="20% - Accent6 2" xfId="61" xr:uid="{A94BA87B-C4B9-42A4-B829-EEFD2D2AAEC1}"/>
     <cellStyle name="20% - Accent6 3" xfId="81" xr:uid="{3B760485-7E3C-405D-89E6-68C13D8201F6}"/>
     <cellStyle name="20% - Accent6 4" xfId="101" xr:uid="{316B90B7-455D-4097-9B9B-049F4374B448}"/>
@@ -2352,6 +2416,8 @@
     <cellStyle name="40% - Accent1 11" xfId="227" xr:uid="{B9387841-664A-4DC1-A37B-C15A79738A35}"/>
     <cellStyle name="40% - Accent1 12" xfId="247" xr:uid="{67185ECE-B7FA-418E-8CE0-F55AF6443E5C}"/>
     <cellStyle name="40% - Accent1 13" xfId="267" xr:uid="{CB411CE9-BD3D-409E-8382-001B9F79030B}"/>
+    <cellStyle name="40% - Accent1 14" xfId="287" xr:uid="{43918641-69E5-4C34-B56A-51AF51284961}"/>
+    <cellStyle name="40% - Accent1 15" xfId="307" xr:uid="{6F5AE62D-1896-4A5C-AFDC-132BCB97A661}"/>
     <cellStyle name="40% - Accent1 2" xfId="47" xr:uid="{E14EBB5E-0A47-4C48-9D86-AE1553F6599D}"/>
     <cellStyle name="40% - Accent1 3" xfId="67" xr:uid="{D7187D2C-FB59-4217-802E-DD82BD8595F1}"/>
     <cellStyle name="40% - Accent1 4" xfId="87" xr:uid="{8AE36346-8535-4E4C-8A14-2C72AFF7B9C2}"/>
@@ -2365,6 +2431,8 @@
     <cellStyle name="40% - Accent2 11" xfId="230" xr:uid="{7BCDF6BE-DEAD-4EAB-A747-7036096D07C2}"/>
     <cellStyle name="40% - Accent2 12" xfId="250" xr:uid="{EC081CB1-D8D6-47F5-87B4-E4AD7D7487B4}"/>
     <cellStyle name="40% - Accent2 13" xfId="270" xr:uid="{16823FEF-728B-428B-8C2B-7DC3AF5B8771}"/>
+    <cellStyle name="40% - Accent2 14" xfId="290" xr:uid="{7EFBCCD1-B9B4-44DE-93E2-2A2FEAE11515}"/>
+    <cellStyle name="40% - Accent2 15" xfId="310" xr:uid="{8D23CDDC-8FD1-4B57-8412-DE89A99F47A3}"/>
     <cellStyle name="40% - Accent2 2" xfId="50" xr:uid="{C74089CC-0A20-4656-AFB8-03E8B3304615}"/>
     <cellStyle name="40% - Accent2 3" xfId="70" xr:uid="{87D44D69-642F-4737-BACC-5522955842A3}"/>
     <cellStyle name="40% - Accent2 4" xfId="90" xr:uid="{21A1429C-BC89-4879-B848-F1E258E5D6C1}"/>
@@ -2378,6 +2446,8 @@
     <cellStyle name="40% - Accent3 11" xfId="233" xr:uid="{277BFA69-773E-481D-9584-24C4F5F5D9C0}"/>
     <cellStyle name="40% - Accent3 12" xfId="253" xr:uid="{848DB2CC-B6B0-4954-8934-72A910FB4374}"/>
     <cellStyle name="40% - Accent3 13" xfId="273" xr:uid="{13CE7E19-5CF5-402D-8949-198CA66B2531}"/>
+    <cellStyle name="40% - Accent3 14" xfId="293" xr:uid="{4EC76B38-F4D2-4AE2-91E8-5D2ED410B5F7}"/>
+    <cellStyle name="40% - Accent3 15" xfId="313" xr:uid="{211EBF66-2C9A-4999-9CBE-34C2C2192F06}"/>
     <cellStyle name="40% - Accent3 2" xfId="53" xr:uid="{0272B091-B91F-4E63-9FBB-F7B4A6264D3F}"/>
     <cellStyle name="40% - Accent3 3" xfId="73" xr:uid="{E25EE0E1-7451-4B98-9CDD-3B48DE59DE07}"/>
     <cellStyle name="40% - Accent3 4" xfId="93" xr:uid="{95BB05CB-DA98-4F9B-A1F5-68569D0F3572}"/>
@@ -2391,6 +2461,8 @@
     <cellStyle name="40% - Accent4 11" xfId="236" xr:uid="{A15AB521-EDD2-4488-9B8E-B468BF725EC7}"/>
     <cellStyle name="40% - Accent4 12" xfId="256" xr:uid="{C64F4704-67C3-418C-BBBE-15B46C992F11}"/>
     <cellStyle name="40% - Accent4 13" xfId="276" xr:uid="{B5F2CEE3-D0B5-469D-89B0-760F3DE3A0BD}"/>
+    <cellStyle name="40% - Accent4 14" xfId="296" xr:uid="{4C3114AB-FE0F-4F19-B7AD-462AC5AEB7B5}"/>
+    <cellStyle name="40% - Accent4 15" xfId="316" xr:uid="{7E0F4733-A047-4B38-8440-18D8FD5FC7D4}"/>
     <cellStyle name="40% - Accent4 2" xfId="56" xr:uid="{83EC9D9B-BEE5-470A-B080-CE16FD9AB9FA}"/>
     <cellStyle name="40% - Accent4 3" xfId="76" xr:uid="{2082F1A2-5A95-474E-B12F-9025B5FB9F11}"/>
     <cellStyle name="40% - Accent4 4" xfId="96" xr:uid="{FC4333FE-9EA6-4B82-B402-5480DF857851}"/>
@@ -2404,6 +2476,8 @@
     <cellStyle name="40% - Accent5 11" xfId="239" xr:uid="{987EE0E5-97C5-4C33-88FB-5EC9B80CE386}"/>
     <cellStyle name="40% - Accent5 12" xfId="259" xr:uid="{92F800BA-3637-4C26-A741-453D0979760D}"/>
     <cellStyle name="40% - Accent5 13" xfId="279" xr:uid="{258307B7-6B3A-4BF3-BED2-A9F6F7912AC6}"/>
+    <cellStyle name="40% - Accent5 14" xfId="299" xr:uid="{89C22940-71F0-46E7-B125-728965A87C96}"/>
+    <cellStyle name="40% - Accent5 15" xfId="319" xr:uid="{68D98264-1767-4965-AC03-EFDBEDAF5E94}"/>
     <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{15AD98EA-98F1-460C-85F3-BB4A4E38A363}"/>
     <cellStyle name="40% - Accent5 3" xfId="79" xr:uid="{C5480D71-5F19-44B6-B080-84766C674A1D}"/>
     <cellStyle name="40% - Accent5 4" xfId="99" xr:uid="{69745F4D-E36C-40AC-8CD0-6930986125DE}"/>
@@ -2417,6 +2491,8 @@
     <cellStyle name="40% - Accent6 11" xfId="242" xr:uid="{81410666-474D-47BB-856E-3CCB38ADD449}"/>
     <cellStyle name="40% - Accent6 12" xfId="262" xr:uid="{89DBFF2C-62D8-4829-9BE8-CCFD25B26BE9}"/>
     <cellStyle name="40% - Accent6 13" xfId="282" xr:uid="{592AD54A-3227-4261-BEDF-C3F559E9B23B}"/>
+    <cellStyle name="40% - Accent6 14" xfId="302" xr:uid="{3EDC5033-6D5C-4976-A8DB-1221BEA120D3}"/>
+    <cellStyle name="40% - Accent6 15" xfId="322" xr:uid="{E08393D1-5AC7-464C-88AE-DF4A02FB3889}"/>
     <cellStyle name="40% - Accent6 2" xfId="62" xr:uid="{45B59C48-4470-44FD-BB9F-F30A336F2151}"/>
     <cellStyle name="40% - Accent6 3" xfId="82" xr:uid="{7912BF9F-9C83-4653-9D16-651610831981}"/>
     <cellStyle name="40% - Accent6 4" xfId="102" xr:uid="{5515B6D7-6A40-47AC-8588-587E81DD1B3B}"/>
@@ -2430,6 +2506,8 @@
     <cellStyle name="60% - Accent1 11" xfId="228" xr:uid="{7070C891-AA79-474E-8EA7-E6456EDA4DF2}"/>
     <cellStyle name="60% - Accent1 12" xfId="248" xr:uid="{CDAB397B-436D-492F-8648-379F186999DB}"/>
     <cellStyle name="60% - Accent1 13" xfId="268" xr:uid="{69D59957-84E2-4998-A73B-6539E6DA37A9}"/>
+    <cellStyle name="60% - Accent1 14" xfId="288" xr:uid="{B1B43064-7529-4D27-AF2E-F29CF1A5A093}"/>
+    <cellStyle name="60% - Accent1 15" xfId="308" xr:uid="{19AB9CAF-A3DB-46A3-929B-400C273FA34D}"/>
     <cellStyle name="60% - Accent1 2" xfId="48" xr:uid="{E1A03B6B-FA78-45D5-939C-628EDA4E602C}"/>
     <cellStyle name="60% - Accent1 3" xfId="68" xr:uid="{5D16E2E7-DD78-4135-8AD0-5BDC88DC49AD}"/>
     <cellStyle name="60% - Accent1 4" xfId="88" xr:uid="{B1857BB0-4942-426A-9FE1-27E2795209DA}"/>
@@ -2443,6 +2521,8 @@
     <cellStyle name="60% - Accent2 11" xfId="231" xr:uid="{4CCDC3AD-BF7B-4473-85F7-D5EEC3C8E251}"/>
     <cellStyle name="60% - Accent2 12" xfId="251" xr:uid="{C58B9182-3548-40EF-B84C-85D69D86CDF2}"/>
     <cellStyle name="60% - Accent2 13" xfId="271" xr:uid="{2B8D9EB6-83F5-41E1-8751-C0445B57C1C5}"/>
+    <cellStyle name="60% - Accent2 14" xfId="291" xr:uid="{AB487718-8C84-46ED-A4F9-7B426EE43382}"/>
+    <cellStyle name="60% - Accent2 15" xfId="311" xr:uid="{BFEE57D8-832F-4C74-8519-9177ACBD9C19}"/>
     <cellStyle name="60% - Accent2 2" xfId="51" xr:uid="{D0FA212D-F77B-4084-805A-1C705D6AF2DA}"/>
     <cellStyle name="60% - Accent2 3" xfId="71" xr:uid="{B873FD5E-9C9F-4E6A-813B-AD4AECD97E71}"/>
     <cellStyle name="60% - Accent2 4" xfId="91" xr:uid="{F3C6E93D-49C0-42CD-8DBE-516F8EF9C594}"/>
@@ -2456,6 +2536,8 @@
     <cellStyle name="60% - Accent3 11" xfId="234" xr:uid="{C51B81D1-6FED-40E3-A857-DE9CC22B5A88}"/>
     <cellStyle name="60% - Accent3 12" xfId="254" xr:uid="{799B7C81-7307-4232-AF89-B8DDDC9C60FE}"/>
     <cellStyle name="60% - Accent3 13" xfId="274" xr:uid="{41A4D159-08B9-4A88-AB4C-65FDD10FE416}"/>
+    <cellStyle name="60% - Accent3 14" xfId="294" xr:uid="{6737A9B6-8979-4243-A739-BC9EB6466DC8}"/>
+    <cellStyle name="60% - Accent3 15" xfId="314" xr:uid="{FFFB7EE6-C3CD-408B-9502-3D91490B5A08}"/>
     <cellStyle name="60% - Accent3 2" xfId="54" xr:uid="{2DB920AF-9A1B-4809-8D7E-7E7D27029255}"/>
     <cellStyle name="60% - Accent3 3" xfId="74" xr:uid="{A793605B-7722-4F77-9376-057AEC03667C}"/>
     <cellStyle name="60% - Accent3 4" xfId="94" xr:uid="{3D5D6532-2B17-404C-BA8F-B5B4195D405A}"/>
@@ -2469,6 +2551,8 @@
     <cellStyle name="60% - Accent4 11" xfId="237" xr:uid="{BA08DEFA-1CE2-4941-AB9C-CB09E2075C18}"/>
     <cellStyle name="60% - Accent4 12" xfId="257" xr:uid="{1D1AD600-1880-4447-9126-9ADAF9D0E5EA}"/>
     <cellStyle name="60% - Accent4 13" xfId="277" xr:uid="{F0B545A0-D0A5-48DE-B2C8-219794872A82}"/>
+    <cellStyle name="60% - Accent4 14" xfId="297" xr:uid="{D423CC0A-CDF6-43FB-8E9C-1A97A2DF9207}"/>
+    <cellStyle name="60% - Accent4 15" xfId="317" xr:uid="{AF4C1611-9084-4FC4-AA7C-9B817D6FA66F}"/>
     <cellStyle name="60% - Accent4 2" xfId="57" xr:uid="{8195BE35-9B86-415F-9A4D-34B6410EDF5E}"/>
     <cellStyle name="60% - Accent4 3" xfId="77" xr:uid="{4CB98DF4-7B73-43E1-81E0-21FDB4DF4681}"/>
     <cellStyle name="60% - Accent4 4" xfId="97" xr:uid="{047B4172-9762-4193-8BB2-DEA383D577A2}"/>
@@ -2482,6 +2566,8 @@
     <cellStyle name="60% - Accent5 11" xfId="240" xr:uid="{40088DD4-F23D-4839-BD45-D16DBBEC117F}"/>
     <cellStyle name="60% - Accent5 12" xfId="260" xr:uid="{219B4BC5-B5A0-4AFA-900D-A0B5EC1746EB}"/>
     <cellStyle name="60% - Accent5 13" xfId="280" xr:uid="{351AB47A-D826-4291-9283-813652D58C01}"/>
+    <cellStyle name="60% - Accent5 14" xfId="300" xr:uid="{3F1BA15F-8626-4E05-9396-4AF849DB3CF2}"/>
+    <cellStyle name="60% - Accent5 15" xfId="320" xr:uid="{FA876E92-EE73-4738-B35A-CEE4BD671766}"/>
     <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{2B087051-0B1A-48CB-8C88-FB5419174C45}"/>
     <cellStyle name="60% - Accent5 3" xfId="80" xr:uid="{7CA52249-2793-4CBE-9320-B2E51B7C7208}"/>
     <cellStyle name="60% - Accent5 4" xfId="100" xr:uid="{E73925E2-2A98-4246-A82E-2EB950F86CC1}"/>
@@ -2495,6 +2581,8 @@
     <cellStyle name="60% - Accent6 11" xfId="243" xr:uid="{655F3FF5-9425-4FC0-BD35-E1D4638E2D3D}"/>
     <cellStyle name="60% - Accent6 12" xfId="263" xr:uid="{592D428E-0CD2-4523-B624-ECBF8ACFA448}"/>
     <cellStyle name="60% - Accent6 13" xfId="283" xr:uid="{2EE4857A-8801-4D01-818F-57628330640E}"/>
+    <cellStyle name="60% - Accent6 14" xfId="303" xr:uid="{8C501128-7AD0-45D3-9A3A-1665FF8A9EE0}"/>
+    <cellStyle name="60% - Accent6 15" xfId="323" xr:uid="{AA65F3E4-47BA-4D5B-BEBE-FB10ED67A212}"/>
     <cellStyle name="60% - Accent6 2" xfId="63" xr:uid="{58557526-09F0-45A4-98F9-0C716C5F523E}"/>
     <cellStyle name="60% - Accent6 3" xfId="83" xr:uid="{E8E730DA-91DC-40A1-8E24-A1F3DDEF146E}"/>
     <cellStyle name="60% - Accent6 4" xfId="103" xr:uid="{30FF29FE-4E67-44A8-B821-3B0604D9778B}"/>
@@ -2527,6 +2615,8 @@
     <cellStyle name="Normal 12" xfId="224" xr:uid="{5416065E-0E58-4ED3-B31E-13774CDAE5BA}"/>
     <cellStyle name="Normal 13" xfId="244" xr:uid="{98967BAE-8BC9-469B-B6A9-65518A605B3F}"/>
     <cellStyle name="Normal 14" xfId="264" xr:uid="{32B0010D-0188-4624-AD39-9A20458E8E90}"/>
+    <cellStyle name="Normal 15" xfId="284" xr:uid="{BDB9E9ED-477A-4E89-BC15-A40E9FB0C53F}"/>
+    <cellStyle name="Normal 16" xfId="304" xr:uid="{30AD2F9F-2792-4E73-B3EB-96ABDC67B0D1}"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{F50F2267-46E4-4CC2-A189-BCAD2533BD90}"/>
     <cellStyle name="Normal 3" xfId="44" xr:uid="{D61C6192-B0B8-490B-8EAA-C3CB05EBEB04}"/>
     <cellStyle name="Normal 4" xfId="64" xr:uid="{6E293B67-1F89-4B61-BE65-B4BC73B1F281}"/>
@@ -2540,6 +2630,8 @@
     <cellStyle name="Note 12" xfId="225" xr:uid="{EEAC6D30-30A5-4551-8C4E-6667B9DDE8C2}"/>
     <cellStyle name="Note 13" xfId="245" xr:uid="{91725AB7-4F7C-4C03-975B-DB968C9EC293}"/>
     <cellStyle name="Note 14" xfId="265" xr:uid="{B5E67E63-43A0-450C-9CF3-785C53D6CB7E}"/>
+    <cellStyle name="Note 15" xfId="285" xr:uid="{CDD3FE4E-B43F-4A6E-8694-2765F5F421AA}"/>
+    <cellStyle name="Note 16" xfId="305" xr:uid="{E04517DD-09BA-47A5-A913-244BDC9046D3}"/>
     <cellStyle name="Note 2" xfId="43" xr:uid="{1EF10F79-33D5-4582-804E-9EE3D514D4EE}"/>
     <cellStyle name="Note 3" xfId="45" xr:uid="{C97AE358-3909-487F-A4AA-9350252C81B6}"/>
     <cellStyle name="Note 4" xfId="65" xr:uid="{B117F347-10A2-45EC-8BDC-7C266E1D0FF8}"/>
@@ -3654,8 +3746,11 @@
                 <c:pt idx="4">
                   <c:v>708</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>313</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="0">
-                  <c:v>1304</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,8 +4109,11 @@
                 <c:pt idx="4" formatCode="&quot;$&quot;#,##0">
                   <c:v>18482.002699999994</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>9566.8621000000003</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>36969.614599999986</c:v>
+                  <c:v>46536.476699999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4581,8 +4679,11 @@
                 <c:pt idx="4">
                   <c:v>113</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>186</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1242</c:v>
+                  <c:v>1428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,8 +5033,11 @@
                 <c:pt idx="4" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
                   <c:v>1541</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="&quot;$&quot;#,##0">
+                  <c:v>3122.7479999999996</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>20296.738499999999</c:v>
+                  <c:v>23419.486499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7901,28 +8005,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="120" t="s">
+      <c r="L1" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="124"/>
       <c r="S1" s="4"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -8019,25 +8123,25 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="99">
+      <c r="L3" s="97">
         <v>4</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="97">
         <v>46</v>
       </c>
-      <c r="N3" s="99" t="s">
+      <c r="N3" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="99" t="s">
+      <c r="O3" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="100">
+      <c r="P3" s="98">
         <v>11.7</v>
       </c>
-      <c r="Q3" s="100">
+      <c r="Q3" s="98">
         <v>12.561199999999999</v>
       </c>
-      <c r="R3" s="100">
+      <c r="R3" s="98">
         <v>577.8152</v>
       </c>
       <c r="S3" s="22">
@@ -10374,8 +10478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2908758-2B63-4D19-8CDF-3000E5F1BE9C}">
   <dimension ref="A1:AX102"/>
   <sheetViews>
-    <sheetView topLeftCell="M87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10437,97 +10541,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="129"/>
       <c r="AB1" s="61"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="130"/>
+      <c r="F2" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128" t="s">
+      <c r="G2" s="130"/>
+      <c r="H2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128" t="s">
+      <c r="I2" s="130"/>
+      <c r="J2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128" t="s">
+      <c r="K2" s="130"/>
+      <c r="L2" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128" t="s">
+      <c r="M2" s="130"/>
+      <c r="N2" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128" t="s">
+      <c r="O2" s="130"/>
+      <c r="P2" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128" t="s">
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128" t="s">
+      <c r="S2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128" t="s">
+      <c r="U2" s="130"/>
+      <c r="V2" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128" t="s">
+      <c r="W2" s="130"/>
+      <c r="X2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128" t="s">
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="128"/>
+      <c r="AA2" s="130"/>
       <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="38" t="s">
         <v>166</v>
       </c>
@@ -15777,10 +15881,10 @@
       <c r="C86" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="108">
+      <c r="D86" s="106">
         <v>160</v>
       </c>
-      <c r="G86" s="109">
+      <c r="G86" s="107">
         <v>4824.1032999999979</v>
       </c>
       <c r="Z86" s="78"/>
@@ -15789,10 +15893,10 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="112">
+      <c r="D87" s="110">
         <v>177</v>
       </c>
-      <c r="G87" s="113">
+      <c r="G87" s="111">
         <v>5551.21</v>
       </c>
       <c r="Z87" s="78"/>
@@ -15801,10 +15905,10 @@
       <c r="C88" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="111">
+      <c r="D88" s="109">
         <v>89</v>
       </c>
-      <c r="G88" s="110">
+      <c r="G88" s="108">
         <v>2546.2986000000001</v>
       </c>
       <c r="Z88" s="78"/>
@@ -15813,11 +15917,11 @@
       <c r="C89" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="118">
+      <c r="D89" s="116">
         <v>708</v>
       </c>
-      <c r="E89" s="119"/>
-      <c r="G89" s="119">
+      <c r="E89" s="117"/>
+      <c r="G89" s="117">
         <v>18482.002699999994</v>
       </c>
       <c r="I89" s="40"/>
@@ -15827,6 +15931,14 @@
       <c r="C90" s="28" t="s">
         <v>33</v>
       </c>
+      <c r="D90" s="121">
+        <v>313</v>
+      </c>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="120">
+        <v>9566.8621000000003</v>
+      </c>
       <c r="Z90" s="78"/>
     </row>
     <row r="91" spans="3:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -15853,9 +15965,9 @@
       <c r="C94" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="103"/>
-      <c r="G94" s="103"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="101"/>
+      <c r="G94" s="101"/>
       <c r="Z94" s="78"/>
     </row>
     <row r="95" spans="3:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -15876,11 +15988,11 @@
       </c>
       <c r="D97" s="77">
         <f>SUM(D85:D96)</f>
-        <v>1304</v>
+        <v>1617</v>
       </c>
       <c r="G97" s="28">
         <f>SUM(G85:G96)</f>
-        <v>36969.614599999986</v>
+        <v>46536.476699999985</v>
       </c>
       <c r="Z97" s="78"/>
     </row>
@@ -15921,9 +16033,10 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15932,7 +16045,7 @@
   <dimension ref="A1:AA98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90:G90"/>
+      <selection activeCell="D91" sqref="D91:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15967,95 +16080,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="134" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134" t="s">
+      <c r="K2" s="136"/>
+      <c r="L2" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134" t="s">
+      <c r="M2" s="136"/>
+      <c r="N2" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134" t="s">
+      <c r="O2" s="136"/>
+      <c r="P2" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134" t="s">
+      <c r="S2" s="136"/>
+      <c r="T2" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134" t="s">
+      <c r="W2" s="136"/>
+      <c r="X2" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134" t="s">
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="134"/>
+      <c r="AA2" s="136"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="26" t="s">
         <v>166</v>
       </c>
@@ -20698,10 +20811,10 @@
       <c r="C87" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="106">
+      <c r="D87" s="104">
         <v>425</v>
       </c>
-      <c r="G87" s="107">
+      <c r="G87" s="105">
         <v>6429.4114000000009</v>
       </c>
     </row>
@@ -20709,10 +20822,10 @@
       <c r="C88" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="115">
+      <c r="D88" s="113">
         <v>382</v>
       </c>
-      <c r="G88" s="116">
+      <c r="G88" s="114">
         <v>7412.37</v>
       </c>
     </row>
@@ -20720,10 +20833,10 @@
       <c r="C89" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="114">
+      <c r="D89" s="112">
         <v>139</v>
       </c>
-      <c r="G89" s="117">
+      <c r="G89" s="115">
         <v>1909.9570999999999</v>
       </c>
     </row>
@@ -20731,12 +20844,12 @@
       <c r="C90" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="142">
+      <c r="D90" s="118">
         <v>113</v>
       </c>
-      <c r="E90" s="142"/>
-      <c r="F90" s="142"/>
-      <c r="G90" s="143">
+      <c r="E90" s="118"/>
+      <c r="F90" s="118"/>
+      <c r="G90" s="119">
         <v>1541</v>
       </c>
     </row>
@@ -20744,8 +20857,14 @@
       <c r="C91" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="97"/>
-      <c r="G91" s="98"/>
+      <c r="D91" s="144">
+        <v>186</v>
+      </c>
+      <c r="E91" s="144"/>
+      <c r="F91" s="144"/>
+      <c r="G91" s="145">
+        <v>3122.7479999999996</v>
+      </c>
     </row>
     <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="28" t="s">
@@ -20768,10 +20887,10 @@
       <c r="C95" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D95" s="104"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="105"/>
+      <c r="D95" s="102"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="103"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" s="28" t="s">
@@ -20789,11 +20908,11 @@
       </c>
       <c r="D98">
         <f>SUM(D86:D97)</f>
-        <v>1242</v>
+        <v>1428</v>
       </c>
       <c r="G98" s="28">
         <f>SUM(G86:G97)</f>
-        <v>20296.738499999999</v>
+        <v>23419.486499999999</v>
       </c>
     </row>
   </sheetData>
@@ -20814,7 +20933,7 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -20842,63 +20961,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="I1" s="139" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="I1" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="138">
+      <c r="B2" s="140">
         <v>2020</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140">
         <v>2021</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="138">
+      <c r="J2" s="140">
         <v>2020</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138">
+      <c r="K2" s="140"/>
+      <c r="L2" s="140">
         <v>2021</v>
       </c>
-      <c r="M2" s="138"/>
-      <c r="N2" s="136" t="s">
+      <c r="M2" s="140"/>
+      <c r="N2" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="138" t="s">
+      <c r="O2" s="140" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
+      <c r="A3" s="143"/>
       <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
@@ -20911,9 +21030,9 @@
       <c r="E3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="64" t="s">
         <v>1</v>
       </c>
@@ -20926,8 +21045,8 @@
       <c r="M3" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
